--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="206">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,9 @@
     <t>['36', '53']</t>
   </si>
   <si>
+    <t>['8', '29', '39']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -626,6 +629,9 @@
   </si>
   <si>
     <t>['35', '47', '49']</t>
+  </si>
+  <si>
+    <t>['43']</t>
   </si>
 </sst>
 </file>
@@ -987,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP95"/>
+  <dimension ref="A1:BP96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1246,7 +1252,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1452,7 +1458,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1658,7 +1664,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2070,7 +2076,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2148,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ6">
         <v>2.5</v>
@@ -2688,7 +2694,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2769,7 +2775,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ9">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR9">
         <v>1.59</v>
@@ -3100,7 +3106,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3306,7 +3312,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3512,7 +3518,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3718,7 +3724,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -3796,7 +3802,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ14">
         <v>1.67</v>
@@ -4954,7 +4960,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5366,7 +5372,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5778,7 +5784,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5984,7 +5990,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -6062,7 +6068,7 @@
         <v>2</v>
       </c>
       <c r="AP25">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ25">
         <v>1.13</v>
@@ -6190,7 +6196,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6396,7 +6402,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -7014,7 +7020,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -7095,7 +7101,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ30">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR30">
         <v>1.46</v>
@@ -7220,7 +7226,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7632,7 +7638,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7838,7 +7844,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8456,7 +8462,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -9280,7 +9286,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9486,7 +9492,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9567,7 +9573,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ42">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR42">
         <v>2.47</v>
@@ -9692,7 +9698,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9898,7 +9904,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10310,7 +10316,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10388,7 +10394,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ46">
         <v>0.88</v>
@@ -10516,7 +10522,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q47">
         <v>2.25</v>
@@ -10722,7 +10728,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q48">
         <v>2.5</v>
@@ -11134,7 +11140,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q50">
         <v>1.67</v>
@@ -11340,7 +11346,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11546,7 +11552,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12164,7 +12170,7 @@
         <v>114</v>
       </c>
       <c r="P55" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12245,7 +12251,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ55">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR55">
         <v>1.83</v>
@@ -12370,7 +12376,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q56">
         <v>6.5</v>
@@ -12576,7 +12582,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12654,7 +12660,7 @@
         <v>1.67</v>
       </c>
       <c r="AP57">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ57">
         <v>1.25</v>
@@ -13194,7 +13200,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13606,7 +13612,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13812,7 +13818,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -14018,7 +14024,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q64">
         <v>1.42</v>
@@ -14224,7 +14230,7 @@
         <v>85</v>
       </c>
       <c r="P65" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -14636,7 +14642,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14842,7 +14848,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15460,7 +15466,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15538,7 +15544,7 @@
         <v>2.17</v>
       </c>
       <c r="AP71">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ71">
         <v>2</v>
@@ -16078,7 +16084,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q74">
         <v>1.73</v>
@@ -16490,7 +16496,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16696,7 +16702,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -16902,7 +16908,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17108,7 +17114,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q79">
         <v>3.1</v>
@@ -17520,7 +17526,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q81">
         <v>19</v>
@@ -17601,7 +17607,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ81">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR81">
         <v>0.87</v>
@@ -17726,7 +17732,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q82">
         <v>1.5</v>
@@ -17932,7 +17938,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18013,7 +18019,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ83">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR83">
         <v>1.47</v>
@@ -18138,7 +18144,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -18219,7 +18225,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ84">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR84">
         <v>1.66</v>
@@ -18962,7 +18968,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19246,7 +19252,7 @@
         <v>0.43</v>
       </c>
       <c r="AP89">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ89">
         <v>0.38</v>
@@ -19374,7 +19380,7 @@
         <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q90">
         <v>4.75</v>
@@ -19580,7 +19586,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19864,7 +19870,7 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ92">
         <v>2.13</v>
@@ -20198,7 +20204,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20561,6 +20567,212 @@
       </c>
       <c r="BP95">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7469248</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45616.69791666666</v>
+      </c>
+      <c r="F96">
+        <v>11</v>
+      </c>
+      <c r="G96" t="s">
+        <v>74</v>
+      </c>
+      <c r="H96" t="s">
+        <v>81</v>
+      </c>
+      <c r="I96">
+        <v>3</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>4</v>
+      </c>
+      <c r="L96">
+        <v>3</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>4</v>
+      </c>
+      <c r="O96" t="s">
+        <v>153</v>
+      </c>
+      <c r="P96" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q96">
+        <v>11</v>
+      </c>
+      <c r="R96">
+        <v>3.1</v>
+      </c>
+      <c r="S96">
+        <v>1.44</v>
+      </c>
+      <c r="T96">
+        <v>1.2</v>
+      </c>
+      <c r="U96">
+        <v>4.33</v>
+      </c>
+      <c r="V96">
+        <v>1.83</v>
+      </c>
+      <c r="W96">
+        <v>1.83</v>
+      </c>
+      <c r="X96">
+        <v>3.75</v>
+      </c>
+      <c r="Y96">
+        <v>1.25</v>
+      </c>
+      <c r="Z96">
+        <v>12</v>
+      </c>
+      <c r="AA96">
+        <v>9</v>
+      </c>
+      <c r="AB96">
+        <v>1.13</v>
+      </c>
+      <c r="AC96">
+        <v>1.01</v>
+      </c>
+      <c r="AD96">
+        <v>19</v>
+      </c>
+      <c r="AE96">
+        <v>1.06</v>
+      </c>
+      <c r="AF96">
+        <v>5.9</v>
+      </c>
+      <c r="AG96">
+        <v>1.3</v>
+      </c>
+      <c r="AH96">
+        <v>3.4</v>
+      </c>
+      <c r="AI96">
+        <v>2.1</v>
+      </c>
+      <c r="AJ96">
+        <v>1.67</v>
+      </c>
+      <c r="AK96">
+        <v>6.3</v>
+      </c>
+      <c r="AL96">
+        <v>1.02</v>
+      </c>
+      <c r="AM96">
+        <v>1.01</v>
+      </c>
+      <c r="AN96">
+        <v>0.63</v>
+      </c>
+      <c r="AO96">
+        <v>2.57</v>
+      </c>
+      <c r="AP96">
+        <v>0.89</v>
+      </c>
+      <c r="AQ96">
+        <v>2.25</v>
+      </c>
+      <c r="AR96">
+        <v>1.34</v>
+      </c>
+      <c r="AS96">
+        <v>2.2</v>
+      </c>
+      <c r="AT96">
+        <v>3.54</v>
+      </c>
+      <c r="AU96">
+        <v>6</v>
+      </c>
+      <c r="AV96">
+        <v>10</v>
+      </c>
+      <c r="AW96">
+        <v>1</v>
+      </c>
+      <c r="AX96">
+        <v>9</v>
+      </c>
+      <c r="AY96">
+        <v>7</v>
+      </c>
+      <c r="AZ96">
+        <v>19</v>
+      </c>
+      <c r="BA96">
+        <v>2</v>
+      </c>
+      <c r="BB96">
+        <v>8</v>
+      </c>
+      <c r="BC96">
+        <v>10</v>
+      </c>
+      <c r="BD96">
+        <v>15.5</v>
+      </c>
+      <c r="BE96">
+        <v>18</v>
+      </c>
+      <c r="BF96">
+        <v>1.02</v>
+      </c>
+      <c r="BG96">
+        <v>1.2</v>
+      </c>
+      <c r="BH96">
+        <v>4</v>
+      </c>
+      <c r="BI96">
+        <v>1.33</v>
+      </c>
+      <c r="BJ96">
+        <v>3</v>
+      </c>
+      <c r="BK96">
+        <v>1.52</v>
+      </c>
+      <c r="BL96">
+        <v>2.18</v>
+      </c>
+      <c r="BM96">
+        <v>1.91</v>
+      </c>
+      <c r="BN96">
+        <v>1.8</v>
+      </c>
+      <c r="BO96">
+        <v>2.42</v>
+      </c>
+      <c r="BP96">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,6 +478,15 @@
     <t>['8', '29', '39']</t>
   </si>
   <si>
+    <t>['50', '65', '89']</t>
+  </si>
+  <si>
+    <t>['47', '80', '81']</t>
+  </si>
+  <si>
+    <t>['57', '83']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -632,6 +641,9 @@
   </si>
   <si>
     <t>['43']</t>
+  </si>
+  <si>
+    <t>['27', '31']</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP96"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1252,7 +1264,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1333,7 +1345,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ2">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1458,7 +1470,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1539,7 +1551,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1664,7 +1676,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1742,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ4">
         <v>1.67</v>
@@ -2076,7 +2088,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2157,7 +2169,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ6">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2363,7 +2375,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ7">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2566,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ8">
         <v>1.38</v>
@@ -2694,7 +2706,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2772,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ9">
         <v>2.25</v>
@@ -3106,7 +3118,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3312,7 +3324,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3518,7 +3530,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3724,7 +3736,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4008,10 +4020,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ15">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4629,7 +4641,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ18">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR18">
         <v>1.22</v>
@@ -4832,7 +4844,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ19">
         <v>2</v>
@@ -4960,7 +4972,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5038,7 +5050,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ20">
         <v>1.13</v>
@@ -5247,7 +5259,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ21">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR21">
         <v>1.58</v>
@@ -5372,7 +5384,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5656,7 +5668,7 @@
         <v>2</v>
       </c>
       <c r="AP23">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ23">
         <v>1.13</v>
@@ -5784,7 +5796,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5990,7 +6002,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -6196,7 +6208,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6277,7 +6289,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ26">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AR26">
         <v>1.81</v>
@@ -6402,7 +6414,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -6686,10 +6698,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ28">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -6895,7 +6907,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR29">
         <v>1.93</v>
@@ -7020,7 +7032,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -7098,7 +7110,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ30">
         <v>2.25</v>
@@ -7226,7 +7238,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7638,7 +7650,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7844,7 +7856,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8131,7 +8143,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ35">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR35">
         <v>1.37</v>
@@ -8462,7 +8474,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -8543,7 +8555,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ37">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR37">
         <v>1.1</v>
@@ -8746,7 +8758,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ38">
         <v>2</v>
@@ -8952,7 +8964,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ39">
         <v>1.38</v>
@@ -9161,7 +9173,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ40">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9286,7 +9298,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9492,7 +9504,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9698,7 +9710,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9904,7 +9916,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9982,7 +9994,7 @@
         <v>2.33</v>
       </c>
       <c r="AP44">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ44">
         <v>1.13</v>
@@ -10316,7 +10328,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10522,7 +10534,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q47">
         <v>2.25</v>
@@ -10728,7 +10740,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q48">
         <v>2.5</v>
@@ -10806,7 +10818,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ48">
         <v>1.38</v>
@@ -11015,7 +11027,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ49">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR49">
         <v>2.19</v>
@@ -11140,7 +11152,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q50">
         <v>1.67</v>
@@ -11218,10 +11230,10 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ50">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR50">
         <v>3.27</v>
@@ -11346,7 +11358,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11552,7 +11564,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11630,7 +11642,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ52">
         <v>2.13</v>
@@ -11836,7 +11848,7 @@
         <v>2.5</v>
       </c>
       <c r="AP53">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ53">
         <v>1.67</v>
@@ -12045,7 +12057,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ54">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR54">
         <v>1.67</v>
@@ -12170,7 +12182,7 @@
         <v>114</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12376,7 +12388,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q56">
         <v>6.5</v>
@@ -12454,10 +12466,10 @@
         <v>2.5</v>
       </c>
       <c r="AP56">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ56">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AR56">
         <v>1.7</v>
@@ -12582,7 +12594,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12663,7 +12675,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ57">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR57">
         <v>1.02</v>
@@ -13075,7 +13087,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ59">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR59">
         <v>1.28</v>
@@ -13200,7 +13212,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13612,7 +13624,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13818,7 +13830,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -13896,7 +13908,7 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ63">
         <v>2.13</v>
@@ -14024,7 +14036,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q64">
         <v>1.42</v>
@@ -14102,7 +14114,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ64">
         <v>2.13</v>
@@ -14230,7 +14242,7 @@
         <v>85</v>
       </c>
       <c r="P65" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -14311,7 +14323,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ65">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AR65">
         <v>0.96</v>
@@ -14517,7 +14529,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ66">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR66">
         <v>1.7</v>
@@ -14642,7 +14654,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14848,7 +14860,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14926,10 +14938,10 @@
         <v>1.5</v>
       </c>
       <c r="AP68">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ68">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR68">
         <v>1.56</v>
@@ -15132,7 +15144,7 @@
         <v>1.4</v>
       </c>
       <c r="AP69">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ69">
         <v>1.13</v>
@@ -15338,7 +15350,7 @@
         <v>2.14</v>
       </c>
       <c r="AP70">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ70">
         <v>1.67</v>
@@ -15466,7 +15478,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15956,7 +15968,7 @@
         <v>1.4</v>
       </c>
       <c r="AP73">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ73">
         <v>0.88</v>
@@ -16084,7 +16096,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q74">
         <v>1.73</v>
@@ -16165,7 +16177,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ74">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR74">
         <v>1.35</v>
@@ -16368,10 +16380,10 @@
         <v>2.67</v>
       </c>
       <c r="AP75">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ75">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AR75">
         <v>1.22</v>
@@ -16496,7 +16508,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16702,7 +16714,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -16780,7 +16792,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ77">
         <v>1.13</v>
@@ -16908,7 +16920,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -16989,7 +17001,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ78">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR78">
         <v>1.99</v>
@@ -17114,7 +17126,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q79">
         <v>3.1</v>
@@ -17192,7 +17204,7 @@
         <v>1.14</v>
       </c>
       <c r="AP79">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ79">
         <v>1.38</v>
@@ -17398,7 +17410,7 @@
         <v>2.17</v>
       </c>
       <c r="AP80">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ80">
         <v>2.13</v>
@@ -17526,7 +17538,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q81">
         <v>19</v>
@@ -17732,7 +17744,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q82">
         <v>1.5</v>
@@ -17813,7 +17825,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ82">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR82">
         <v>1.39</v>
@@ -17938,7 +17950,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18144,7 +18156,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -18431,7 +18443,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ85">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR85">
         <v>1.83</v>
@@ -18840,7 +18852,7 @@
         <v>1.17</v>
       </c>
       <c r="AP87">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ87">
         <v>0.88</v>
@@ -18968,7 +18980,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19049,7 +19061,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ88">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AR88">
         <v>1.4</v>
@@ -19255,7 +19267,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ89">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR89">
         <v>1.09</v>
@@ -19380,7 +19392,7 @@
         <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q90">
         <v>4.75</v>
@@ -19586,7 +19598,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20204,7 +20216,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20282,10 +20294,10 @@
         <v>1.29</v>
       </c>
       <c r="AP94">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ94">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR94">
         <v>1.18</v>
@@ -20488,7 +20500,7 @@
         <v>2.29</v>
       </c>
       <c r="AP95">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ95">
         <v>2</v>
@@ -20616,7 +20628,7 @@
         <v>153</v>
       </c>
       <c r="P96" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -20773,6 +20785,830 @@
       </c>
       <c r="BP96">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7727599</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45619.47916666666</v>
+      </c>
+      <c r="F97">
+        <v>17</v>
+      </c>
+      <c r="G97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H97" t="s">
+        <v>77</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>2</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <v>3</v>
+      </c>
+      <c r="M97">
+        <v>2</v>
+      </c>
+      <c r="N97">
+        <v>5</v>
+      </c>
+      <c r="O97" t="s">
+        <v>154</v>
+      </c>
+      <c r="P97" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q97">
+        <v>1.73</v>
+      </c>
+      <c r="R97">
+        <v>2.5</v>
+      </c>
+      <c r="S97">
+        <v>8</v>
+      </c>
+      <c r="T97">
+        <v>1.33</v>
+      </c>
+      <c r="U97">
+        <v>3.25</v>
+      </c>
+      <c r="V97">
+        <v>2.5</v>
+      </c>
+      <c r="W97">
+        <v>1.5</v>
+      </c>
+      <c r="X97">
+        <v>5.5</v>
+      </c>
+      <c r="Y97">
+        <v>1.13</v>
+      </c>
+      <c r="Z97">
+        <v>1.19</v>
+      </c>
+      <c r="AA97">
+        <v>4.64</v>
+      </c>
+      <c r="AB97">
+        <v>8.98</v>
+      </c>
+      <c r="AC97">
+        <v>0</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
+      </c>
+      <c r="AF97">
+        <v>0</v>
+      </c>
+      <c r="AG97">
+        <v>1.67</v>
+      </c>
+      <c r="AH97">
+        <v>2.15</v>
+      </c>
+      <c r="AI97">
+        <v>2.2</v>
+      </c>
+      <c r="AJ97">
+        <v>1.62</v>
+      </c>
+      <c r="AK97">
+        <v>0</v>
+      </c>
+      <c r="AL97">
+        <v>0</v>
+      </c>
+      <c r="AM97">
+        <v>0</v>
+      </c>
+      <c r="AN97">
+        <v>2.14</v>
+      </c>
+      <c r="AO97">
+        <v>2.5</v>
+      </c>
+      <c r="AP97">
+        <v>2.25</v>
+      </c>
+      <c r="AQ97">
+        <v>2.22</v>
+      </c>
+      <c r="AR97">
+        <v>2.55</v>
+      </c>
+      <c r="AS97">
+        <v>1.7</v>
+      </c>
+      <c r="AT97">
+        <v>4.25</v>
+      </c>
+      <c r="AU97">
+        <v>4</v>
+      </c>
+      <c r="AV97">
+        <v>4</v>
+      </c>
+      <c r="AW97">
+        <v>4</v>
+      </c>
+      <c r="AX97">
+        <v>1</v>
+      </c>
+      <c r="AY97">
+        <v>8</v>
+      </c>
+      <c r="AZ97">
+        <v>5</v>
+      </c>
+      <c r="BA97">
+        <v>13</v>
+      </c>
+      <c r="BB97">
+        <v>1</v>
+      </c>
+      <c r="BC97">
+        <v>14</v>
+      </c>
+      <c r="BD97">
+        <v>0</v>
+      </c>
+      <c r="BE97">
+        <v>0</v>
+      </c>
+      <c r="BF97">
+        <v>0</v>
+      </c>
+      <c r="BG97">
+        <v>0</v>
+      </c>
+      <c r="BH97">
+        <v>0</v>
+      </c>
+      <c r="BI97">
+        <v>0</v>
+      </c>
+      <c r="BJ97">
+        <v>0</v>
+      </c>
+      <c r="BK97">
+        <v>0</v>
+      </c>
+      <c r="BL97">
+        <v>0</v>
+      </c>
+      <c r="BM97">
+        <v>0</v>
+      </c>
+      <c r="BN97">
+        <v>0</v>
+      </c>
+      <c r="BO97">
+        <v>0</v>
+      </c>
+      <c r="BP97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7727597</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45619.47916666666</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>80</v>
+      </c>
+      <c r="H98" t="s">
+        <v>75</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98" t="s">
+        <v>85</v>
+      </c>
+      <c r="P98" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q98">
+        <v>2.75</v>
+      </c>
+      <c r="R98">
+        <v>2.05</v>
+      </c>
+      <c r="S98">
+        <v>3.75</v>
+      </c>
+      <c r="T98">
+        <v>1.44</v>
+      </c>
+      <c r="U98">
+        <v>2.63</v>
+      </c>
+      <c r="V98">
+        <v>3</v>
+      </c>
+      <c r="W98">
+        <v>1.36</v>
+      </c>
+      <c r="X98">
+        <v>7.5</v>
+      </c>
+      <c r="Y98">
+        <v>1.07</v>
+      </c>
+      <c r="Z98">
+        <v>1.9</v>
+      </c>
+      <c r="AA98">
+        <v>3.25</v>
+      </c>
+      <c r="AB98">
+        <v>3.75</v>
+      </c>
+      <c r="AC98">
+        <v>4.4</v>
+      </c>
+      <c r="AD98">
+        <v>1.19</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
+      </c>
+      <c r="AF98">
+        <v>0</v>
+      </c>
+      <c r="AG98">
+        <v>1.77</v>
+      </c>
+      <c r="AH98">
+        <v>1.98</v>
+      </c>
+      <c r="AI98">
+        <v>1.83</v>
+      </c>
+      <c r="AJ98">
+        <v>1.83</v>
+      </c>
+      <c r="AK98">
+        <v>0</v>
+      </c>
+      <c r="AL98">
+        <v>0</v>
+      </c>
+      <c r="AM98">
+        <v>0</v>
+      </c>
+      <c r="AN98">
+        <v>1.63</v>
+      </c>
+      <c r="AO98">
+        <v>1.25</v>
+      </c>
+      <c r="AP98">
+        <v>1.56</v>
+      </c>
+      <c r="AQ98">
+        <v>1.22</v>
+      </c>
+      <c r="AR98">
+        <v>1.39</v>
+      </c>
+      <c r="AS98">
+        <v>1.35</v>
+      </c>
+      <c r="AT98">
+        <v>2.74</v>
+      </c>
+      <c r="AU98">
+        <v>3</v>
+      </c>
+      <c r="AV98">
+        <v>4</v>
+      </c>
+      <c r="AW98">
+        <v>3</v>
+      </c>
+      <c r="AX98">
+        <v>1</v>
+      </c>
+      <c r="AY98">
+        <v>6</v>
+      </c>
+      <c r="AZ98">
+        <v>5</v>
+      </c>
+      <c r="BA98">
+        <v>5</v>
+      </c>
+      <c r="BB98">
+        <v>3</v>
+      </c>
+      <c r="BC98">
+        <v>8</v>
+      </c>
+      <c r="BD98">
+        <v>0</v>
+      </c>
+      <c r="BE98">
+        <v>0</v>
+      </c>
+      <c r="BF98">
+        <v>0</v>
+      </c>
+      <c r="BG98">
+        <v>0</v>
+      </c>
+      <c r="BH98">
+        <v>0</v>
+      </c>
+      <c r="BI98">
+        <v>0</v>
+      </c>
+      <c r="BJ98">
+        <v>0</v>
+      </c>
+      <c r="BK98">
+        <v>0</v>
+      </c>
+      <c r="BL98">
+        <v>0</v>
+      </c>
+      <c r="BM98">
+        <v>0</v>
+      </c>
+      <c r="BN98">
+        <v>0</v>
+      </c>
+      <c r="BO98">
+        <v>0</v>
+      </c>
+      <c r="BP98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7727595</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45619.47916666666</v>
+      </c>
+      <c r="F99">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>76</v>
+      </c>
+      <c r="H99" t="s">
+        <v>78</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>3</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99" t="s">
+        <v>155</v>
+      </c>
+      <c r="P99" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q99">
+        <v>1.62</v>
+      </c>
+      <c r="R99">
+        <v>2.6</v>
+      </c>
+      <c r="S99">
+        <v>9.5</v>
+      </c>
+      <c r="T99">
+        <v>1.3</v>
+      </c>
+      <c r="U99">
+        <v>3.4</v>
+      </c>
+      <c r="V99">
+        <v>2.38</v>
+      </c>
+      <c r="W99">
+        <v>1.53</v>
+      </c>
+      <c r="X99">
+        <v>5</v>
+      </c>
+      <c r="Y99">
+        <v>1.14</v>
+      </c>
+      <c r="Z99">
+        <v>1.39</v>
+      </c>
+      <c r="AA99">
+        <v>4.45</v>
+      </c>
+      <c r="AB99">
+        <v>6.3</v>
+      </c>
+      <c r="AC99">
+        <v>0</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>2.5</v>
+      </c>
+      <c r="AF99">
+        <v>1.51</v>
+      </c>
+      <c r="AG99">
+        <v>1.65</v>
+      </c>
+      <c r="AH99">
+        <v>2.15</v>
+      </c>
+      <c r="AI99">
+        <v>2.25</v>
+      </c>
+      <c r="AJ99">
+        <v>1.57</v>
+      </c>
+      <c r="AK99">
+        <v>0</v>
+      </c>
+      <c r="AL99">
+        <v>0</v>
+      </c>
+      <c r="AM99">
+        <v>0</v>
+      </c>
+      <c r="AN99">
+        <v>1.43</v>
+      </c>
+      <c r="AO99">
+        <v>0.38</v>
+      </c>
+      <c r="AP99">
+        <v>1.63</v>
+      </c>
+      <c r="AQ99">
+        <v>0.33</v>
+      </c>
+      <c r="AR99">
+        <v>1.22</v>
+      </c>
+      <c r="AS99">
+        <v>0.89</v>
+      </c>
+      <c r="AT99">
+        <v>2.11</v>
+      </c>
+      <c r="AU99">
+        <v>6</v>
+      </c>
+      <c r="AV99">
+        <v>3</v>
+      </c>
+      <c r="AW99">
+        <v>5</v>
+      </c>
+      <c r="AX99">
+        <v>3</v>
+      </c>
+      <c r="AY99">
+        <v>11</v>
+      </c>
+      <c r="AZ99">
+        <v>6</v>
+      </c>
+      <c r="BA99">
+        <v>4</v>
+      </c>
+      <c r="BB99">
+        <v>3</v>
+      </c>
+      <c r="BC99">
+        <v>7</v>
+      </c>
+      <c r="BD99">
+        <v>0</v>
+      </c>
+      <c r="BE99">
+        <v>0</v>
+      </c>
+      <c r="BF99">
+        <v>0</v>
+      </c>
+      <c r="BG99">
+        <v>0</v>
+      </c>
+      <c r="BH99">
+        <v>0</v>
+      </c>
+      <c r="BI99">
+        <v>0</v>
+      </c>
+      <c r="BJ99">
+        <v>0</v>
+      </c>
+      <c r="BK99">
+        <v>0</v>
+      </c>
+      <c r="BL99">
+        <v>0</v>
+      </c>
+      <c r="BM99">
+        <v>0</v>
+      </c>
+      <c r="BN99">
+        <v>0</v>
+      </c>
+      <c r="BO99">
+        <v>0</v>
+      </c>
+      <c r="BP99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7727596</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45619.47916666666</v>
+      </c>
+      <c r="F100">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>72</v>
+      </c>
+      <c r="H100" t="s">
+        <v>74</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>2</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100" t="s">
+        <v>156</v>
+      </c>
+      <c r="P100" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q100">
+        <v>2.05</v>
+      </c>
+      <c r="R100">
+        <v>2.3</v>
+      </c>
+      <c r="S100">
+        <v>5.5</v>
+      </c>
+      <c r="T100">
+        <v>1.33</v>
+      </c>
+      <c r="U100">
+        <v>3.25</v>
+      </c>
+      <c r="V100">
+        <v>2.63</v>
+      </c>
+      <c r="W100">
+        <v>1.44</v>
+      </c>
+      <c r="X100">
+        <v>6</v>
+      </c>
+      <c r="Y100">
+        <v>1.11</v>
+      </c>
+      <c r="Z100">
+        <v>1.83</v>
+      </c>
+      <c r="AA100">
+        <v>3.6</v>
+      </c>
+      <c r="AB100">
+        <v>3.6</v>
+      </c>
+      <c r="AC100">
+        <v>0</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>1.8</v>
+      </c>
+      <c r="AF100">
+        <v>1.99</v>
+      </c>
+      <c r="AG100">
+        <v>1.7</v>
+      </c>
+      <c r="AH100">
+        <v>2.05</v>
+      </c>
+      <c r="AI100">
+        <v>1.83</v>
+      </c>
+      <c r="AJ100">
+        <v>1.83</v>
+      </c>
+      <c r="AK100">
+        <v>0</v>
+      </c>
+      <c r="AL100">
+        <v>0</v>
+      </c>
+      <c r="AM100">
+        <v>0</v>
+      </c>
+      <c r="AN100">
+        <v>0.5</v>
+      </c>
+      <c r="AO100">
+        <v>0.5</v>
+      </c>
+      <c r="AP100">
+        <v>0.78</v>
+      </c>
+      <c r="AQ100">
+        <v>0.43</v>
+      </c>
+      <c r="AR100">
+        <v>1.69</v>
+      </c>
+      <c r="AS100">
+        <v>1.34</v>
+      </c>
+      <c r="AT100">
+        <v>3.03</v>
+      </c>
+      <c r="AU100">
+        <v>6</v>
+      </c>
+      <c r="AV100">
+        <v>2</v>
+      </c>
+      <c r="AW100">
+        <v>4</v>
+      </c>
+      <c r="AX100">
+        <v>3</v>
+      </c>
+      <c r="AY100">
+        <v>10</v>
+      </c>
+      <c r="AZ100">
+        <v>5</v>
+      </c>
+      <c r="BA100">
+        <v>8</v>
+      </c>
+      <c r="BB100">
+        <v>6</v>
+      </c>
+      <c r="BC100">
+        <v>14</v>
+      </c>
+      <c r="BD100">
+        <v>0</v>
+      </c>
+      <c r="BE100">
+        <v>0</v>
+      </c>
+      <c r="BF100">
+        <v>0</v>
+      </c>
+      <c r="BG100">
+        <v>0</v>
+      </c>
+      <c r="BH100">
+        <v>0</v>
+      </c>
+      <c r="BI100">
+        <v>0</v>
+      </c>
+      <c r="BJ100">
+        <v>0</v>
+      </c>
+      <c r="BK100">
+        <v>0</v>
+      </c>
+      <c r="BL100">
+        <v>0</v>
+      </c>
+      <c r="BM100">
+        <v>0</v>
+      </c>
+      <c r="BN100">
+        <v>0</v>
+      </c>
+      <c r="BO100">
+        <v>0</v>
+      </c>
+      <c r="BP100">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -20927,10 +20927,10 @@
         <v>4.25</v>
       </c>
       <c r="AU97">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW97">
         <v>4</v>
@@ -20939,10 +20939,10 @@
         <v>1</v>
       </c>
       <c r="AY97">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ97">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA97">
         <v>13</v>
@@ -21145,10 +21145,10 @@
         <v>1</v>
       </c>
       <c r="AY98">
+        <v>7</v>
+      </c>
+      <c r="AZ98">
         <v>6</v>
-      </c>
-      <c r="AZ98">
-        <v>5</v>
       </c>
       <c r="BA98">
         <v>5</v>
@@ -21351,7 +21351,7 @@
         <v>3</v>
       </c>
       <c r="AY99">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ99">
         <v>6</v>
@@ -21545,10 +21545,10 @@
         <v>3.03</v>
       </c>
       <c r="AU100">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW100">
         <v>4</v>
@@ -21557,10 +21557,10 @@
         <v>3</v>
       </c>
       <c r="AY100">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ100">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BA100">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -430,10 +430,10 @@
     <t>['6', '50']</t>
   </si>
   <si>
-    <t>['41']</t>
+    <t>['62']</t>
   </si>
   <si>
-    <t>['62']</t>
+    <t>['41']</t>
   </si>
   <si>
     <t>['22', '72']</t>
@@ -478,10 +478,10 @@
     <t>['8', '29', '39']</t>
   </si>
   <si>
-    <t>['50', '65', '89']</t>
+    <t>['47', '80', '81']</t>
   </si>
   <si>
-    <t>['47', '80', '81']</t>
+    <t>['50', '65', '89']</t>
   </si>
   <si>
     <t>['57', '83']</t>
@@ -616,10 +616,10 @@
     <t>['8']</t>
   </si>
   <si>
-    <t>['90+4']</t>
+    <t>['21', '29']</t>
   </si>
   <si>
-    <t>['21', '29']</t>
+    <t>['90+4']</t>
   </si>
   <si>
     <t>['2', '42', '45', '90+6']</t>
@@ -16878,7 +16878,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7727578</v>
+        <v>7727577</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16893,28 +16893,28 @@
         <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H78" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L78">
         <v>1</v>
       </c>
       <c r="M78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O78" t="s">
         <v>138</v>
@@ -16923,121 +16923,121 @@
         <v>200</v>
       </c>
       <c r="Q78">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="R78">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S78">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="T78">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U78">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V78">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="W78">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="X78">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Y78">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="Z78">
-        <v>1.65</v>
+        <v>2.35</v>
       </c>
       <c r="AA78">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AB78">
-        <v>4.6</v>
+        <v>2.45</v>
       </c>
       <c r="AC78">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD78">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE78">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="AF78">
-        <v>3.04</v>
+        <v>3.88</v>
       </c>
       <c r="AG78">
-        <v>2.05</v>
+        <v>1.58</v>
       </c>
       <c r="AH78">
-        <v>1.66</v>
+        <v>2.2</v>
       </c>
       <c r="AI78">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AJ78">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AK78">
-        <v>1.28</v>
+        <v>1.51</v>
       </c>
       <c r="AL78">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM78">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AN78">
-        <v>2.17</v>
+        <v>0.57</v>
       </c>
       <c r="AO78">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="AP78">
-        <v>2.13</v>
+        <v>0.78</v>
       </c>
       <c r="AQ78">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AR78">
-        <v>1.99</v>
+        <v>1.54</v>
       </c>
       <c r="AS78">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AT78">
-        <v>3.27</v>
+        <v>2.83</v>
       </c>
       <c r="AU78">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV78">
         <v>4</v>
       </c>
       <c r="AW78">
+        <v>13</v>
+      </c>
+      <c r="AX78">
+        <v>6</v>
+      </c>
+      <c r="AY78">
+        <v>22</v>
+      </c>
+      <c r="AZ78">
         <v>10</v>
       </c>
-      <c r="AX78">
-        <v>3</v>
-      </c>
-      <c r="AY78">
+      <c r="BA78">
+        <v>10</v>
+      </c>
+      <c r="BB78">
+        <v>4</v>
+      </c>
+      <c r="BC78">
         <v>14</v>
-      </c>
-      <c r="AZ78">
-        <v>7</v>
-      </c>
-      <c r="BA78">
-        <v>6</v>
-      </c>
-      <c r="BB78">
-        <v>6</v>
-      </c>
-      <c r="BC78">
-        <v>12</v>
       </c>
       <c r="BD78">
         <v>0</v>
@@ -17084,7 +17084,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7727577</v>
+        <v>7727578</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17099,28 +17099,28 @@
         <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H79" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L79">
         <v>1</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O79" t="s">
         <v>139</v>
@@ -17129,121 +17129,121 @@
         <v>201</v>
       </c>
       <c r="Q79">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="R79">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S79">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="T79">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U79">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V79">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="W79">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="X79">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Y79">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="Z79">
-        <v>2.35</v>
+        <v>1.65</v>
       </c>
       <c r="AA79">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AB79">
-        <v>2.45</v>
+        <v>4.6</v>
       </c>
       <c r="AC79">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD79">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE79">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="AF79">
-        <v>3.88</v>
+        <v>3.04</v>
       </c>
       <c r="AG79">
-        <v>1.58</v>
+        <v>2.05</v>
       </c>
       <c r="AH79">
-        <v>2.2</v>
+        <v>1.66</v>
       </c>
       <c r="AI79">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AJ79">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AK79">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
       <c r="AL79">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM79">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="AN79">
-        <v>0.57</v>
+        <v>2.17</v>
       </c>
       <c r="AO79">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="AP79">
-        <v>0.78</v>
+        <v>2.13</v>
       </c>
       <c r="AQ79">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR79">
-        <v>1.54</v>
+        <v>1.99</v>
       </c>
       <c r="AS79">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT79">
-        <v>2.83</v>
+        <v>3.27</v>
       </c>
       <c r="AU79">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AV79">
         <v>4</v>
       </c>
       <c r="AW79">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AX79">
+        <v>3</v>
+      </c>
+      <c r="AY79">
+        <v>14</v>
+      </c>
+      <c r="AZ79">
+        <v>7</v>
+      </c>
+      <c r="BA79">
         <v>6</v>
       </c>
-      <c r="AY79">
-        <v>22</v>
-      </c>
-      <c r="AZ79">
-        <v>10</v>
-      </c>
-      <c r="BA79">
-        <v>10</v>
-      </c>
       <c r="BB79">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC79">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD79">
         <v>0</v>
@@ -20792,7 +20792,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7727599</v>
+        <v>7727595</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
@@ -20801,100 +20801,100 @@
         <v>69</v>
       </c>
       <c r="E97" s="2">
-        <v>45619.47916666666</v>
+        <v>45618.875</v>
       </c>
       <c r="F97">
         <v>17</v>
       </c>
       <c r="G97" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H97" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L97">
         <v>3</v>
       </c>
       <c r="M97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O97" t="s">
         <v>154</v>
       </c>
       <c r="P97" t="s">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c r="Q97">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="R97">
+        <v>2.6</v>
+      </c>
+      <c r="S97">
+        <v>9.5</v>
+      </c>
+      <c r="T97">
+        <v>1.3</v>
+      </c>
+      <c r="U97">
+        <v>3.4</v>
+      </c>
+      <c r="V97">
+        <v>2.38</v>
+      </c>
+      <c r="W97">
+        <v>1.53</v>
+      </c>
+      <c r="X97">
+        <v>5</v>
+      </c>
+      <c r="Y97">
+        <v>1.14</v>
+      </c>
+      <c r="Z97">
+        <v>1.39</v>
+      </c>
+      <c r="AA97">
+        <v>4.45</v>
+      </c>
+      <c r="AB97">
+        <v>6.3</v>
+      </c>
+      <c r="AC97">
+        <v>0</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
         <v>2.5</v>
       </c>
-      <c r="S97">
-        <v>8</v>
-      </c>
-      <c r="T97">
-        <v>1.33</v>
-      </c>
-      <c r="U97">
-        <v>3.25</v>
-      </c>
-      <c r="V97">
-        <v>2.5</v>
-      </c>
-      <c r="W97">
-        <v>1.5</v>
-      </c>
-      <c r="X97">
-        <v>5.5</v>
-      </c>
-      <c r="Y97">
-        <v>1.13</v>
-      </c>
-      <c r="Z97">
-        <v>1.19</v>
-      </c>
-      <c r="AA97">
-        <v>4.64</v>
-      </c>
-      <c r="AB97">
-        <v>8.98</v>
-      </c>
-      <c r="AC97">
-        <v>0</v>
-      </c>
-      <c r="AD97">
-        <v>0</v>
-      </c>
-      <c r="AE97">
-        <v>0</v>
-      </c>
       <c r="AF97">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AG97">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AH97">
         <v>2.15</v>
       </c>
       <c r="AI97">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AJ97">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AK97">
         <v>0</v>
@@ -20906,52 +20906,52 @@
         <v>0</v>
       </c>
       <c r="AN97">
-        <v>2.14</v>
+        <v>1.43</v>
       </c>
       <c r="AO97">
-        <v>2.5</v>
+        <v>0.38</v>
       </c>
       <c r="AP97">
-        <v>2.25</v>
+        <v>1.63</v>
       </c>
       <c r="AQ97">
-        <v>2.22</v>
+        <v>0.33</v>
       </c>
       <c r="AR97">
-        <v>2.55</v>
+        <v>1.22</v>
       </c>
       <c r="AS97">
-        <v>1.7</v>
+        <v>0.89</v>
       </c>
       <c r="AT97">
-        <v>4.25</v>
+        <v>2.11</v>
       </c>
       <c r="AU97">
         <v>6</v>
       </c>
       <c r="AV97">
+        <v>3</v>
+      </c>
+      <c r="AW97">
         <v>5</v>
       </c>
-      <c r="AW97">
+      <c r="AX97">
+        <v>3</v>
+      </c>
+      <c r="AY97">
+        <v>15</v>
+      </c>
+      <c r="AZ97">
+        <v>6</v>
+      </c>
+      <c r="BA97">
         <v>4</v>
       </c>
-      <c r="AX97">
-        <v>1</v>
-      </c>
-      <c r="AY97">
-        <v>14</v>
-      </c>
-      <c r="AZ97">
+      <c r="BB97">
+        <v>3</v>
+      </c>
+      <c r="BC97">
         <v>7</v>
-      </c>
-      <c r="BA97">
-        <v>13</v>
-      </c>
-      <c r="BB97">
-        <v>1</v>
-      </c>
-      <c r="BC97">
-        <v>14</v>
       </c>
       <c r="BD97">
         <v>0</v>
@@ -21007,7 +21007,7 @@
         <v>69</v>
       </c>
       <c r="E98" s="2">
-        <v>45619.47916666666</v>
+        <v>45618.875</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -21204,7 +21204,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7727595</v>
+        <v>7727599</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21213,76 +21213,76 @@
         <v>69</v>
       </c>
       <c r="E99" s="2">
-        <v>45619.47916666666</v>
+        <v>45618.875</v>
       </c>
       <c r="F99">
         <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H99" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L99">
         <v>3</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N99">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O99" t="s">
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="Q99">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="R99">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S99">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="T99">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U99">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V99">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W99">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X99">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y99">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Z99">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AA99">
-        <v>4.45</v>
+        <v>4.64</v>
       </c>
       <c r="AB99">
-        <v>6.3</v>
+        <v>8.98</v>
       </c>
       <c r="AC99">
         <v>0</v>
@@ -21291,79 +21291,79 @@
         <v>0</v>
       </c>
       <c r="AE99">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AF99">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AG99">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AH99">
         <v>2.15</v>
       </c>
       <c r="AI99">
+        <v>2.2</v>
+      </c>
+      <c r="AJ99">
+        <v>1.62</v>
+      </c>
+      <c r="AK99">
+        <v>0</v>
+      </c>
+      <c r="AL99">
+        <v>0</v>
+      </c>
+      <c r="AM99">
+        <v>0</v>
+      </c>
+      <c r="AN99">
+        <v>2.14</v>
+      </c>
+      <c r="AO99">
+        <v>2.5</v>
+      </c>
+      <c r="AP99">
         <v>2.25</v>
       </c>
-      <c r="AJ99">
-        <v>1.57</v>
-      </c>
-      <c r="AK99">
-        <v>0</v>
-      </c>
-      <c r="AL99">
-        <v>0</v>
-      </c>
-      <c r="AM99">
-        <v>0</v>
-      </c>
-      <c r="AN99">
-        <v>1.43</v>
-      </c>
-      <c r="AO99">
-        <v>0.38</v>
-      </c>
-      <c r="AP99">
-        <v>1.63</v>
-      </c>
       <c r="AQ99">
-        <v>0.33</v>
+        <v>2.22</v>
       </c>
       <c r="AR99">
-        <v>1.22</v>
+        <v>2.55</v>
       </c>
       <c r="AS99">
-        <v>0.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT99">
-        <v>2.11</v>
+        <v>4.25</v>
       </c>
       <c r="AU99">
         <v>6</v>
       </c>
       <c r="AV99">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY99">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ99">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA99">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BB99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC99">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BD99">
         <v>0</v>
@@ -21419,7 +21419,7 @@
         <v>69</v>
       </c>
       <c r="E100" s="2">
-        <v>45619.47916666666</v>
+        <v>45618.875</v>
       </c>
       <c r="F100">
         <v>17</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -430,10 +430,10 @@
     <t>['6', '50']</t>
   </si>
   <si>
-    <t>['62']</t>
+    <t>['41']</t>
   </si>
   <si>
-    <t>['41']</t>
+    <t>['62']</t>
   </si>
   <si>
     <t>['22', '72']</t>
@@ -478,13 +478,13 @@
     <t>['8', '29', '39']</t>
   </si>
   <si>
-    <t>['47', '80', '81']</t>
-  </si>
-  <si>
     <t>['50', '65', '89']</t>
   </si>
   <si>
     <t>['57', '83']</t>
+  </si>
+  <si>
+    <t>['47', '80', '81']</t>
   </si>
   <si>
     <t>['45+2']</t>
@@ -616,10 +616,10 @@
     <t>['8']</t>
   </si>
   <si>
-    <t>['21', '29']</t>
+    <t>['90+4']</t>
   </si>
   <si>
-    <t>['90+4']</t>
+    <t>['21', '29']</t>
   </si>
   <si>
     <t>['2', '42', '45', '90+6']</t>
@@ -16878,7 +16878,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7727577</v>
+        <v>7727578</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16893,28 +16893,28 @@
         <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H78" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L78">
         <v>1</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O78" t="s">
         <v>138</v>
@@ -16923,121 +16923,121 @@
         <v>200</v>
       </c>
       <c r="Q78">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="R78">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S78">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="T78">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U78">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V78">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="W78">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="X78">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Y78">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="Z78">
-        <v>2.35</v>
+        <v>1.65</v>
       </c>
       <c r="AA78">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AB78">
-        <v>2.45</v>
+        <v>4.6</v>
       </c>
       <c r="AC78">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD78">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE78">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="AF78">
-        <v>3.88</v>
+        <v>3.04</v>
       </c>
       <c r="AG78">
-        <v>1.58</v>
+        <v>2.05</v>
       </c>
       <c r="AH78">
-        <v>2.2</v>
+        <v>1.66</v>
       </c>
       <c r="AI78">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AJ78">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AK78">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
       <c r="AL78">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM78">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="AN78">
-        <v>0.57</v>
+        <v>2.17</v>
       </c>
       <c r="AO78">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="AP78">
-        <v>0.78</v>
+        <v>2.13</v>
       </c>
       <c r="AQ78">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR78">
-        <v>1.54</v>
+        <v>1.99</v>
       </c>
       <c r="AS78">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT78">
-        <v>2.83</v>
+        <v>3.27</v>
       </c>
       <c r="AU78">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AV78">
         <v>4</v>
       </c>
       <c r="AW78">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AX78">
+        <v>3</v>
+      </c>
+      <c r="AY78">
+        <v>14</v>
+      </c>
+      <c r="AZ78">
+        <v>7</v>
+      </c>
+      <c r="BA78">
         <v>6</v>
       </c>
-      <c r="AY78">
-        <v>22</v>
-      </c>
-      <c r="AZ78">
-        <v>10</v>
-      </c>
-      <c r="BA78">
-        <v>10</v>
-      </c>
       <c r="BB78">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC78">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD78">
         <v>0</v>
@@ -17084,7 +17084,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7727578</v>
+        <v>7727577</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17099,28 +17099,28 @@
         <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H79" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L79">
         <v>1</v>
       </c>
       <c r="M79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O79" t="s">
         <v>139</v>
@@ -17129,121 +17129,121 @@
         <v>201</v>
       </c>
       <c r="Q79">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="R79">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S79">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="T79">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U79">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V79">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="W79">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="X79">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Y79">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="Z79">
-        <v>1.65</v>
+        <v>2.35</v>
       </c>
       <c r="AA79">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AB79">
-        <v>4.6</v>
+        <v>2.45</v>
       </c>
       <c r="AC79">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD79">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE79">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="AF79">
-        <v>3.04</v>
+        <v>3.88</v>
       </c>
       <c r="AG79">
-        <v>2.05</v>
+        <v>1.58</v>
       </c>
       <c r="AH79">
-        <v>1.66</v>
+        <v>2.2</v>
       </c>
       <c r="AI79">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AJ79">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AK79">
-        <v>1.28</v>
+        <v>1.51</v>
       </c>
       <c r="AL79">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM79">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AN79">
-        <v>2.17</v>
+        <v>0.57</v>
       </c>
       <c r="AO79">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="AP79">
-        <v>2.13</v>
+        <v>0.78</v>
       </c>
       <c r="AQ79">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AR79">
-        <v>1.99</v>
+        <v>1.54</v>
       </c>
       <c r="AS79">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AT79">
-        <v>3.27</v>
+        <v>2.83</v>
       </c>
       <c r="AU79">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV79">
         <v>4</v>
       </c>
       <c r="AW79">
+        <v>13</v>
+      </c>
+      <c r="AX79">
+        <v>6</v>
+      </c>
+      <c r="AY79">
+        <v>22</v>
+      </c>
+      <c r="AZ79">
         <v>10</v>
       </c>
-      <c r="AX79">
-        <v>3</v>
-      </c>
-      <c r="AY79">
+      <c r="BA79">
+        <v>10</v>
+      </c>
+      <c r="BB79">
+        <v>4</v>
+      </c>
+      <c r="BC79">
         <v>14</v>
-      </c>
-      <c r="AZ79">
-        <v>7</v>
-      </c>
-      <c r="BA79">
-        <v>6</v>
-      </c>
-      <c r="BB79">
-        <v>6</v>
-      </c>
-      <c r="BC79">
-        <v>12</v>
       </c>
       <c r="BD79">
         <v>0</v>
@@ -20792,7 +20792,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7727595</v>
+        <v>7727597</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
@@ -20801,16 +20801,16 @@
         <v>69</v>
       </c>
       <c r="E97" s="2">
-        <v>45618.875</v>
+        <v>45619.47916666666</v>
       </c>
       <c r="F97">
         <v>17</v>
       </c>
       <c r="G97" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H97" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -20822,136 +20822,136 @@
         <v>0</v>
       </c>
       <c r="L97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M97">
         <v>0</v>
       </c>
       <c r="N97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O97" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="P97" t="s">
         <v>85</v>
       </c>
       <c r="Q97">
-        <v>1.62</v>
+        <v>2.75</v>
       </c>
       <c r="R97">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="S97">
-        <v>9.5</v>
+        <v>3.75</v>
       </c>
       <c r="T97">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="U97">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="V97">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="W97">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="X97">
+        <v>7.5</v>
+      </c>
+      <c r="Y97">
+        <v>1.07</v>
+      </c>
+      <c r="Z97">
+        <v>1.9</v>
+      </c>
+      <c r="AA97">
+        <v>3.25</v>
+      </c>
+      <c r="AB97">
+        <v>3.75</v>
+      </c>
+      <c r="AC97">
+        <v>4.4</v>
+      </c>
+      <c r="AD97">
+        <v>1.19</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
+      </c>
+      <c r="AF97">
+        <v>0</v>
+      </c>
+      <c r="AG97">
+        <v>1.77</v>
+      </c>
+      <c r="AH97">
+        <v>1.98</v>
+      </c>
+      <c r="AI97">
+        <v>1.83</v>
+      </c>
+      <c r="AJ97">
+        <v>1.83</v>
+      </c>
+      <c r="AK97">
+        <v>0</v>
+      </c>
+      <c r="AL97">
+        <v>0</v>
+      </c>
+      <c r="AM97">
+        <v>0</v>
+      </c>
+      <c r="AN97">
+        <v>1.63</v>
+      </c>
+      <c r="AO97">
+        <v>1.25</v>
+      </c>
+      <c r="AP97">
+        <v>1.56</v>
+      </c>
+      <c r="AQ97">
+        <v>1.22</v>
+      </c>
+      <c r="AR97">
+        <v>1.39</v>
+      </c>
+      <c r="AS97">
+        <v>1.35</v>
+      </c>
+      <c r="AT97">
+        <v>2.74</v>
+      </c>
+      <c r="AU97">
+        <v>3</v>
+      </c>
+      <c r="AV97">
+        <v>4</v>
+      </c>
+      <c r="AW97">
+        <v>2</v>
+      </c>
+      <c r="AX97">
+        <v>1</v>
+      </c>
+      <c r="AY97">
         <v>5</v>
       </c>
-      <c r="Y97">
-        <v>1.14</v>
-      </c>
-      <c r="Z97">
-        <v>1.39</v>
-      </c>
-      <c r="AA97">
-        <v>4.45</v>
-      </c>
-      <c r="AB97">
-        <v>6.3</v>
-      </c>
-      <c r="AC97">
-        <v>0</v>
-      </c>
-      <c r="AD97">
-        <v>0</v>
-      </c>
-      <c r="AE97">
-        <v>2.5</v>
-      </c>
-      <c r="AF97">
-        <v>1.51</v>
-      </c>
-      <c r="AG97">
-        <v>1.65</v>
-      </c>
-      <c r="AH97">
-        <v>2.15</v>
-      </c>
-      <c r="AI97">
-        <v>2.25</v>
-      </c>
-      <c r="AJ97">
-        <v>1.57</v>
-      </c>
-      <c r="AK97">
-        <v>0</v>
-      </c>
-      <c r="AL97">
-        <v>0</v>
-      </c>
-      <c r="AM97">
-        <v>0</v>
-      </c>
-      <c r="AN97">
-        <v>1.43</v>
-      </c>
-      <c r="AO97">
-        <v>0.38</v>
-      </c>
-      <c r="AP97">
-        <v>1.63</v>
-      </c>
-      <c r="AQ97">
-        <v>0.33</v>
-      </c>
-      <c r="AR97">
-        <v>1.22</v>
-      </c>
-      <c r="AS97">
-        <v>0.89</v>
-      </c>
-      <c r="AT97">
-        <v>2.11</v>
-      </c>
-      <c r="AU97">
-        <v>6</v>
-      </c>
-      <c r="AV97">
-        <v>3</v>
-      </c>
-      <c r="AW97">
+      <c r="AZ97">
         <v>5</v>
       </c>
-      <c r="AX97">
-        <v>3</v>
-      </c>
-      <c r="AY97">
-        <v>15</v>
-      </c>
-      <c r="AZ97">
-        <v>6</v>
-      </c>
       <c r="BA97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB97">
         <v>3</v>
       </c>
       <c r="BC97">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD97">
         <v>0</v>
@@ -20998,7 +20998,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7727597</v>
+        <v>7727599</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21007,82 +21007,82 @@
         <v>69</v>
       </c>
       <c r="E98" s="2">
-        <v>45618.875</v>
+        <v>45619.47916666666</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H98" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N98">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O98" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="P98" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="Q98">
-        <v>2.75</v>
+        <v>1.73</v>
       </c>
       <c r="R98">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="S98">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="T98">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="U98">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="V98">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="W98">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="X98">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y98">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="Z98">
-        <v>1.9</v>
+        <v>1.19</v>
       </c>
       <c r="AA98">
-        <v>3.25</v>
+        <v>4.64</v>
       </c>
       <c r="AB98">
-        <v>3.75</v>
+        <v>8.98</v>
       </c>
       <c r="AC98">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="AD98">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AE98">
         <v>0</v>
@@ -21091,16 +21091,16 @@
         <v>0</v>
       </c>
       <c r="AG98">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="AH98">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="AI98">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="AJ98">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AK98">
         <v>0</v>
@@ -21112,52 +21112,52 @@
         <v>0</v>
       </c>
       <c r="AN98">
-        <v>1.63</v>
+        <v>2.14</v>
       </c>
       <c r="AO98">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="AP98">
-        <v>1.56</v>
+        <v>2.25</v>
       </c>
       <c r="AQ98">
-        <v>1.22</v>
+        <v>2.22</v>
       </c>
       <c r="AR98">
-        <v>1.39</v>
+        <v>2.55</v>
       </c>
       <c r="AS98">
-        <v>1.35</v>
+        <v>1.7</v>
       </c>
       <c r="AT98">
-        <v>2.74</v>
+        <v>4.25</v>
       </c>
       <c r="AU98">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AV98">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW98">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AX98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AY98">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AZ98">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BA98">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BB98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC98">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BD98">
         <v>0</v>
@@ -21204,7 +21204,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7727599</v>
+        <v>7727596</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21213,49 +21213,49 @@
         <v>69</v>
       </c>
       <c r="E99" s="2">
-        <v>45618.875</v>
+        <v>45619.47916666666</v>
       </c>
       <c r="F99">
         <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H99" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O99" t="s">
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="Q99">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="R99">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="S99">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="T99">
         <v>1.33</v>
@@ -21264,25 +21264,25 @@
         <v>3.25</v>
       </c>
       <c r="V99">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W99">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X99">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y99">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z99">
-        <v>1.19</v>
+        <v>1.83</v>
       </c>
       <c r="AA99">
-        <v>4.64</v>
+        <v>3.6</v>
       </c>
       <c r="AB99">
-        <v>8.98</v>
+        <v>3.6</v>
       </c>
       <c r="AC99">
         <v>0</v>
@@ -21291,22 +21291,22 @@
         <v>0</v>
       </c>
       <c r="AE99">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AF99">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AG99">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AH99">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AI99">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AJ99">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AK99">
         <v>0</v>
@@ -21318,49 +21318,49 @@
         <v>0</v>
       </c>
       <c r="AN99">
-        <v>2.14</v>
+        <v>0.5</v>
       </c>
       <c r="AO99">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>2.25</v>
+        <v>0.78</v>
       </c>
       <c r="AQ99">
-        <v>2.22</v>
+        <v>0.43</v>
       </c>
       <c r="AR99">
-        <v>2.55</v>
+        <v>1.69</v>
       </c>
       <c r="AS99">
-        <v>1.7</v>
+        <v>1.34</v>
       </c>
       <c r="AT99">
-        <v>4.25</v>
+        <v>3.03</v>
       </c>
       <c r="AU99">
         <v>6</v>
       </c>
       <c r="AV99">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW99">
         <v>4</v>
       </c>
       <c r="AX99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY99">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ99">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA99">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BB99">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BC99">
         <v>14</v>
@@ -21410,7 +21410,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7727596</v>
+        <v>7727595</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21419,16 +21419,16 @@
         <v>69</v>
       </c>
       <c r="E100" s="2">
-        <v>45618.875</v>
+        <v>45619.47916666666</v>
       </c>
       <c r="F100">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H100" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -21440,10 +21440,10 @@
         <v>0</v>
       </c>
       <c r="L100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N100">
         <v>3</v>
@@ -21452,124 +21452,124 @@
         <v>156</v>
       </c>
       <c r="P100" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="Q100">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="R100">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="S100">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="T100">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U100">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V100">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W100">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X100">
+        <v>5</v>
+      </c>
+      <c r="Y100">
+        <v>1.14</v>
+      </c>
+      <c r="Z100">
+        <v>1.39</v>
+      </c>
+      <c r="AA100">
+        <v>4.45</v>
+      </c>
+      <c r="AB100">
+        <v>6.3</v>
+      </c>
+      <c r="AC100">
+        <v>0</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>2.5</v>
+      </c>
+      <c r="AF100">
+        <v>1.51</v>
+      </c>
+      <c r="AG100">
+        <v>1.65</v>
+      </c>
+      <c r="AH100">
+        <v>2.15</v>
+      </c>
+      <c r="AI100">
+        <v>2.25</v>
+      </c>
+      <c r="AJ100">
+        <v>1.57</v>
+      </c>
+      <c r="AK100">
+        <v>0</v>
+      </c>
+      <c r="AL100">
+        <v>0</v>
+      </c>
+      <c r="AM100">
+        <v>0</v>
+      </c>
+      <c r="AN100">
+        <v>1.43</v>
+      </c>
+      <c r="AO100">
+        <v>0.38</v>
+      </c>
+      <c r="AP100">
+        <v>1.63</v>
+      </c>
+      <c r="AQ100">
+        <v>0.33</v>
+      </c>
+      <c r="AR100">
+        <v>1.22</v>
+      </c>
+      <c r="AS100">
+        <v>0.89</v>
+      </c>
+      <c r="AT100">
+        <v>2.11</v>
+      </c>
+      <c r="AU100">
         <v>6</v>
       </c>
-      <c r="Y100">
-        <v>1.11</v>
-      </c>
-      <c r="Z100">
-        <v>1.83</v>
-      </c>
-      <c r="AA100">
-        <v>3.6</v>
-      </c>
-      <c r="AB100">
-        <v>3.6</v>
-      </c>
-      <c r="AC100">
-        <v>0</v>
-      </c>
-      <c r="AD100">
-        <v>0</v>
-      </c>
-      <c r="AE100">
-        <v>1.8</v>
-      </c>
-      <c r="AF100">
-        <v>1.99</v>
-      </c>
-      <c r="AG100">
-        <v>1.7</v>
-      </c>
-      <c r="AH100">
-        <v>2.05</v>
-      </c>
-      <c r="AI100">
-        <v>1.83</v>
-      </c>
-      <c r="AJ100">
-        <v>1.83</v>
-      </c>
-      <c r="AK100">
-        <v>0</v>
-      </c>
-      <c r="AL100">
-        <v>0</v>
-      </c>
-      <c r="AM100">
-        <v>0</v>
-      </c>
-      <c r="AN100">
-        <v>0.5</v>
-      </c>
-      <c r="AO100">
-        <v>0.5</v>
-      </c>
-      <c r="AP100">
-        <v>0.78</v>
-      </c>
-      <c r="AQ100">
-        <v>0.43</v>
-      </c>
-      <c r="AR100">
-        <v>1.69</v>
-      </c>
-      <c r="AS100">
-        <v>1.34</v>
-      </c>
-      <c r="AT100">
-        <v>3.03</v>
-      </c>
-      <c r="AU100">
+      <c r="AV100">
+        <v>3</v>
+      </c>
+      <c r="AW100">
+        <v>5</v>
+      </c>
+      <c r="AX100">
+        <v>3</v>
+      </c>
+      <c r="AY100">
+        <v>11</v>
+      </c>
+      <c r="AZ100">
+        <v>6</v>
+      </c>
+      <c r="BA100">
+        <v>4</v>
+      </c>
+      <c r="BB100">
+        <v>3</v>
+      </c>
+      <c r="BC100">
         <v>7</v>
-      </c>
-      <c r="AV100">
-        <v>4</v>
-      </c>
-      <c r="AW100">
-        <v>4</v>
-      </c>
-      <c r="AX100">
-        <v>3</v>
-      </c>
-      <c r="AY100">
-        <v>14</v>
-      </c>
-      <c r="AZ100">
-        <v>11</v>
-      </c>
-      <c r="BA100">
-        <v>8</v>
-      </c>
-      <c r="BB100">
-        <v>6</v>
-      </c>
-      <c r="BC100">
-        <v>14</v>
       </c>
       <c r="BD100">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -400,6 +400,9 @@
     <t>['12']</t>
   </si>
   <si>
+    <t>['3', '20', '63']</t>
+  </si>
+  <si>
     <t>['10', '37', '55']</t>
   </si>
   <si>
@@ -409,22 +412,19 @@
     <t>['35', '90+5']</t>
   </si>
   <si>
-    <t>['3', '20', '63']</t>
+    <t>['5', '14', '41', '55', '72']</t>
   </si>
   <si>
-    <t>['31']</t>
+    <t>['11', '44']</t>
   </si>
   <si>
-    <t>['5', '14', '41', '55', '72']</t>
+    <t>['87']</t>
   </si>
   <si>
     <t>['90+1']</t>
   </si>
   <si>
-    <t>['87']</t>
-  </si>
-  <si>
-    <t>['11', '44']</t>
+    <t>['31']</t>
   </si>
   <si>
     <t>['6', '50']</t>
@@ -478,13 +478,13 @@
     <t>['8', '29', '39']</t>
   </si>
   <si>
-    <t>['50', '65', '89']</t>
+    <t>['47', '80', '81']</t>
   </si>
   <si>
     <t>['57', '83']</t>
   </si>
   <si>
-    <t>['47', '80', '81']</t>
+    <t>['50', '65', '89']</t>
   </si>
   <si>
     <t>['45+2']</t>
@@ -604,13 +604,13 @@
     <t>['49', '51']</t>
   </si>
   <si>
-    <t>['11', '57']</t>
+    <t>['53', '57', '69', '80']</t>
   </si>
   <si>
     <t>['23', '29', '34', '82']</t>
   </si>
   <si>
-    <t>['53', '57', '69', '80']</t>
+    <t>['11', '57']</t>
   </si>
   <si>
     <t>['8']</t>
@@ -8268,7 +8268,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q36">
         <v>2.63</v>
@@ -14200,7 +14200,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7469253</v>
+        <v>7469258</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -14212,154 +14212,154 @@
         <v>45577.4375</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K65">
         <v>2</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N65">
         <v>3</v>
       </c>
       <c r="O65" t="s">
+        <v>128</v>
+      </c>
+      <c r="P65" t="s">
         <v>85</v>
       </c>
-      <c r="P65" t="s">
-        <v>193</v>
-      </c>
       <c r="Q65">
-        <v>9</v>
+        <v>1.57</v>
       </c>
       <c r="R65">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="S65">
-        <v>1.62</v>
+        <v>7.5</v>
       </c>
       <c r="T65">
+        <v>1.17</v>
+      </c>
+      <c r="U65">
+        <v>4.5</v>
+      </c>
+      <c r="V65">
+        <v>1.83</v>
+      </c>
+      <c r="W65">
+        <v>1.83</v>
+      </c>
+      <c r="X65">
+        <v>3.75</v>
+      </c>
+      <c r="Y65">
+        <v>1.25</v>
+      </c>
+      <c r="Z65">
+        <v>1.2</v>
+      </c>
+      <c r="AA65">
+        <v>6.5</v>
+      </c>
+      <c r="AB65">
+        <v>9.5</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>1.07</v>
+      </c>
+      <c r="AF65">
+        <v>8</v>
+      </c>
+      <c r="AG65">
         <v>1.3</v>
       </c>
-      <c r="U65">
+      <c r="AH65">
         <v>3.4</v>
       </c>
-      <c r="V65">
-        <v>2.38</v>
-      </c>
-      <c r="W65">
-        <v>1.53</v>
-      </c>
-      <c r="X65">
-        <v>5</v>
-      </c>
-      <c r="Y65">
-        <v>1.14</v>
-      </c>
-      <c r="Z65">
-        <v>10</v>
-      </c>
-      <c r="AA65">
-        <v>5.25</v>
-      </c>
-      <c r="AB65">
-        <v>1.25</v>
-      </c>
-      <c r="AC65">
-        <v>1.01</v>
-      </c>
-      <c r="AD65">
-        <v>15</v>
-      </c>
-      <c r="AE65">
-        <v>1.17</v>
-      </c>
-      <c r="AF65">
-        <v>5</v>
-      </c>
-      <c r="AG65">
-        <v>1.57</v>
-      </c>
-      <c r="AH65">
+      <c r="AI65">
+        <v>1.73</v>
+      </c>
+      <c r="AJ65">
+        <v>2</v>
+      </c>
+      <c r="AK65">
+        <v>1.03</v>
+      </c>
+      <c r="AL65">
+        <v>1.08</v>
+      </c>
+      <c r="AM65">
+        <v>4</v>
+      </c>
+      <c r="AN65">
+        <v>1.5</v>
+      </c>
+      <c r="AO65">
+        <v>2.14</v>
+      </c>
+      <c r="AP65">
         <v>2.25</v>
       </c>
-      <c r="AI65">
-        <v>2.25</v>
-      </c>
-      <c r="AJ65">
-        <v>1.57</v>
-      </c>
-      <c r="AK65">
-        <v>3.3</v>
-      </c>
-      <c r="AL65">
-        <v>1.12</v>
-      </c>
-      <c r="AM65">
-        <v>1.03</v>
-      </c>
-      <c r="AN65">
-        <v>0.8</v>
-      </c>
-      <c r="AO65">
-        <v>2.6</v>
-      </c>
-      <c r="AP65">
-        <v>0.88</v>
-      </c>
       <c r="AQ65">
-        <v>2.22</v>
+        <v>1.67</v>
       </c>
       <c r="AR65">
-        <v>0.96</v>
+        <v>2.85</v>
       </c>
       <c r="AS65">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="AT65">
-        <v>2.61</v>
+        <v>4.29</v>
       </c>
       <c r="AU65">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AV65">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW65">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AX65">
+        <v>2</v>
+      </c>
+      <c r="AY65">
+        <v>20</v>
+      </c>
+      <c r="AZ65">
         <v>6</v>
       </c>
-      <c r="AY65">
-        <v>2</v>
-      </c>
-      <c r="AZ65">
-        <v>13</v>
-      </c>
       <c r="BA65">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB65">
+        <v>2</v>
+      </c>
+      <c r="BC65">
         <v>8</v>
-      </c>
-      <c r="BC65">
-        <v>12</v>
       </c>
       <c r="BD65">
         <v>0</v>
@@ -14406,7 +14406,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>7469254</v>
+        <v>7469253</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -14418,154 +14418,154 @@
         <v>45577.4375</v>
       </c>
       <c r="F66">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O66" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="P66" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="Q66">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="R66">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="S66">
-        <v>4.33</v>
+        <v>1.62</v>
       </c>
       <c r="T66">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U66">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V66">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W66">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X66">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Y66">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="Z66">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="AA66">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="AB66">
-        <v>6.5</v>
+        <v>1.25</v>
       </c>
       <c r="AC66">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD66">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE66">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF66">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG66">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="AH66">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="AI66">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="AJ66">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AK66">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AL66">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AM66">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AN66">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="AO66">
-        <v>0.75</v>
+        <v>2.6</v>
       </c>
       <c r="AP66">
-        <v>1.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ66">
-        <v>0.43</v>
+        <v>2.22</v>
       </c>
       <c r="AR66">
-        <v>1.7</v>
+        <v>0.96</v>
       </c>
       <c r="AS66">
-        <v>1.22</v>
+        <v>1.65</v>
       </c>
       <c r="AT66">
-        <v>2.92</v>
+        <v>2.61</v>
       </c>
       <c r="AU66">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX66">
         <v>6</v>
       </c>
       <c r="AY66">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AZ66">
+        <v>13</v>
+      </c>
+      <c r="BA66">
+        <v>4</v>
+      </c>
+      <c r="BB66">
+        <v>8</v>
+      </c>
+      <c r="BC66">
         <v>12</v>
-      </c>
-      <c r="BA66">
-        <v>6</v>
-      </c>
-      <c r="BB66">
-        <v>7</v>
-      </c>
-      <c r="BC66">
-        <v>13</v>
       </c>
       <c r="BD66">
         <v>0</v>
@@ -14612,7 +14612,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7469255</v>
+        <v>7469254</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -14624,154 +14624,154 @@
         <v>45577.4375</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H67" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67">
         <v>1</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O67" t="s">
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="Q67">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R67">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="S67">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="T67">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="U67">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V67">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="W67">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="X67">
+        <v>6.5</v>
+      </c>
+      <c r="Y67">
+        <v>1.1</v>
+      </c>
+      <c r="Z67">
+        <v>1.5</v>
+      </c>
+      <c r="AA67">
+        <v>4</v>
+      </c>
+      <c r="AB67">
+        <v>6.5</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
+      <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>1.73</v>
+      </c>
+      <c r="AH67">
+        <v>1.91</v>
+      </c>
+      <c r="AI67">
+        <v>1.73</v>
+      </c>
+      <c r="AJ67">
+        <v>2</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>0</v>
+      </c>
+      <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AN67">
+        <v>1.6</v>
+      </c>
+      <c r="AO67">
+        <v>0.75</v>
+      </c>
+      <c r="AP67">
+        <v>1.75</v>
+      </c>
+      <c r="AQ67">
+        <v>0.43</v>
+      </c>
+      <c r="AR67">
+        <v>1.7</v>
+      </c>
+      <c r="AS67">
+        <v>1.22</v>
+      </c>
+      <c r="AT67">
+        <v>2.92</v>
+      </c>
+      <c r="AU67">
         <v>5</v>
       </c>
-      <c r="Y67">
-        <v>1.14</v>
-      </c>
-      <c r="Z67">
-        <v>1.95</v>
-      </c>
-      <c r="AA67">
-        <v>3.5</v>
-      </c>
-      <c r="AB67">
-        <v>3.4</v>
-      </c>
-      <c r="AC67">
-        <v>1.01</v>
-      </c>
-      <c r="AD67">
-        <v>15</v>
-      </c>
-      <c r="AE67">
-        <v>1.17</v>
-      </c>
-      <c r="AF67">
+      <c r="AV67">
+        <v>6</v>
+      </c>
+      <c r="AW67">
         <v>5</v>
       </c>
-      <c r="AG67">
-        <v>1.53</v>
-      </c>
-      <c r="AH67">
-        <v>2.25</v>
-      </c>
-      <c r="AI67">
-        <v>1.53</v>
-      </c>
-      <c r="AJ67">
-        <v>2.38</v>
-      </c>
-      <c r="AK67">
-        <v>1.32</v>
-      </c>
-      <c r="AL67">
-        <v>1.21</v>
-      </c>
-      <c r="AM67">
-        <v>1.72</v>
-      </c>
-      <c r="AN67">
-        <v>1.4</v>
-      </c>
-      <c r="AO67">
-        <v>1.2</v>
-      </c>
-      <c r="AP67">
-        <v>0.88</v>
-      </c>
-      <c r="AQ67">
-        <v>1.13</v>
-      </c>
-      <c r="AR67">
-        <v>1.2</v>
-      </c>
-      <c r="AS67">
-        <v>1.07</v>
-      </c>
-      <c r="AT67">
-        <v>2.27</v>
-      </c>
-      <c r="AU67">
+      <c r="AX67">
+        <v>6</v>
+      </c>
+      <c r="AY67">
+        <v>10</v>
+      </c>
+      <c r="AZ67">
+        <v>12</v>
+      </c>
+      <c r="BA67">
+        <v>6</v>
+      </c>
+      <c r="BB67">
         <v>7</v>
       </c>
-      <c r="AV67">
-        <v>7</v>
-      </c>
-      <c r="AW67">
-        <v>11</v>
-      </c>
-      <c r="AX67">
-        <v>4</v>
-      </c>
-      <c r="AY67">
-        <v>18</v>
-      </c>
-      <c r="AZ67">
-        <v>11</v>
-      </c>
-      <c r="BA67">
-        <v>5</v>
-      </c>
-      <c r="BB67">
-        <v>4</v>
-      </c>
       <c r="BC67">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD67">
         <v>0</v>
@@ -14818,7 +14818,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>7469256</v>
+        <v>7469255</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -14830,154 +14830,154 @@
         <v>45577.4375</v>
       </c>
       <c r="F68">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68">
         <v>1</v>
       </c>
       <c r="L68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M68">
         <v>2</v>
       </c>
       <c r="N68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O68" t="s">
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q68">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="R68">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="S68">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="T68">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="U68">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V68">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="W68">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="X68">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Y68">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="Z68">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="AA68">
         <v>3.5</v>
       </c>
       <c r="AB68">
-        <v>1.91</v>
+        <v>3.4</v>
       </c>
       <c r="AC68">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD68">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE68">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG68">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="AH68">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="AI68">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="AJ68">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="AK68">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AL68">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AM68">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AN68">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="AO68">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AP68">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AQ68">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="AR68">
-        <v>1.56</v>
+        <v>1.2</v>
       </c>
       <c r="AS68">
-        <v>1.22</v>
+        <v>1.07</v>
       </c>
       <c r="AT68">
-        <v>2.78</v>
+        <v>2.27</v>
       </c>
       <c r="AU68">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV68">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW68">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AX68">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AY68">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AZ68">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA68">
         <v>5</v>
       </c>
       <c r="BB68">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC68">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD68">
         <v>0</v>
@@ -15024,7 +15024,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7469257</v>
+        <v>7469256</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -15039,151 +15039,151 @@
         <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H69" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O69" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="P69" t="s">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c r="Q69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R69">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S69">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T69">
+        <v>1.36</v>
+      </c>
+      <c r="U69">
+        <v>3</v>
+      </c>
+      <c r="V69">
+        <v>2.75</v>
+      </c>
+      <c r="W69">
         <v>1.4</v>
       </c>
-      <c r="U69">
-        <v>2.75</v>
-      </c>
-      <c r="V69">
-        <v>3</v>
-      </c>
-      <c r="W69">
-        <v>1.36</v>
-      </c>
       <c r="X69">
+        <v>6.5</v>
+      </c>
+      <c r="Y69">
+        <v>1.1</v>
+      </c>
+      <c r="Z69">
+        <v>3.6</v>
+      </c>
+      <c r="AA69">
+        <v>3.5</v>
+      </c>
+      <c r="AB69">
+        <v>1.91</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
+      <c r="AF69">
+        <v>0</v>
+      </c>
+      <c r="AG69">
+        <v>1.75</v>
+      </c>
+      <c r="AH69">
+        <v>1.91</v>
+      </c>
+      <c r="AI69">
+        <v>1.73</v>
+      </c>
+      <c r="AJ69">
+        <v>2</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+      <c r="AL69">
+        <v>0</v>
+      </c>
+      <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>0.5</v>
+      </c>
+      <c r="AO69">
+        <v>1.5</v>
+      </c>
+      <c r="AP69">
+        <v>0.78</v>
+      </c>
+      <c r="AQ69">
+        <v>1.22</v>
+      </c>
+      <c r="AR69">
+        <v>1.56</v>
+      </c>
+      <c r="AS69">
+        <v>1.22</v>
+      </c>
+      <c r="AT69">
+        <v>2.78</v>
+      </c>
+      <c r="AU69">
+        <v>3</v>
+      </c>
+      <c r="AV69">
+        <v>3</v>
+      </c>
+      <c r="AW69">
         <v>7</v>
       </c>
-      <c r="Y69">
-        <v>1.08</v>
-      </c>
-      <c r="Z69">
-        <v>2.3</v>
-      </c>
-      <c r="AA69">
-        <v>3.1</v>
-      </c>
-      <c r="AB69">
-        <v>2.9</v>
-      </c>
-      <c r="AC69">
-        <v>0</v>
-      </c>
-      <c r="AD69">
-        <v>0</v>
-      </c>
-      <c r="AE69">
-        <v>0</v>
-      </c>
-      <c r="AF69">
-        <v>0</v>
-      </c>
-      <c r="AG69">
-        <v>1.85</v>
-      </c>
-      <c r="AH69">
-        <v>1.75</v>
-      </c>
-      <c r="AI69">
-        <v>1.83</v>
-      </c>
-      <c r="AJ69">
-        <v>1.83</v>
-      </c>
-      <c r="AK69">
-        <v>0</v>
-      </c>
-      <c r="AL69">
-        <v>0</v>
-      </c>
-      <c r="AM69">
-        <v>0</v>
-      </c>
-      <c r="AN69">
-        <v>1.6</v>
-      </c>
-      <c r="AO69">
-        <v>1.4</v>
-      </c>
-      <c r="AP69">
-        <v>1.56</v>
-      </c>
-      <c r="AQ69">
-        <v>1.13</v>
-      </c>
-      <c r="AR69">
-        <v>1.25</v>
-      </c>
-      <c r="AS69">
-        <v>1.72</v>
-      </c>
-      <c r="AT69">
-        <v>2.97</v>
-      </c>
-      <c r="AU69">
+      <c r="AX69">
+        <v>9</v>
+      </c>
+      <c r="AY69">
+        <v>10</v>
+      </c>
+      <c r="AZ69">
+        <v>12</v>
+      </c>
+      <c r="BA69">
+        <v>5</v>
+      </c>
+      <c r="BB69">
         <v>6</v>
       </c>
-      <c r="AV69">
-        <v>3</v>
-      </c>
-      <c r="AW69">
-        <v>5</v>
-      </c>
-      <c r="AX69">
-        <v>5</v>
-      </c>
-      <c r="AY69">
+      <c r="BC69">
         <v>11</v>
-      </c>
-      <c r="AZ69">
-        <v>8</v>
-      </c>
-      <c r="BA69">
-        <v>4</v>
-      </c>
-      <c r="BB69">
-        <v>4</v>
-      </c>
-      <c r="BC69">
-        <v>8</v>
       </c>
       <c r="BD69">
         <v>0</v>
@@ -15230,7 +15230,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7469258</v>
+        <v>7469257</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15245,148 +15245,148 @@
         <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M70">
         <v>0</v>
       </c>
       <c r="N70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O70" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="P70" t="s">
         <v>85</v>
       </c>
       <c r="Q70">
-        <v>1.57</v>
+        <v>3</v>
       </c>
       <c r="R70">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="S70">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="T70">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="U70">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="V70">
+        <v>3</v>
+      </c>
+      <c r="W70">
+        <v>1.36</v>
+      </c>
+      <c r="X70">
+        <v>7</v>
+      </c>
+      <c r="Y70">
+        <v>1.08</v>
+      </c>
+      <c r="Z70">
+        <v>2.3</v>
+      </c>
+      <c r="AA70">
+        <v>3.1</v>
+      </c>
+      <c r="AB70">
+        <v>2.9</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>0</v>
+      </c>
+      <c r="AG70">
+        <v>1.85</v>
+      </c>
+      <c r="AH70">
+        <v>1.75</v>
+      </c>
+      <c r="AI70">
         <v>1.83</v>
       </c>
-      <c r="W70">
+      <c r="AJ70">
         <v>1.83</v>
       </c>
-      <c r="X70">
-        <v>3.75</v>
-      </c>
-      <c r="Y70">
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>0</v>
+      </c>
+      <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>1.6</v>
+      </c>
+      <c r="AO70">
+        <v>1.4</v>
+      </c>
+      <c r="AP70">
+        <v>1.56</v>
+      </c>
+      <c r="AQ70">
+        <v>1.13</v>
+      </c>
+      <c r="AR70">
         <v>1.25</v>
       </c>
-      <c r="Z70">
-        <v>1.2</v>
-      </c>
-      <c r="AA70">
-        <v>6.5</v>
-      </c>
-      <c r="AB70">
-        <v>9.5</v>
-      </c>
-      <c r="AC70">
-        <v>0</v>
-      </c>
-      <c r="AD70">
-        <v>0</v>
-      </c>
-      <c r="AE70">
-        <v>1.07</v>
-      </c>
-      <c r="AF70">
+      <c r="AS70">
+        <v>1.72</v>
+      </c>
+      <c r="AT70">
+        <v>2.97</v>
+      </c>
+      <c r="AU70">
+        <v>6</v>
+      </c>
+      <c r="AV70">
+        <v>3</v>
+      </c>
+      <c r="AW70">
+        <v>5</v>
+      </c>
+      <c r="AX70">
+        <v>5</v>
+      </c>
+      <c r="AY70">
+        <v>11</v>
+      </c>
+      <c r="AZ70">
         <v>8</v>
       </c>
-      <c r="AG70">
-        <v>1.3</v>
-      </c>
-      <c r="AH70">
-        <v>3.4</v>
-      </c>
-      <c r="AI70">
-        <v>1.73</v>
-      </c>
-      <c r="AJ70">
-        <v>2</v>
-      </c>
-      <c r="AK70">
-        <v>1.03</v>
-      </c>
-      <c r="AL70">
-        <v>1.08</v>
-      </c>
-      <c r="AM70">
+      <c r="BA70">
         <v>4</v>
       </c>
-      <c r="AN70">
-        <v>1.5</v>
-      </c>
-      <c r="AO70">
-        <v>2.14</v>
-      </c>
-      <c r="AP70">
-        <v>2.25</v>
-      </c>
-      <c r="AQ70">
-        <v>1.67</v>
-      </c>
-      <c r="AR70">
-        <v>2.85</v>
-      </c>
-      <c r="AS70">
-        <v>1.44</v>
-      </c>
-      <c r="AT70">
-        <v>4.29</v>
-      </c>
-      <c r="AU70">
-        <v>8</v>
-      </c>
-      <c r="AV70">
+      <c r="BB70">
         <v>4</v>
-      </c>
-      <c r="AW70">
-        <v>12</v>
-      </c>
-      <c r="AX70">
-        <v>2</v>
-      </c>
-      <c r="AY70">
-        <v>20</v>
-      </c>
-      <c r="AZ70">
-        <v>6</v>
-      </c>
-      <c r="BA70">
-        <v>6</v>
-      </c>
-      <c r="BB70">
-        <v>2</v>
       </c>
       <c r="BC70">
         <v>8</v>
@@ -15436,7 +15436,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>7469260</v>
+        <v>7469264</v>
       </c>
       <c r="C71" t="s">
         <v>68</v>
@@ -15451,175 +15451,175 @@
         <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H71" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O71" t="s">
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="Q71">
+        <v>1.25</v>
+      </c>
+      <c r="R71">
+        <v>4</v>
+      </c>
+      <c r="S71">
+        <v>17</v>
+      </c>
+      <c r="T71">
+        <v>1.13</v>
+      </c>
+      <c r="U71">
+        <v>5.5</v>
+      </c>
+      <c r="V71">
+        <v>1.62</v>
+      </c>
+      <c r="W71">
+        <v>2.2</v>
+      </c>
+      <c r="X71">
+        <v>3</v>
+      </c>
+      <c r="Y71">
+        <v>1.36</v>
+      </c>
+      <c r="Z71">
+        <v>1.05</v>
+      </c>
+      <c r="AA71">
+        <v>14.46</v>
+      </c>
+      <c r="AB71">
+        <v>21.57</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>1.2</v>
+      </c>
+      <c r="AH71">
+        <v>4.33</v>
+      </c>
+      <c r="AI71">
+        <v>2.5</v>
+      </c>
+      <c r="AJ71">
+        <v>1.5</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>0</v>
+      </c>
+      <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>1.8</v>
+      </c>
+      <c r="AO71">
+        <v>1.4</v>
+      </c>
+      <c r="AP71">
+        <v>2.25</v>
+      </c>
+      <c r="AQ71">
+        <v>0.88</v>
+      </c>
+      <c r="AR71">
+        <v>2.71</v>
+      </c>
+      <c r="AS71">
+        <v>1.67</v>
+      </c>
+      <c r="AT71">
+        <v>4.38</v>
+      </c>
+      <c r="AU71">
         <v>7</v>
       </c>
-      <c r="R71">
-        <v>2.3</v>
-      </c>
-      <c r="S71">
+      <c r="AV71">
+        <v>3</v>
+      </c>
+      <c r="AW71">
+        <v>14</v>
+      </c>
+      <c r="AX71">
+        <v>2</v>
+      </c>
+      <c r="AY71">
+        <v>21</v>
+      </c>
+      <c r="AZ71">
+        <v>5</v>
+      </c>
+      <c r="BA71">
+        <v>5</v>
+      </c>
+      <c r="BB71">
+        <v>3</v>
+      </c>
+      <c r="BC71">
+        <v>8</v>
+      </c>
+      <c r="BD71">
+        <v>0</v>
+      </c>
+      <c r="BE71">
+        <v>0</v>
+      </c>
+      <c r="BF71">
+        <v>0</v>
+      </c>
+      <c r="BG71">
+        <v>0</v>
+      </c>
+      <c r="BH71">
+        <v>0</v>
+      </c>
+      <c r="BI71">
+        <v>0</v>
+      </c>
+      <c r="BJ71">
+        <v>0</v>
+      </c>
+      <c r="BK71">
         <v>1.91</v>
-      </c>
-      <c r="T71">
-        <v>1.36</v>
-      </c>
-      <c r="U71">
-        <v>3</v>
-      </c>
-      <c r="V71">
-        <v>2.63</v>
-      </c>
-      <c r="W71">
-        <v>1.44</v>
-      </c>
-      <c r="X71">
-        <v>6</v>
-      </c>
-      <c r="Y71">
-        <v>1.11</v>
-      </c>
-      <c r="Z71">
-        <v>6</v>
-      </c>
-      <c r="AA71">
-        <v>4.4</v>
-      </c>
-      <c r="AB71">
-        <v>1.38</v>
-      </c>
-      <c r="AC71">
-        <v>0</v>
-      </c>
-      <c r="AD71">
-        <v>0</v>
-      </c>
-      <c r="AE71">
-        <v>0</v>
-      </c>
-      <c r="AF71">
-        <v>0</v>
-      </c>
-      <c r="AG71">
-        <v>1.76</v>
-      </c>
-      <c r="AH71">
-        <v>2</v>
-      </c>
-      <c r="AI71">
-        <v>2.1</v>
-      </c>
-      <c r="AJ71">
-        <v>1.67</v>
-      </c>
-      <c r="AK71">
-        <v>0</v>
-      </c>
-      <c r="AL71">
-        <v>0</v>
-      </c>
-      <c r="AM71">
-        <v>0</v>
-      </c>
-      <c r="AN71">
-        <v>0.4</v>
-      </c>
-      <c r="AO71">
-        <v>2.17</v>
-      </c>
-      <c r="AP71">
-        <v>0.89</v>
-      </c>
-      <c r="AQ71">
-        <v>2</v>
-      </c>
-      <c r="AR71">
-        <v>1.05</v>
-      </c>
-      <c r="AS71">
-        <v>1.33</v>
-      </c>
-      <c r="AT71">
-        <v>2.38</v>
-      </c>
-      <c r="AU71">
-        <v>4</v>
-      </c>
-      <c r="AV71">
-        <v>9</v>
-      </c>
-      <c r="AW71">
-        <v>5</v>
-      </c>
-      <c r="AX71">
-        <v>4</v>
-      </c>
-      <c r="AY71">
-        <v>9</v>
-      </c>
-      <c r="AZ71">
-        <v>13</v>
-      </c>
-      <c r="BA71">
-        <v>8</v>
-      </c>
-      <c r="BB71">
-        <v>10</v>
-      </c>
-      <c r="BC71">
-        <v>18</v>
-      </c>
-      <c r="BD71">
-        <v>0</v>
-      </c>
-      <c r="BE71">
-        <v>0</v>
-      </c>
-      <c r="BF71">
-        <v>0</v>
-      </c>
-      <c r="BG71">
-        <v>0</v>
-      </c>
-      <c r="BH71">
-        <v>0</v>
-      </c>
-      <c r="BI71">
-        <v>0</v>
-      </c>
-      <c r="BJ71">
-        <v>0</v>
-      </c>
-      <c r="BK71">
-        <v>0</v>
       </c>
       <c r="BL71">
         <v>0</v>
@@ -15642,7 +15642,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>7469259</v>
+        <v>7469263</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -15657,175 +15657,175 @@
         <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H72" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O72" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="Q72">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="R72">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S72">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T72">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U72">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V72">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W72">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X72">
+        <v>6</v>
+      </c>
+      <c r="Y72">
+        <v>1.11</v>
+      </c>
+      <c r="Z72">
+        <v>2.15</v>
+      </c>
+      <c r="AA72">
+        <v>3.35</v>
+      </c>
+      <c r="AB72">
+        <v>2.79</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>1.75</v>
+      </c>
+      <c r="AH72">
+        <v>1.95</v>
+      </c>
+      <c r="AI72">
+        <v>1.62</v>
+      </c>
+      <c r="AJ72">
+        <v>2.2</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>0</v>
+      </c>
+      <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>1.5</v>
+      </c>
+      <c r="AO72">
+        <v>0.83</v>
+      </c>
+      <c r="AP72">
+        <v>1.25</v>
+      </c>
+      <c r="AQ72">
+        <v>1.38</v>
+      </c>
+      <c r="AR72">
+        <v>1.8</v>
+      </c>
+      <c r="AS72">
+        <v>1.23</v>
+      </c>
+      <c r="AT72">
+        <v>3.03</v>
+      </c>
+      <c r="AU72">
         <v>7</v>
       </c>
-      <c r="Y72">
-        <v>1.08</v>
-      </c>
-      <c r="Z72">
-        <v>2.24</v>
-      </c>
-      <c r="AA72">
-        <v>3.15</v>
-      </c>
-      <c r="AB72">
-        <v>2.8</v>
-      </c>
-      <c r="AC72">
-        <v>4.5</v>
-      </c>
-      <c r="AD72">
-        <v>1.14</v>
-      </c>
-      <c r="AE72">
-        <v>0</v>
-      </c>
-      <c r="AF72">
-        <v>0</v>
-      </c>
-      <c r="AG72">
-        <v>1.95</v>
-      </c>
-      <c r="AH72">
-        <v>1.81</v>
-      </c>
-      <c r="AI72">
-        <v>1.8</v>
-      </c>
-      <c r="AJ72">
+      <c r="AV72">
+        <v>6</v>
+      </c>
+      <c r="AW72">
+        <v>10</v>
+      </c>
+      <c r="AX72">
+        <v>7</v>
+      </c>
+      <c r="AY72">
+        <v>17</v>
+      </c>
+      <c r="AZ72">
+        <v>13</v>
+      </c>
+      <c r="BA72">
+        <v>8</v>
+      </c>
+      <c r="BB72">
+        <v>4</v>
+      </c>
+      <c r="BC72">
+        <v>12</v>
+      </c>
+      <c r="BD72">
+        <v>0</v>
+      </c>
+      <c r="BE72">
+        <v>0</v>
+      </c>
+      <c r="BF72">
+        <v>0</v>
+      </c>
+      <c r="BG72">
+        <v>0</v>
+      </c>
+      <c r="BH72">
+        <v>0</v>
+      </c>
+      <c r="BI72">
+        <v>0</v>
+      </c>
+      <c r="BJ72">
+        <v>0</v>
+      </c>
+      <c r="BK72">
         <v>1.91</v>
-      </c>
-      <c r="AK72">
-        <v>0</v>
-      </c>
-      <c r="AL72">
-        <v>0</v>
-      </c>
-      <c r="AM72">
-        <v>0</v>
-      </c>
-      <c r="AN72">
-        <v>1.43</v>
-      </c>
-      <c r="AO72">
-        <v>1.33</v>
-      </c>
-      <c r="AP72">
-        <v>1.38</v>
-      </c>
-      <c r="AQ72">
-        <v>1.13</v>
-      </c>
-      <c r="AR72">
-        <v>1.39</v>
-      </c>
-      <c r="AS72">
-        <v>1.6</v>
-      </c>
-      <c r="AT72">
-        <v>2.99</v>
-      </c>
-      <c r="AU72">
-        <v>0</v>
-      </c>
-      <c r="AV72">
-        <v>3</v>
-      </c>
-      <c r="AW72">
-        <v>5</v>
-      </c>
-      <c r="AX72">
-        <v>2</v>
-      </c>
-      <c r="AY72">
-        <v>5</v>
-      </c>
-      <c r="AZ72">
-        <v>5</v>
-      </c>
-      <c r="BA72">
-        <v>7</v>
-      </c>
-      <c r="BB72">
-        <v>3</v>
-      </c>
-      <c r="BC72">
-        <v>10</v>
-      </c>
-      <c r="BD72">
-        <v>0</v>
-      </c>
-      <c r="BE72">
-        <v>0</v>
-      </c>
-      <c r="BF72">
-        <v>0</v>
-      </c>
-      <c r="BG72">
-        <v>0</v>
-      </c>
-      <c r="BH72">
-        <v>0</v>
-      </c>
-      <c r="BI72">
-        <v>0</v>
-      </c>
-      <c r="BJ72">
-        <v>0</v>
-      </c>
-      <c r="BK72">
-        <v>0</v>
       </c>
       <c r="BL72">
         <v>0</v>
@@ -15848,7 +15848,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7469264</v>
+        <v>7469262</v>
       </c>
       <c r="C73" t="s">
         <v>68</v>
@@ -15863,151 +15863,151 @@
         <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H73" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O73" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P73" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="Q73">
+        <v>4.5</v>
+      </c>
+      <c r="R73">
+        <v>2.05</v>
+      </c>
+      <c r="S73">
+        <v>2.5</v>
+      </c>
+      <c r="T73">
+        <v>1.44</v>
+      </c>
+      <c r="U73">
+        <v>2.63</v>
+      </c>
+      <c r="V73">
+        <v>3.25</v>
+      </c>
+      <c r="W73">
+        <v>1.33</v>
+      </c>
+      <c r="X73">
+        <v>7.5</v>
+      </c>
+      <c r="Y73">
+        <v>1.07</v>
+      </c>
+      <c r="Z73">
+        <v>3.7</v>
+      </c>
+      <c r="AA73">
+        <v>3.35</v>
+      </c>
+      <c r="AB73">
+        <v>1.82</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>2.74</v>
+      </c>
+      <c r="AF73">
+        <v>1.43</v>
+      </c>
+      <c r="AG73">
+        <v>2</v>
+      </c>
+      <c r="AH73">
+        <v>1.7</v>
+      </c>
+      <c r="AI73">
+        <v>2</v>
+      </c>
+      <c r="AJ73">
+        <v>1.73</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73">
+        <v>0</v>
+      </c>
+      <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
         <v>1.25</v>
       </c>
-      <c r="R73">
-        <v>4</v>
-      </c>
-      <c r="S73">
-        <v>17</v>
-      </c>
-      <c r="T73">
-        <v>1.13</v>
-      </c>
-      <c r="U73">
-        <v>5.5</v>
-      </c>
-      <c r="V73">
-        <v>1.62</v>
-      </c>
-      <c r="W73">
-        <v>2.2</v>
-      </c>
-      <c r="X73">
-        <v>3</v>
-      </c>
-      <c r="Y73">
-        <v>1.36</v>
-      </c>
-      <c r="Z73">
-        <v>1.05</v>
-      </c>
-      <c r="AA73">
-        <v>14.46</v>
-      </c>
-      <c r="AB73">
-        <v>21.57</v>
-      </c>
-      <c r="AC73">
-        <v>0</v>
-      </c>
-      <c r="AD73">
-        <v>0</v>
-      </c>
-      <c r="AE73">
-        <v>0</v>
-      </c>
-      <c r="AF73">
-        <v>0</v>
-      </c>
-      <c r="AG73">
-        <v>1.2</v>
-      </c>
-      <c r="AH73">
-        <v>4.33</v>
-      </c>
-      <c r="AI73">
-        <v>2.5</v>
-      </c>
-      <c r="AJ73">
-        <v>1.5</v>
-      </c>
-      <c r="AK73">
-        <v>0</v>
-      </c>
-      <c r="AL73">
-        <v>0</v>
-      </c>
-      <c r="AM73">
-        <v>0</v>
-      </c>
-      <c r="AN73">
-        <v>1.8</v>
-      </c>
       <c r="AO73">
-        <v>1.4</v>
+        <v>2.67</v>
       </c>
       <c r="AP73">
-        <v>2.25</v>
+        <v>1.63</v>
       </c>
       <c r="AQ73">
-        <v>0.88</v>
+        <v>2.22</v>
       </c>
       <c r="AR73">
-        <v>2.71</v>
+        <v>1.22</v>
       </c>
       <c r="AS73">
         <v>1.67</v>
       </c>
       <c r="AT73">
-        <v>4.38</v>
+        <v>2.89</v>
       </c>
       <c r="AU73">
+        <v>6</v>
+      </c>
+      <c r="AV73">
         <v>7</v>
       </c>
-      <c r="AV73">
-        <v>3</v>
-      </c>
       <c r="AW73">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AX73">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY73">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AZ73">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BA73">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB73">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC73">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD73">
         <v>0</v>
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="BK73">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="BL73">
         <v>0</v>
@@ -16093,7 +16093,7 @@
         <v>5</v>
       </c>
       <c r="O74" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P74" t="s">
         <v>197</v>
@@ -16260,7 +16260,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7469262</v>
+        <v>7469260</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16275,151 +16275,151 @@
         <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H75" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75">
         <v>1</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L75">
         <v>1</v>
       </c>
       <c r="M75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O75" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P75" t="s">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="Q75">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="R75">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="S75">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="T75">
+        <v>1.36</v>
+      </c>
+      <c r="U75">
+        <v>3</v>
+      </c>
+      <c r="V75">
+        <v>2.63</v>
+      </c>
+      <c r="W75">
         <v>1.44</v>
       </c>
-      <c r="U75">
-        <v>2.63</v>
-      </c>
-      <c r="V75">
-        <v>3.25</v>
-      </c>
-      <c r="W75">
+      <c r="X75">
+        <v>6</v>
+      </c>
+      <c r="Y75">
+        <v>1.11</v>
+      </c>
+      <c r="Z75">
+        <v>6</v>
+      </c>
+      <c r="AA75">
+        <v>4.4</v>
+      </c>
+      <c r="AB75">
+        <v>1.38</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>1.76</v>
+      </c>
+      <c r="AH75">
+        <v>2</v>
+      </c>
+      <c r="AI75">
+        <v>2.1</v>
+      </c>
+      <c r="AJ75">
+        <v>1.67</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>0.4</v>
+      </c>
+      <c r="AO75">
+        <v>2.17</v>
+      </c>
+      <c r="AP75">
+        <v>0.89</v>
+      </c>
+      <c r="AQ75">
+        <v>2</v>
+      </c>
+      <c r="AR75">
+        <v>1.05</v>
+      </c>
+      <c r="AS75">
         <v>1.33</v>
       </c>
-      <c r="X75">
-        <v>7.5</v>
-      </c>
-      <c r="Y75">
-        <v>1.07</v>
-      </c>
-      <c r="Z75">
-        <v>3.7</v>
-      </c>
-      <c r="AA75">
-        <v>3.35</v>
-      </c>
-      <c r="AB75">
-        <v>1.82</v>
-      </c>
-      <c r="AC75">
-        <v>0</v>
-      </c>
-      <c r="AD75">
-        <v>0</v>
-      </c>
-      <c r="AE75">
-        <v>2.74</v>
-      </c>
-      <c r="AF75">
-        <v>1.43</v>
-      </c>
-      <c r="AG75">
-        <v>2</v>
-      </c>
-      <c r="AH75">
-        <v>1.7</v>
-      </c>
-      <c r="AI75">
-        <v>2</v>
-      </c>
-      <c r="AJ75">
-        <v>1.73</v>
-      </c>
-      <c r="AK75">
-        <v>0</v>
-      </c>
-      <c r="AL75">
-        <v>0</v>
-      </c>
-      <c r="AM75">
-        <v>0</v>
-      </c>
-      <c r="AN75">
-        <v>1.25</v>
-      </c>
-      <c r="AO75">
-        <v>2.67</v>
-      </c>
-      <c r="AP75">
-        <v>1.63</v>
-      </c>
-      <c r="AQ75">
-        <v>2.22</v>
-      </c>
-      <c r="AR75">
-        <v>1.22</v>
-      </c>
-      <c r="AS75">
-        <v>1.67</v>
-      </c>
       <c r="AT75">
-        <v>2.89</v>
+        <v>2.38</v>
       </c>
       <c r="AU75">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV75">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW75">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY75">
+        <v>9</v>
+      </c>
+      <c r="AZ75">
         <v>13</v>
       </c>
-      <c r="AZ75">
-        <v>12</v>
-      </c>
       <c r="BA75">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB75">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BC75">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BD75">
         <v>0</v>
@@ -16466,7 +16466,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7469263</v>
+        <v>7469259</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16481,152 +16481,152 @@
         <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H76" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N76">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O76" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>198</v>
+        <v>85</v>
       </c>
       <c r="Q76">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="R76">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S76">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T76">
+        <v>1.4</v>
+      </c>
+      <c r="U76">
+        <v>2.75</v>
+      </c>
+      <c r="V76">
+        <v>3</v>
+      </c>
+      <c r="W76">
+        <v>1.36</v>
+      </c>
+      <c r="X76">
+        <v>7</v>
+      </c>
+      <c r="Y76">
+        <v>1.08</v>
+      </c>
+      <c r="Z76">
+        <v>2.24</v>
+      </c>
+      <c r="AA76">
+        <v>3.15</v>
+      </c>
+      <c r="AB76">
+        <v>2.8</v>
+      </c>
+      <c r="AC76">
+        <v>4.5</v>
+      </c>
+      <c r="AD76">
+        <v>1.14</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>1.95</v>
+      </c>
+      <c r="AH76">
+        <v>1.81</v>
+      </c>
+      <c r="AI76">
+        <v>1.8</v>
+      </c>
+      <c r="AJ76">
+        <v>1.91</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>1.43</v>
+      </c>
+      <c r="AO76">
         <v>1.33</v>
       </c>
-      <c r="U76">
-        <v>3.25</v>
-      </c>
-      <c r="V76">
-        <v>2.63</v>
-      </c>
-      <c r="W76">
-        <v>1.44</v>
-      </c>
-      <c r="X76">
-        <v>6</v>
-      </c>
-      <c r="Y76">
-        <v>1.11</v>
-      </c>
-      <c r="Z76">
-        <v>2.15</v>
-      </c>
-      <c r="AA76">
-        <v>3.35</v>
-      </c>
-      <c r="AB76">
-        <v>2.79</v>
-      </c>
-      <c r="AC76">
-        <v>0</v>
-      </c>
-      <c r="AD76">
-        <v>0</v>
-      </c>
-      <c r="AE76">
-        <v>0</v>
-      </c>
-      <c r="AF76">
-        <v>0</v>
-      </c>
-      <c r="AG76">
-        <v>1.75</v>
-      </c>
-      <c r="AH76">
-        <v>1.95</v>
-      </c>
-      <c r="AI76">
-        <v>1.62</v>
-      </c>
-      <c r="AJ76">
-        <v>2.2</v>
-      </c>
-      <c r="AK76">
-        <v>0</v>
-      </c>
-      <c r="AL76">
-        <v>0</v>
-      </c>
-      <c r="AM76">
-        <v>0</v>
-      </c>
-      <c r="AN76">
-        <v>1.5</v>
-      </c>
-      <c r="AO76">
-        <v>0.83</v>
-      </c>
       <c r="AP76">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ76">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AR76">
-        <v>1.8</v>
+        <v>1.39</v>
       </c>
       <c r="AS76">
-        <v>1.23</v>
+        <v>1.6</v>
       </c>
       <c r="AT76">
-        <v>3.03</v>
+        <v>2.99</v>
       </c>
       <c r="AU76">
+        <v>0</v>
+      </c>
+      <c r="AV76">
+        <v>3</v>
+      </c>
+      <c r="AW76">
+        <v>5</v>
+      </c>
+      <c r="AX76">
+        <v>2</v>
+      </c>
+      <c r="AY76">
+        <v>5</v>
+      </c>
+      <c r="AZ76">
+        <v>5</v>
+      </c>
+      <c r="BA76">
         <v>7</v>
       </c>
-      <c r="AV76">
-        <v>6</v>
-      </c>
-      <c r="AW76">
+      <c r="BB76">
+        <v>3</v>
+      </c>
+      <c r="BC76">
         <v>10</v>
       </c>
-      <c r="AX76">
-        <v>7</v>
-      </c>
-      <c r="AY76">
-        <v>17</v>
-      </c>
-      <c r="AZ76">
-        <v>13</v>
-      </c>
-      <c r="BA76">
-        <v>8</v>
-      </c>
-      <c r="BB76">
-        <v>4</v>
-      </c>
-      <c r="BC76">
-        <v>12</v>
-      </c>
       <c r="BD76">
         <v>0</v>
       </c>
@@ -16649,7 +16649,7 @@
         <v>0</v>
       </c>
       <c r="BK76">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="BL76">
         <v>0</v>
@@ -18774,7 +18774,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q87">
         <v>1.91</v>
@@ -20792,7 +20792,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7727597</v>
+        <v>7727595</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
@@ -20804,13 +20804,13 @@
         <v>45619.47916666666</v>
       </c>
       <c r="F97">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H97" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -20822,79 +20822,79 @@
         <v>0</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M97">
         <v>0</v>
       </c>
       <c r="N97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O97" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="P97" t="s">
         <v>85</v>
       </c>
       <c r="Q97">
-        <v>2.75</v>
+        <v>1.62</v>
       </c>
       <c r="R97">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="S97">
-        <v>3.75</v>
+        <v>9.5</v>
       </c>
       <c r="T97">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="U97">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="V97">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="W97">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="X97">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="Y97">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="Z97">
-        <v>1.9</v>
+        <v>1.39</v>
       </c>
       <c r="AA97">
-        <v>3.25</v>
+        <v>4.45</v>
       </c>
       <c r="AB97">
-        <v>3.75</v>
+        <v>6.3</v>
       </c>
       <c r="AC97">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="AD97">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AE97">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AF97">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AG97">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="AH97">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="AI97">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AJ97">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AK97">
         <v>0</v>
@@ -20906,52 +20906,52 @@
         <v>0</v>
       </c>
       <c r="AN97">
+        <v>1.43</v>
+      </c>
+      <c r="AO97">
+        <v>0.38</v>
+      </c>
+      <c r="AP97">
         <v>1.63</v>
       </c>
-      <c r="AO97">
-        <v>1.25</v>
-      </c>
-      <c r="AP97">
-        <v>1.56</v>
-      </c>
       <c r="AQ97">
+        <v>0.33</v>
+      </c>
+      <c r="AR97">
         <v>1.22</v>
       </c>
-      <c r="AR97">
-        <v>1.39</v>
-      </c>
       <c r="AS97">
-        <v>1.35</v>
+        <v>0.89</v>
       </c>
       <c r="AT97">
-        <v>2.74</v>
+        <v>2.11</v>
       </c>
       <c r="AU97">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV97">
+        <v>3</v>
+      </c>
+      <c r="AW97">
+        <v>5</v>
+      </c>
+      <c r="AX97">
+        <v>3</v>
+      </c>
+      <c r="AY97">
+        <v>11</v>
+      </c>
+      <c r="AZ97">
+        <v>6</v>
+      </c>
+      <c r="BA97">
         <v>4</v>
       </c>
-      <c r="AW97">
-        <v>2</v>
-      </c>
-      <c r="AX97">
-        <v>1</v>
-      </c>
-      <c r="AY97">
-        <v>5</v>
-      </c>
-      <c r="AZ97">
-        <v>5</v>
-      </c>
-      <c r="BA97">
-        <v>5</v>
-      </c>
       <c r="BB97">
         <v>3</v>
       </c>
       <c r="BC97">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD97">
         <v>0</v>
@@ -20998,7 +20998,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7727599</v>
+        <v>7727596</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21013,43 +21013,43 @@
         <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H98" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O98" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P98" t="s">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="Q98">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="R98">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="S98">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="T98">
         <v>1.33</v>
@@ -21058,25 +21058,25 @@
         <v>3.25</v>
       </c>
       <c r="V98">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W98">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X98">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y98">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z98">
-        <v>1.19</v>
+        <v>1.83</v>
       </c>
       <c r="AA98">
-        <v>4.64</v>
+        <v>3.6</v>
       </c>
       <c r="AB98">
-        <v>8.98</v>
+        <v>3.6</v>
       </c>
       <c r="AC98">
         <v>0</v>
@@ -21085,22 +21085,22 @@
         <v>0</v>
       </c>
       <c r="AE98">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AF98">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AG98">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AH98">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AI98">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AJ98">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AK98">
         <v>0</v>
@@ -21112,49 +21112,49 @@
         <v>0</v>
       </c>
       <c r="AN98">
-        <v>2.14</v>
+        <v>0.5</v>
       </c>
       <c r="AO98">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="AP98">
-        <v>2.25</v>
+        <v>0.78</v>
       </c>
       <c r="AQ98">
-        <v>2.22</v>
+        <v>0.43</v>
       </c>
       <c r="AR98">
-        <v>2.55</v>
+        <v>1.69</v>
       </c>
       <c r="AS98">
-        <v>1.7</v>
+        <v>1.34</v>
       </c>
       <c r="AT98">
-        <v>4.25</v>
+        <v>3.03</v>
       </c>
       <c r="AU98">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV98">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW98">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX98">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY98">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ98">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA98">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BB98">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BC98">
         <v>14</v>
@@ -21204,7 +21204,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7727596</v>
+        <v>7727597</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21219,10 +21219,10 @@
         <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H99" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -21234,73 +21234,73 @@
         <v>0</v>
       </c>
       <c r="L99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O99" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="P99" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="Q99">
+        <v>2.75</v>
+      </c>
+      <c r="R99">
         <v>2.05</v>
       </c>
-      <c r="R99">
-        <v>2.3</v>
-      </c>
       <c r="S99">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="T99">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="U99">
+        <v>2.63</v>
+      </c>
+      <c r="V99">
+        <v>3</v>
+      </c>
+      <c r="W99">
+        <v>1.36</v>
+      </c>
+      <c r="X99">
+        <v>7.5</v>
+      </c>
+      <c r="Y99">
+        <v>1.07</v>
+      </c>
+      <c r="Z99">
+        <v>1.9</v>
+      </c>
+      <c r="AA99">
         <v>3.25</v>
       </c>
-      <c r="V99">
-        <v>2.63</v>
-      </c>
-      <c r="W99">
-        <v>1.44</v>
-      </c>
-      <c r="X99">
-        <v>6</v>
-      </c>
-      <c r="Y99">
-        <v>1.11</v>
-      </c>
-      <c r="Z99">
-        <v>1.83</v>
-      </c>
-      <c r="AA99">
-        <v>3.6</v>
-      </c>
       <c r="AB99">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AC99">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AD99">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE99">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AF99">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="AG99">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="AH99">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="AI99">
         <v>1.83</v>
@@ -21318,52 +21318,52 @@
         <v>0</v>
       </c>
       <c r="AN99">
-        <v>0.5</v>
+        <v>1.63</v>
       </c>
       <c r="AO99">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP99">
-        <v>0.78</v>
+        <v>1.56</v>
       </c>
       <c r="AQ99">
-        <v>0.43</v>
+        <v>1.22</v>
       </c>
       <c r="AR99">
-        <v>1.69</v>
+        <v>1.39</v>
       </c>
       <c r="AS99">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AT99">
-        <v>3.03</v>
+        <v>2.74</v>
       </c>
       <c r="AU99">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY99">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AZ99">
         <v>5</v>
       </c>
       <c r="BA99">
+        <v>5</v>
+      </c>
+      <c r="BB99">
+        <v>3</v>
+      </c>
+      <c r="BC99">
         <v>8</v>
-      </c>
-      <c r="BB99">
-        <v>6</v>
-      </c>
-      <c r="BC99">
-        <v>14</v>
       </c>
       <c r="BD99">
         <v>0</v>
@@ -21410,7 +21410,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7727595</v>
+        <v>7727599</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21422,73 +21422,73 @@
         <v>45619.47916666666</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H100" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L100">
         <v>3</v>
       </c>
       <c r="M100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N100">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O100" t="s">
         <v>156</v>
       </c>
       <c r="P100" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="Q100">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="R100">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S100">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="T100">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U100">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V100">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W100">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X100">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y100">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Z100">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AA100">
-        <v>4.45</v>
+        <v>4.64</v>
       </c>
       <c r="AB100">
-        <v>6.3</v>
+        <v>8.98</v>
       </c>
       <c r="AC100">
         <v>0</v>
@@ -21497,79 +21497,79 @@
         <v>0</v>
       </c>
       <c r="AE100">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AF100">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AG100">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AH100">
         <v>2.15</v>
       </c>
       <c r="AI100">
+        <v>2.2</v>
+      </c>
+      <c r="AJ100">
+        <v>1.62</v>
+      </c>
+      <c r="AK100">
+        <v>0</v>
+      </c>
+      <c r="AL100">
+        <v>0</v>
+      </c>
+      <c r="AM100">
+        <v>0</v>
+      </c>
+      <c r="AN100">
+        <v>2.14</v>
+      </c>
+      <c r="AO100">
+        <v>2.5</v>
+      </c>
+      <c r="AP100">
         <v>2.25</v>
       </c>
-      <c r="AJ100">
-        <v>1.57</v>
-      </c>
-      <c r="AK100">
-        <v>0</v>
-      </c>
-      <c r="AL100">
-        <v>0</v>
-      </c>
-      <c r="AM100">
-        <v>0</v>
-      </c>
-      <c r="AN100">
-        <v>1.43</v>
-      </c>
-      <c r="AO100">
-        <v>0.38</v>
-      </c>
-      <c r="AP100">
-        <v>1.63</v>
-      </c>
       <c r="AQ100">
-        <v>0.33</v>
+        <v>2.22</v>
       </c>
       <c r="AR100">
-        <v>1.22</v>
+        <v>2.55</v>
       </c>
       <c r="AS100">
-        <v>0.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT100">
-        <v>2.11</v>
+        <v>4.25</v>
       </c>
       <c r="AU100">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AV100">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW100">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AX100">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY100">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AZ100">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BA100">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BB100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC100">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BD100">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="211">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -645,6 +645,9 @@
   <si>
     <t>['27', '31']</t>
   </si>
+  <si>
+    <t>['42', '59', '63']</t>
+  </si>
 </sst>
 </file>
 
@@ -1005,7 +1008,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1342,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ2">
         <v>0.33</v>
@@ -3199,7 +3202,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ11">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3608,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ13">
         <v>2.13</v>
@@ -5053,7 +5056,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ20">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR20">
         <v>1.46</v>
@@ -6083,7 +6086,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ25">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
         <v>0.89</v>
@@ -6904,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ29">
         <v>0.43</v>
@@ -8346,7 +8349,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ36">
         <v>1.67</v>
@@ -9997,7 +10000,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ44">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR44">
         <v>1.05</v>
@@ -12260,7 +12263,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ55">
         <v>2.25</v>
@@ -12881,7 +12884,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ58">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR58">
         <v>1.13</v>
@@ -13290,7 +13293,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ60">
         <v>0.88</v>
@@ -15353,7 +15356,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ70">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR70">
         <v>1.25</v>
@@ -15762,7 +15765,7 @@
         <v>0.83</v>
       </c>
       <c r="AP72">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ72">
         <v>1.38</v>
@@ -16589,7 +16592,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ76">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR76">
         <v>1.39</v>
@@ -18440,7 +18443,7 @@
         <v>1.33</v>
       </c>
       <c r="AP85">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ85">
         <v>1.22</v>
@@ -19679,7 +19682,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ91">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR91">
         <v>1.58</v>
@@ -21608,6 +21611,212 @@
         <v>0</v>
       </c>
       <c r="BP100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7727598</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45626.47916666666</v>
+      </c>
+      <c r="F101">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>70</v>
+      </c>
+      <c r="H101" t="s">
+        <v>73</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>3</v>
+      </c>
+      <c r="N101">
+        <v>3</v>
+      </c>
+      <c r="O101" t="s">
+        <v>85</v>
+      </c>
+      <c r="P101" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q101">
+        <v>3.4</v>
+      </c>
+      <c r="R101">
+        <v>2.25</v>
+      </c>
+      <c r="S101">
+        <v>2.75</v>
+      </c>
+      <c r="T101">
+        <v>1.33</v>
+      </c>
+      <c r="U101">
+        <v>3.25</v>
+      </c>
+      <c r="V101">
+        <v>2.63</v>
+      </c>
+      <c r="W101">
+        <v>1.44</v>
+      </c>
+      <c r="X101">
+        <v>6</v>
+      </c>
+      <c r="Y101">
+        <v>1.11</v>
+      </c>
+      <c r="Z101">
+        <v>2.9</v>
+      </c>
+      <c r="AA101">
+        <v>3.4</v>
+      </c>
+      <c r="AB101">
+        <v>2.1</v>
+      </c>
+      <c r="AC101">
+        <v>0</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
+      </c>
+      <c r="AF101">
+        <v>0</v>
+      </c>
+      <c r="AG101">
+        <v>1.65</v>
+      </c>
+      <c r="AH101">
+        <v>2</v>
+      </c>
+      <c r="AI101">
+        <v>1.62</v>
+      </c>
+      <c r="AJ101">
+        <v>2.2</v>
+      </c>
+      <c r="AK101">
+        <v>0</v>
+      </c>
+      <c r="AL101">
+        <v>0</v>
+      </c>
+      <c r="AM101">
+        <v>0</v>
+      </c>
+      <c r="AN101">
+        <v>1.25</v>
+      </c>
+      <c r="AO101">
+        <v>1.13</v>
+      </c>
+      <c r="AP101">
+        <v>1.11</v>
+      </c>
+      <c r="AQ101">
+        <v>1.33</v>
+      </c>
+      <c r="AR101">
+        <v>1.77</v>
+      </c>
+      <c r="AS101">
+        <v>1.54</v>
+      </c>
+      <c r="AT101">
+        <v>3.31</v>
+      </c>
+      <c r="AU101">
+        <v>3</v>
+      </c>
+      <c r="AV101">
+        <v>6</v>
+      </c>
+      <c r="AW101">
+        <v>7</v>
+      </c>
+      <c r="AX101">
+        <v>4</v>
+      </c>
+      <c r="AY101">
+        <v>10</v>
+      </c>
+      <c r="AZ101">
+        <v>10</v>
+      </c>
+      <c r="BA101">
+        <v>3</v>
+      </c>
+      <c r="BB101">
+        <v>8</v>
+      </c>
+      <c r="BC101">
+        <v>11</v>
+      </c>
+      <c r="BD101">
+        <v>0</v>
+      </c>
+      <c r="BE101">
+        <v>0</v>
+      </c>
+      <c r="BF101">
+        <v>0</v>
+      </c>
+      <c r="BG101">
+        <v>0</v>
+      </c>
+      <c r="BH101">
+        <v>0</v>
+      </c>
+      <c r="BI101">
+        <v>0</v>
+      </c>
+      <c r="BJ101">
+        <v>0</v>
+      </c>
+      <c r="BK101">
+        <v>0</v>
+      </c>
+      <c r="BL101">
+        <v>0</v>
+      </c>
+      <c r="BM101">
+        <v>0</v>
+      </c>
+      <c r="BN101">
+        <v>0</v>
+      </c>
+      <c r="BO101">
+        <v>0</v>
+      </c>
+      <c r="BP101">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="217">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -487,6 +487,21 @@
     <t>['50', '65', '89']</t>
   </si>
   <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['79', '90+17']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['3', '25', '50']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -536,9 +551,6 @@
   </si>
   <si>
     <t>['54', '89']</t>
-  </si>
-  <si>
-    <t>['34']</t>
   </si>
   <si>
     <t>['35', '51']</t>
@@ -647,6 +659,12 @@
   </si>
   <si>
     <t>['42', '59', '63']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['71']</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP101"/>
+  <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1267,7 +1285,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1348,7 +1366,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ2">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1473,7 +1491,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1679,7 +1697,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1757,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
         <v>1.67</v>
@@ -1963,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2091,7 +2109,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2169,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ6">
         <v>2.22</v>
@@ -2375,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ7">
         <v>0.43</v>
@@ -2709,7 +2727,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2787,10 +2805,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>1.59</v>
@@ -2993,10 +3011,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ10">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3121,7 +3139,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3327,7 +3345,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3408,7 +3426,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3533,7 +3551,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3614,7 +3632,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ13">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>2.12</v>
@@ -3739,7 +3757,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -3817,7 +3835,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ14">
         <v>1.67</v>
@@ -4229,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ16">
         <v>0.88</v>
@@ -4850,7 +4868,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR19">
         <v>1.34</v>
@@ -4975,7 +4993,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5053,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
         <v>1.33</v>
@@ -5259,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ21">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR21">
         <v>1.58</v>
@@ -5387,7 +5405,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5468,7 +5486,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ22">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>1.28</v>
@@ -5674,7 +5692,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ23">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>1.19</v>
@@ -5799,7 +5817,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6005,7 +6023,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -6083,7 +6101,7 @@
         <v>2</v>
       </c>
       <c r="AP25">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ25">
         <v>1.33</v>
@@ -6211,7 +6229,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6289,7 +6307,7 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ26">
         <v>2.22</v>
@@ -6417,7 +6435,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -6704,7 +6722,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ28">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7035,7 +7053,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -7116,7 +7134,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ30">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR30">
         <v>1.46</v>
@@ -7241,7 +7259,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7319,7 +7337,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ31">
         <v>1.38</v>
@@ -7525,10 +7543,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ32">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR32">
         <v>2.16</v>
@@ -7653,7 +7671,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7731,7 +7749,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ33">
         <v>1.67</v>
@@ -7859,7 +7877,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8143,10 +8161,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ35">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR35">
         <v>1.37</v>
@@ -8477,7 +8495,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -8761,10 +8779,10 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR38">
         <v>1.69</v>
@@ -9173,7 +9191,7 @@
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ40">
         <v>2.22</v>
@@ -9301,7 +9319,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9379,10 +9397,10 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ41">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.52</v>
@@ -9507,7 +9525,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9585,10 +9603,10 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ42">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR42">
         <v>2.47</v>
@@ -9713,7 +9731,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9794,7 +9812,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ43">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR43">
         <v>0.99</v>
@@ -9919,7 +9937,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10206,7 +10224,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ45">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>1.74</v>
@@ -10331,7 +10349,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10409,7 +10427,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ46">
         <v>0.88</v>
@@ -10537,7 +10555,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q47">
         <v>2.25</v>
@@ -10615,10 +10633,10 @@
         <v>1.25</v>
       </c>
       <c r="AP47">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ47">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.34</v>
@@ -10743,7 +10761,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q48">
         <v>2.5</v>
@@ -11027,7 +11045,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ49">
         <v>0.43</v>
@@ -11155,7 +11173,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q50">
         <v>1.67</v>
@@ -11361,7 +11379,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11567,7 +11585,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11645,10 +11663,10 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR52">
         <v>1.62</v>
@@ -12060,7 +12078,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ54">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR54">
         <v>1.67</v>
@@ -12185,7 +12203,7 @@
         <v>114</v>
       </c>
       <c r="P55" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12266,7 +12284,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ55">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR55">
         <v>1.83</v>
@@ -12391,7 +12409,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q56">
         <v>6.5</v>
@@ -12469,7 +12487,7 @@
         <v>2.5</v>
       </c>
       <c r="AP56">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
         <v>2.22</v>
@@ -12597,7 +12615,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12675,7 +12693,7 @@
         <v>1.67</v>
       </c>
       <c r="AP57">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ57">
         <v>1.22</v>
@@ -13087,10 +13105,10 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ59">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR59">
         <v>1.28</v>
@@ -13215,7 +13233,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13499,7 +13517,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ61">
         <v>1.38</v>
@@ -13627,7 +13645,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13705,10 +13723,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ62">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR62">
         <v>1.49</v>
@@ -13833,7 +13851,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -13914,7 +13932,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ63">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR63">
         <v>1.21</v>
@@ -14039,7 +14057,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q64">
         <v>1.42</v>
@@ -14120,7 +14138,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ64">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR64">
         <v>3.13</v>
@@ -14451,7 +14469,7 @@
         <v>85</v>
       </c>
       <c r="P66" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q66">
         <v>9</v>
@@ -14863,7 +14881,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q68">
         <v>2.5</v>
@@ -14944,7 +14962,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ68">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>1.2</v>
@@ -15069,7 +15087,7 @@
         <v>131</v>
       </c>
       <c r="P69" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15147,7 +15165,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ69">
         <v>1.22</v>
@@ -15687,7 +15705,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16099,7 +16117,7 @@
         <v>135</v>
       </c>
       <c r="P74" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q74">
         <v>1.73</v>
@@ -16180,7 +16198,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ74">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR74">
         <v>1.35</v>
@@ -16305,7 +16323,7 @@
         <v>136</v>
       </c>
       <c r="P75" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -16383,10 +16401,10 @@
         <v>2.17</v>
       </c>
       <c r="AP75">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ75">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR75">
         <v>1.05</v>
@@ -16589,7 +16607,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ76">
         <v>1.33</v>
@@ -16717,7 +16735,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -16798,7 +16816,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ77">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.29</v>
@@ -16923,7 +16941,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17001,7 +17019,7 @@
         <v>1.4</v>
       </c>
       <c r="AP78">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ78">
         <v>1.22</v>
@@ -17129,7 +17147,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q79">
         <v>3.1</v>
@@ -17207,7 +17225,7 @@
         <v>1.14</v>
       </c>
       <c r="AP79">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ79">
         <v>1.38</v>
@@ -17416,7 +17434,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ80">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR80">
         <v>1.28</v>
@@ -17541,7 +17559,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q81">
         <v>19</v>
@@ -17622,7 +17640,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ81">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR81">
         <v>0.87</v>
@@ -17747,7 +17765,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q82">
         <v>1.5</v>
@@ -17825,7 +17843,7 @@
         <v>0.6</v>
       </c>
       <c r="AP82">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ82">
         <v>0.43</v>
@@ -17953,7 +17971,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18031,10 +18049,10 @@
         <v>2.4</v>
       </c>
       <c r="AP83">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ83">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR83">
         <v>1.47</v>
@@ -18159,7 +18177,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -18240,7 +18258,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ84">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR84">
         <v>1.66</v>
@@ -18649,7 +18667,7 @@
         <v>1.88</v>
       </c>
       <c r="AP86">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ86">
         <v>1.67</v>
@@ -18983,7 +19001,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19267,10 +19285,10 @@
         <v>0.43</v>
       </c>
       <c r="AP89">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ89">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR89">
         <v>1.09</v>
@@ -19395,7 +19413,7 @@
         <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q90">
         <v>4.75</v>
@@ -19476,7 +19494,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ90">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>0.87</v>
@@ -19601,7 +19619,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19885,10 +19903,10 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ92">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR92">
         <v>1.26</v>
@@ -20091,7 +20109,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ93">
         <v>0.88</v>
@@ -20219,7 +20237,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20506,7 +20524,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ95">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR95">
         <v>2.71</v>
@@ -20631,7 +20649,7 @@
         <v>153</v>
       </c>
       <c r="P96" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -20709,10 +20727,10 @@
         <v>2.57</v>
       </c>
       <c r="AP96">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ96">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR96">
         <v>1.34</v>
@@ -20918,7 +20936,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ97">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR97">
         <v>1.22</v>
@@ -21121,7 +21139,7 @@
         <v>0.5</v>
       </c>
       <c r="AP98">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ98">
         <v>0.43</v>
@@ -21455,7 +21473,7 @@
         <v>156</v>
       </c>
       <c r="P100" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q100">
         <v>1.73</v>
@@ -21661,7 +21679,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q101">
         <v>3.4</v>
@@ -21817,6 +21835,1036 @@
         <v>0</v>
       </c>
       <c r="BP101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7727603</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45629.69791666666</v>
+      </c>
+      <c r="F102">
+        <v>18</v>
+      </c>
+      <c r="G102" t="s">
+        <v>73</v>
+      </c>
+      <c r="H102" t="s">
+        <v>79</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+      <c r="O102" t="s">
+        <v>157</v>
+      </c>
+      <c r="P102" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q102">
+        <v>2.88</v>
+      </c>
+      <c r="R102">
+        <v>2.2</v>
+      </c>
+      <c r="S102">
+        <v>3.25</v>
+      </c>
+      <c r="T102">
+        <v>1.33</v>
+      </c>
+      <c r="U102">
+        <v>3.25</v>
+      </c>
+      <c r="V102">
+        <v>2.63</v>
+      </c>
+      <c r="W102">
+        <v>1.44</v>
+      </c>
+      <c r="X102">
+        <v>6</v>
+      </c>
+      <c r="Y102">
+        <v>1.11</v>
+      </c>
+      <c r="Z102">
+        <v>2.31</v>
+      </c>
+      <c r="AA102">
+        <v>3.5</v>
+      </c>
+      <c r="AB102">
+        <v>2.69</v>
+      </c>
+      <c r="AC102">
+        <v>1.01</v>
+      </c>
+      <c r="AD102">
+        <v>11</v>
+      </c>
+      <c r="AE102">
+        <v>1.16</v>
+      </c>
+      <c r="AF102">
+        <v>3.88</v>
+      </c>
+      <c r="AG102">
+        <v>1.58</v>
+      </c>
+      <c r="AH102">
+        <v>2.28</v>
+      </c>
+      <c r="AI102">
+        <v>1.62</v>
+      </c>
+      <c r="AJ102">
+        <v>2.2</v>
+      </c>
+      <c r="AK102">
+        <v>1.4</v>
+      </c>
+      <c r="AL102">
+        <v>1.25</v>
+      </c>
+      <c r="AM102">
+        <v>1.52</v>
+      </c>
+      <c r="AN102">
+        <v>1.25</v>
+      </c>
+      <c r="AO102">
+        <v>2.13</v>
+      </c>
+      <c r="AP102">
+        <v>1.22</v>
+      </c>
+      <c r="AQ102">
+        <v>2</v>
+      </c>
+      <c r="AR102">
+        <v>1.45</v>
+      </c>
+      <c r="AS102">
+        <v>1.36</v>
+      </c>
+      <c r="AT102">
+        <v>2.81</v>
+      </c>
+      <c r="AU102">
+        <v>7</v>
+      </c>
+      <c r="AV102">
+        <v>6</v>
+      </c>
+      <c r="AW102">
+        <v>5</v>
+      </c>
+      <c r="AX102">
+        <v>6</v>
+      </c>
+      <c r="AY102">
+        <v>14</v>
+      </c>
+      <c r="AZ102">
+        <v>17</v>
+      </c>
+      <c r="BA102">
+        <v>7</v>
+      </c>
+      <c r="BB102">
+        <v>6</v>
+      </c>
+      <c r="BC102">
+        <v>13</v>
+      </c>
+      <c r="BD102">
+        <v>0</v>
+      </c>
+      <c r="BE102">
+        <v>0</v>
+      </c>
+      <c r="BF102">
+        <v>0</v>
+      </c>
+      <c r="BG102">
+        <v>0</v>
+      </c>
+      <c r="BH102">
+        <v>0</v>
+      </c>
+      <c r="BI102">
+        <v>0</v>
+      </c>
+      <c r="BJ102">
+        <v>0</v>
+      </c>
+      <c r="BK102">
+        <v>0</v>
+      </c>
+      <c r="BL102">
+        <v>0</v>
+      </c>
+      <c r="BM102">
+        <v>0</v>
+      </c>
+      <c r="BN102">
+        <v>0</v>
+      </c>
+      <c r="BO102">
+        <v>0</v>
+      </c>
+      <c r="BP102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7727602</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45629.69791666666</v>
+      </c>
+      <c r="F103">
+        <v>18</v>
+      </c>
+      <c r="G103" t="s">
+        <v>74</v>
+      </c>
+      <c r="H103" t="s">
+        <v>70</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>2</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>3</v>
+      </c>
+      <c r="O103" t="s">
+        <v>158</v>
+      </c>
+      <c r="P103" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q103">
+        <v>3</v>
+      </c>
+      <c r="R103">
+        <v>2.38</v>
+      </c>
+      <c r="S103">
+        <v>2.88</v>
+      </c>
+      <c r="T103">
+        <v>1.29</v>
+      </c>
+      <c r="U103">
+        <v>3.5</v>
+      </c>
+      <c r="V103">
+        <v>2.25</v>
+      </c>
+      <c r="W103">
+        <v>1.57</v>
+      </c>
+      <c r="X103">
+        <v>5</v>
+      </c>
+      <c r="Y103">
+        <v>1.14</v>
+      </c>
+      <c r="Z103">
+        <v>2.49</v>
+      </c>
+      <c r="AA103">
+        <v>3.66</v>
+      </c>
+      <c r="AB103">
+        <v>2.41</v>
+      </c>
+      <c r="AC103">
+        <v>1.01</v>
+      </c>
+      <c r="AD103">
+        <v>13</v>
+      </c>
+      <c r="AE103">
+        <v>1.11</v>
+      </c>
+      <c r="AF103">
+        <v>4.55</v>
+      </c>
+      <c r="AG103">
+        <v>1.58</v>
+      </c>
+      <c r="AH103">
+        <v>2.28</v>
+      </c>
+      <c r="AI103">
+        <v>1.5</v>
+      </c>
+      <c r="AJ103">
+        <v>2.5</v>
+      </c>
+      <c r="AK103">
+        <v>1.5</v>
+      </c>
+      <c r="AL103">
+        <v>1.23</v>
+      </c>
+      <c r="AM103">
+        <v>1.44</v>
+      </c>
+      <c r="AN103">
+        <v>0.89</v>
+      </c>
+      <c r="AO103">
+        <v>1.13</v>
+      </c>
+      <c r="AP103">
+        <v>1.1</v>
+      </c>
+      <c r="AQ103">
+        <v>1</v>
+      </c>
+      <c r="AR103">
+        <v>1.32</v>
+      </c>
+      <c r="AS103">
+        <v>1.27</v>
+      </c>
+      <c r="AT103">
+        <v>2.59</v>
+      </c>
+      <c r="AU103">
+        <v>5</v>
+      </c>
+      <c r="AV103">
+        <v>5</v>
+      </c>
+      <c r="AW103">
+        <v>11</v>
+      </c>
+      <c r="AX103">
+        <v>8</v>
+      </c>
+      <c r="AY103">
+        <v>16</v>
+      </c>
+      <c r="AZ103">
+        <v>13</v>
+      </c>
+      <c r="BA103">
+        <v>11</v>
+      </c>
+      <c r="BB103">
+        <v>1</v>
+      </c>
+      <c r="BC103">
+        <v>12</v>
+      </c>
+      <c r="BD103">
+        <v>0</v>
+      </c>
+      <c r="BE103">
+        <v>0</v>
+      </c>
+      <c r="BF103">
+        <v>0</v>
+      </c>
+      <c r="BG103">
+        <v>0</v>
+      </c>
+      <c r="BH103">
+        <v>0</v>
+      </c>
+      <c r="BI103">
+        <v>0</v>
+      </c>
+      <c r="BJ103">
+        <v>0</v>
+      </c>
+      <c r="BK103">
+        <v>0</v>
+      </c>
+      <c r="BL103">
+        <v>0</v>
+      </c>
+      <c r="BM103">
+        <v>0</v>
+      </c>
+      <c r="BN103">
+        <v>0</v>
+      </c>
+      <c r="BO103">
+        <v>0</v>
+      </c>
+      <c r="BP103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7727604</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45629.69791666666</v>
+      </c>
+      <c r="F104">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s">
+        <v>77</v>
+      </c>
+      <c r="H104" t="s">
+        <v>80</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104" t="s">
+        <v>159</v>
+      </c>
+      <c r="P104" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q104">
+        <v>2.25</v>
+      </c>
+      <c r="R104">
+        <v>2.05</v>
+      </c>
+      <c r="S104">
+        <v>5.5</v>
+      </c>
+      <c r="T104">
+        <v>1.5</v>
+      </c>
+      <c r="U104">
+        <v>2.5</v>
+      </c>
+      <c r="V104">
+        <v>3.4</v>
+      </c>
+      <c r="W104">
+        <v>1.3</v>
+      </c>
+      <c r="X104">
+        <v>8</v>
+      </c>
+      <c r="Y104">
+        <v>1.06</v>
+      </c>
+      <c r="Z104">
+        <v>1.6</v>
+      </c>
+      <c r="AA104">
+        <v>3.62</v>
+      </c>
+      <c r="AB104">
+        <v>5.53</v>
+      </c>
+      <c r="AC104">
+        <v>1</v>
+      </c>
+      <c r="AD104">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE104">
+        <v>1.32</v>
+      </c>
+      <c r="AF104">
+        <v>2.78</v>
+      </c>
+      <c r="AG104">
+        <v>2.33</v>
+      </c>
+      <c r="AH104">
+        <v>1.55</v>
+      </c>
+      <c r="AI104">
+        <v>2.25</v>
+      </c>
+      <c r="AJ104">
+        <v>1.57</v>
+      </c>
+      <c r="AK104">
+        <v>1.1</v>
+      </c>
+      <c r="AL104">
+        <v>1.24</v>
+      </c>
+      <c r="AM104">
+        <v>2.2</v>
+      </c>
+      <c r="AN104">
+        <v>2.13</v>
+      </c>
+      <c r="AO104">
+        <v>2</v>
+      </c>
+      <c r="AP104">
+        <v>2.22</v>
+      </c>
+      <c r="AQ104">
+        <v>1.78</v>
+      </c>
+      <c r="AR104">
+        <v>1.93</v>
+      </c>
+      <c r="AS104">
+        <v>1.38</v>
+      </c>
+      <c r="AT104">
+        <v>3.31</v>
+      </c>
+      <c r="AU104">
+        <v>6</v>
+      </c>
+      <c r="AV104">
+        <v>4</v>
+      </c>
+      <c r="AW104">
+        <v>6</v>
+      </c>
+      <c r="AX104">
+        <v>3</v>
+      </c>
+      <c r="AY104">
+        <v>14</v>
+      </c>
+      <c r="AZ104">
+        <v>8</v>
+      </c>
+      <c r="BA104">
+        <v>2</v>
+      </c>
+      <c r="BB104">
+        <v>3</v>
+      </c>
+      <c r="BC104">
+        <v>5</v>
+      </c>
+      <c r="BD104">
+        <v>0</v>
+      </c>
+      <c r="BE104">
+        <v>0</v>
+      </c>
+      <c r="BF104">
+        <v>0</v>
+      </c>
+      <c r="BG104">
+        <v>0</v>
+      </c>
+      <c r="BH104">
+        <v>0</v>
+      </c>
+      <c r="BI104">
+        <v>0</v>
+      </c>
+      <c r="BJ104">
+        <v>0</v>
+      </c>
+      <c r="BK104">
+        <v>0</v>
+      </c>
+      <c r="BL104">
+        <v>0</v>
+      </c>
+      <c r="BM104">
+        <v>0</v>
+      </c>
+      <c r="BN104">
+        <v>0</v>
+      </c>
+      <c r="BO104">
+        <v>0</v>
+      </c>
+      <c r="BP104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7727600</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45630.69791666666</v>
+      </c>
+      <c r="F105">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s">
+        <v>75</v>
+      </c>
+      <c r="H105" t="s">
+        <v>81</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105" t="s">
+        <v>160</v>
+      </c>
+      <c r="P105" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q105">
+        <v>8</v>
+      </c>
+      <c r="R105">
+        <v>2.7</v>
+      </c>
+      <c r="S105">
+        <v>1.66</v>
+      </c>
+      <c r="T105">
+        <v>1.25</v>
+      </c>
+      <c r="U105">
+        <v>3.5</v>
+      </c>
+      <c r="V105">
+        <v>2.2</v>
+      </c>
+      <c r="W105">
+        <v>1.61</v>
+      </c>
+      <c r="X105">
+        <v>5</v>
+      </c>
+      <c r="Y105">
+        <v>1.14</v>
+      </c>
+      <c r="Z105">
+        <v>10.8</v>
+      </c>
+      <c r="AA105">
+        <v>5.9</v>
+      </c>
+      <c r="AB105">
+        <v>1.22</v>
+      </c>
+      <c r="AC105">
+        <v>1.01</v>
+      </c>
+      <c r="AD105">
+        <v>17</v>
+      </c>
+      <c r="AE105">
+        <v>1.15</v>
+      </c>
+      <c r="AF105">
+        <v>5</v>
+      </c>
+      <c r="AG105">
+        <v>1.5</v>
+      </c>
+      <c r="AH105">
+        <v>2.49</v>
+      </c>
+      <c r="AI105">
+        <v>1.95</v>
+      </c>
+      <c r="AJ105">
+        <v>1.8</v>
+      </c>
+      <c r="AK105">
+        <v>2.8</v>
+      </c>
+      <c r="AL105">
+        <v>1.1</v>
+      </c>
+      <c r="AM105">
+        <v>1.05</v>
+      </c>
+      <c r="AN105">
+        <v>1.38</v>
+      </c>
+      <c r="AO105">
+        <v>2.25</v>
+      </c>
+      <c r="AP105">
+        <v>1.56</v>
+      </c>
+      <c r="AQ105">
+        <v>2</v>
+      </c>
+      <c r="AR105">
+        <v>1.31</v>
+      </c>
+      <c r="AS105">
+        <v>2.26</v>
+      </c>
+      <c r="AT105">
+        <v>3.57</v>
+      </c>
+      <c r="AU105">
+        <v>3</v>
+      </c>
+      <c r="AV105">
+        <v>6</v>
+      </c>
+      <c r="AW105">
+        <v>4</v>
+      </c>
+      <c r="AX105">
+        <v>11</v>
+      </c>
+      <c r="AY105">
+        <v>8</v>
+      </c>
+      <c r="AZ105">
+        <v>22</v>
+      </c>
+      <c r="BA105">
+        <v>3</v>
+      </c>
+      <c r="BB105">
+        <v>6</v>
+      </c>
+      <c r="BC105">
+        <v>9</v>
+      </c>
+      <c r="BD105">
+        <v>0</v>
+      </c>
+      <c r="BE105">
+        <v>0</v>
+      </c>
+      <c r="BF105">
+        <v>0</v>
+      </c>
+      <c r="BG105">
+        <v>0</v>
+      </c>
+      <c r="BH105">
+        <v>0</v>
+      </c>
+      <c r="BI105">
+        <v>0</v>
+      </c>
+      <c r="BJ105">
+        <v>0</v>
+      </c>
+      <c r="BK105">
+        <v>0</v>
+      </c>
+      <c r="BL105">
+        <v>0</v>
+      </c>
+      <c r="BM105">
+        <v>0</v>
+      </c>
+      <c r="BN105">
+        <v>0</v>
+      </c>
+      <c r="BO105">
+        <v>0</v>
+      </c>
+      <c r="BP105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7727605</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45630.69791666666</v>
+      </c>
+      <c r="F106">
+        <v>18</v>
+      </c>
+      <c r="G106" t="s">
+        <v>72</v>
+      </c>
+      <c r="H106" t="s">
+        <v>78</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>3</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106" t="s">
+        <v>161</v>
+      </c>
+      <c r="P106" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q106">
+        <v>2.2</v>
+      </c>
+      <c r="R106">
+        <v>2.38</v>
+      </c>
+      <c r="S106">
+        <v>4.33</v>
+      </c>
+      <c r="T106">
+        <v>1.29</v>
+      </c>
+      <c r="U106">
+        <v>3.5</v>
+      </c>
+      <c r="V106">
+        <v>2.38</v>
+      </c>
+      <c r="W106">
+        <v>1.53</v>
+      </c>
+      <c r="X106">
+        <v>5</v>
+      </c>
+      <c r="Y106">
+        <v>1.14</v>
+      </c>
+      <c r="Z106">
+        <v>1.53</v>
+      </c>
+      <c r="AA106">
+        <v>4.2</v>
+      </c>
+      <c r="AB106">
+        <v>5.05</v>
+      </c>
+      <c r="AC106">
+        <v>1.01</v>
+      </c>
+      <c r="AD106">
+        <v>13</v>
+      </c>
+      <c r="AE106">
+        <v>1.12</v>
+      </c>
+      <c r="AF106">
+        <v>4.5</v>
+      </c>
+      <c r="AG106">
+        <v>1.57</v>
+      </c>
+      <c r="AH106">
+        <v>2.35</v>
+      </c>
+      <c r="AI106">
+        <v>1.62</v>
+      </c>
+      <c r="AJ106">
+        <v>2.2</v>
+      </c>
+      <c r="AK106">
+        <v>1.19</v>
+      </c>
+      <c r="AL106">
+        <v>1.19</v>
+      </c>
+      <c r="AM106">
+        <v>1.86</v>
+      </c>
+      <c r="AN106">
+        <v>0.78</v>
+      </c>
+      <c r="AO106">
+        <v>0.33</v>
+      </c>
+      <c r="AP106">
+        <v>1</v>
+      </c>
+      <c r="AQ106">
+        <v>0.3</v>
+      </c>
+      <c r="AR106">
+        <v>1.69</v>
+      </c>
+      <c r="AS106">
+        <v>0.89</v>
+      </c>
+      <c r="AT106">
+        <v>2.58</v>
+      </c>
+      <c r="AU106">
+        <v>8</v>
+      </c>
+      <c r="AV106">
+        <v>3</v>
+      </c>
+      <c r="AW106">
+        <v>4</v>
+      </c>
+      <c r="AX106">
+        <v>2</v>
+      </c>
+      <c r="AY106">
+        <v>12</v>
+      </c>
+      <c r="AZ106">
+        <v>6</v>
+      </c>
+      <c r="BA106">
+        <v>3</v>
+      </c>
+      <c r="BB106">
+        <v>0</v>
+      </c>
+      <c r="BC106">
+        <v>3</v>
+      </c>
+      <c r="BD106">
+        <v>0</v>
+      </c>
+      <c r="BE106">
+        <v>0</v>
+      </c>
+      <c r="BF106">
+        <v>0</v>
+      </c>
+      <c r="BG106">
+        <v>0</v>
+      </c>
+      <c r="BH106">
+        <v>0</v>
+      </c>
+      <c r="BI106">
+        <v>0</v>
+      </c>
+      <c r="BJ106">
+        <v>0</v>
+      </c>
+      <c r="BK106">
+        <v>0</v>
+      </c>
+      <c r="BL106">
+        <v>0</v>
+      </c>
+      <c r="BM106">
+        <v>0</v>
+      </c>
+      <c r="BN106">
+        <v>0</v>
+      </c>
+      <c r="BO106">
+        <v>0</v>
+      </c>
+      <c r="BP106">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="218">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -500,6 +500,9 @@
   </si>
   <si>
     <t>['3', '25', '50']</t>
+  </si>
+  <si>
+    <t>['46', '54']</t>
   </si>
   <si>
     <t>['45+2']</t>
@@ -1026,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP106"/>
+  <dimension ref="A1:BP107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1285,7 +1288,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1491,7 +1494,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1569,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ3">
         <v>1.22</v>
@@ -1697,7 +1700,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1778,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2109,7 +2112,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2727,7 +2730,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -3139,7 +3142,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3345,7 +3348,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3551,7 +3554,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3757,7 +3760,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -3838,7 +3841,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ14">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>0.82</v>
@@ -4993,7 +4996,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5405,7 +5408,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5483,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5817,7 +5820,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5898,7 +5901,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>1.08</v>
@@ -6023,7 +6026,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -6229,7 +6232,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6435,7 +6438,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -6513,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ27">
         <v>0.88</v>
@@ -7053,7 +7056,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -7259,7 +7262,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7752,7 +7755,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ33">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR33">
         <v>1.47</v>
@@ -7877,7 +7880,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8370,7 +8373,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ36">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR36">
         <v>1.94</v>
@@ -8495,7 +8498,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -9319,7 +9322,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9525,7 +9528,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9731,7 +9734,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9937,7 +9940,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10221,7 +10224,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ45">
         <v>2</v>
@@ -10349,7 +10352,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10555,7 +10558,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q47">
         <v>2.25</v>
@@ -10761,7 +10764,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q48">
         <v>2.5</v>
@@ -11173,7 +11176,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q50">
         <v>1.67</v>
@@ -11379,7 +11382,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11460,7 +11463,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ51">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR51">
         <v>0.9399999999999999</v>
@@ -11585,7 +11588,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11872,7 +11875,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ53">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR53">
         <v>1.17</v>
@@ -12075,7 +12078,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ54">
         <v>0.3</v>
@@ -12203,7 +12206,7 @@
         <v>114</v>
       </c>
       <c r="P55" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12409,7 +12412,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q56">
         <v>6.5</v>
@@ -12615,7 +12618,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -13233,7 +13236,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13645,7 +13648,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13851,7 +13854,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -14057,7 +14060,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q64">
         <v>1.42</v>
@@ -14344,7 +14347,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ65">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR65">
         <v>2.85</v>
@@ -14469,7 +14472,7 @@
         <v>85</v>
       </c>
       <c r="P66" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q66">
         <v>9</v>
@@ -14753,7 +14756,7 @@
         <v>0.75</v>
       </c>
       <c r="AP67">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ67">
         <v>0.43</v>
@@ -14881,7 +14884,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q68">
         <v>2.5</v>
@@ -15087,7 +15090,7 @@
         <v>131</v>
       </c>
       <c r="P69" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15705,7 +15708,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16117,7 +16120,7 @@
         <v>135</v>
       </c>
       <c r="P74" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q74">
         <v>1.73</v>
@@ -16323,7 +16326,7 @@
         <v>136</v>
       </c>
       <c r="P75" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -16735,7 +16738,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -16941,7 +16944,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17147,7 +17150,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q79">
         <v>3.1</v>
@@ -17559,7 +17562,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q81">
         <v>19</v>
@@ -17765,7 +17768,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q82">
         <v>1.5</v>
@@ -17971,7 +17974,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18177,7 +18180,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -18255,7 +18258,7 @@
         <v>2.5</v>
       </c>
       <c r="AP84">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ84">
         <v>2</v>
@@ -18670,7 +18673,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ86">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR86">
         <v>1.39</v>
@@ -19001,7 +19004,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19413,7 +19416,7 @@
         <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q90">
         <v>4.75</v>
@@ -19619,7 +19622,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19697,7 +19700,7 @@
         <v>1.29</v>
       </c>
       <c r="AP91">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ91">
         <v>1.33</v>
@@ -20237,7 +20240,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20649,7 +20652,7 @@
         <v>153</v>
       </c>
       <c r="P96" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -21473,7 +21476,7 @@
         <v>156</v>
       </c>
       <c r="P100" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q100">
         <v>1.73</v>
@@ -21679,7 +21682,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q101">
         <v>3.4</v>
@@ -21885,7 +21888,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22091,7 +22094,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22865,6 +22868,212 @@
         <v>0</v>
       </c>
       <c r="BP106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7727601</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45636.69791666666</v>
+      </c>
+      <c r="F107">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s">
+        <v>71</v>
+      </c>
+      <c r="H107" t="s">
+        <v>76</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>2</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>3</v>
+      </c>
+      <c r="O107" t="s">
+        <v>162</v>
+      </c>
+      <c r="P107" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q107">
+        <v>3</v>
+      </c>
+      <c r="R107">
+        <v>2.3</v>
+      </c>
+      <c r="S107">
+        <v>3</v>
+      </c>
+      <c r="T107">
+        <v>1.3</v>
+      </c>
+      <c r="U107">
+        <v>3.4</v>
+      </c>
+      <c r="V107">
+        <v>2.38</v>
+      </c>
+      <c r="W107">
+        <v>1.53</v>
+      </c>
+      <c r="X107">
+        <v>5.5</v>
+      </c>
+      <c r="Y107">
+        <v>1.13</v>
+      </c>
+      <c r="Z107">
+        <v>2.4</v>
+      </c>
+      <c r="AA107">
+        <v>3.3</v>
+      </c>
+      <c r="AB107">
+        <v>2.63</v>
+      </c>
+      <c r="AC107">
+        <v>0</v>
+      </c>
+      <c r="AD107">
+        <v>0</v>
+      </c>
+      <c r="AE107">
+        <v>0</v>
+      </c>
+      <c r="AF107">
+        <v>0</v>
+      </c>
+      <c r="AG107">
+        <v>1.65</v>
+      </c>
+      <c r="AH107">
+        <v>2.1</v>
+      </c>
+      <c r="AI107">
+        <v>1.53</v>
+      </c>
+      <c r="AJ107">
+        <v>2.38</v>
+      </c>
+      <c r="AK107">
+        <v>0</v>
+      </c>
+      <c r="AL107">
+        <v>0</v>
+      </c>
+      <c r="AM107">
+        <v>0</v>
+      </c>
+      <c r="AN107">
+        <v>1.75</v>
+      </c>
+      <c r="AO107">
+        <v>1.67</v>
+      </c>
+      <c r="AP107">
+        <v>1.89</v>
+      </c>
+      <c r="AQ107">
+        <v>1.5</v>
+      </c>
+      <c r="AR107">
+        <v>1.55</v>
+      </c>
+      <c r="AS107">
+        <v>1.33</v>
+      </c>
+      <c r="AT107">
+        <v>2.88</v>
+      </c>
+      <c r="AU107">
+        <v>4</v>
+      </c>
+      <c r="AV107">
+        <v>5</v>
+      </c>
+      <c r="AW107">
+        <v>4</v>
+      </c>
+      <c r="AX107">
+        <v>3</v>
+      </c>
+      <c r="AY107">
+        <v>8</v>
+      </c>
+      <c r="AZ107">
+        <v>8</v>
+      </c>
+      <c r="BA107">
+        <v>2</v>
+      </c>
+      <c r="BB107">
+        <v>4</v>
+      </c>
+      <c r="BC107">
+        <v>6</v>
+      </c>
+      <c r="BD107">
+        <v>0</v>
+      </c>
+      <c r="BE107">
+        <v>0</v>
+      </c>
+      <c r="BF107">
+        <v>0</v>
+      </c>
+      <c r="BG107">
+        <v>0</v>
+      </c>
+      <c r="BH107">
+        <v>0</v>
+      </c>
+      <c r="BI107">
+        <v>0</v>
+      </c>
+      <c r="BJ107">
+        <v>0</v>
+      </c>
+      <c r="BK107">
+        <v>0</v>
+      </c>
+      <c r="BL107">
+        <v>0</v>
+      </c>
+      <c r="BM107">
+        <v>0</v>
+      </c>
+      <c r="BN107">
+        <v>0</v>
+      </c>
+      <c r="BO107">
+        <v>0</v>
+      </c>
+      <c r="BP107">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -23011,7 +23011,7 @@
         <v>2.88</v>
       </c>
       <c r="AU107">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV107">
         <v>5</v>
@@ -23023,10 +23023,10 @@
         <v>3</v>
       </c>
       <c r="AY107">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ107">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA107">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -22885,7 +22885,7 @@
         <v>69</v>
       </c>
       <c r="E107" s="2">
-        <v>45636.69791666666</v>
+        <v>45635.875</v>
       </c>
       <c r="F107">
         <v>18</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -400,9 +400,6 @@
     <t>['12']</t>
   </si>
   <si>
-    <t>['3', '20', '63']</t>
-  </si>
-  <si>
     <t>['10', '37', '55']</t>
   </si>
   <si>
@@ -410,6 +407,9 @@
   </si>
   <si>
     <t>['35', '90+5']</t>
+  </si>
+  <si>
+    <t>['3', '20', '63']</t>
   </si>
   <si>
     <t>['5', '14', '41', '55', '72']</t>
@@ -448,10 +448,10 @@
     <t>['36']</t>
   </si>
   <si>
-    <t>['53']</t>
+    <t>['5', '16', '64', '87']</t>
   </si>
   <si>
-    <t>['5', '16', '64', '87']</t>
+    <t>['53']</t>
   </si>
   <si>
     <t>['68']</t>
@@ -478,16 +478,13 @@
     <t>['8', '29', '39']</t>
   </si>
   <si>
+    <t>['50', '65', '89']</t>
+  </si>
+  <si>
     <t>['47', '80', '81']</t>
   </si>
   <si>
     <t>['57', '83']</t>
-  </si>
-  <si>
-    <t>['50', '65', '89']</t>
-  </si>
-  <si>
-    <t>['34']</t>
   </si>
   <si>
     <t>['79', '90+17']</t>
@@ -496,10 +493,13 @@
     <t>['46']</t>
   </si>
   <si>
-    <t>['39']</t>
+    <t>['34']</t>
   </si>
   <si>
     <t>['3', '25', '50']</t>
+  </si>
+  <si>
+    <t>['39']</t>
   </si>
   <si>
     <t>['46', '54']</t>
@@ -664,10 +664,10 @@
     <t>['42', '59', '63']</t>
   </si>
   <si>
-    <t>['60']</t>
+    <t>['71']</t>
   </si>
   <si>
-    <t>['71']</t>
+    <t>['60']</t>
   </si>
 </sst>
 </file>
@@ -7674,7 +7674,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -14224,7 +14224,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7469258</v>
+        <v>7469257</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -14239,148 +14239,148 @@
         <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M65">
         <v>0</v>
       </c>
       <c r="N65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O65" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="P65" t="s">
         <v>85</v>
       </c>
       <c r="Q65">
-        <v>1.57</v>
+        <v>3</v>
       </c>
       <c r="R65">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="S65">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="T65">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="U65">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="V65">
+        <v>3</v>
+      </c>
+      <c r="W65">
+        <v>1.36</v>
+      </c>
+      <c r="X65">
+        <v>7</v>
+      </c>
+      <c r="Y65">
+        <v>1.08</v>
+      </c>
+      <c r="Z65">
+        <v>2.3</v>
+      </c>
+      <c r="AA65">
+        <v>3.1</v>
+      </c>
+      <c r="AB65">
+        <v>2.9</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>1.85</v>
+      </c>
+      <c r="AH65">
+        <v>1.75</v>
+      </c>
+      <c r="AI65">
         <v>1.83</v>
       </c>
-      <c r="W65">
+      <c r="AJ65">
         <v>1.83</v>
       </c>
-      <c r="X65">
-        <v>3.75</v>
-      </c>
-      <c r="Y65">
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>0</v>
+      </c>
+      <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>1.6</v>
+      </c>
+      <c r="AO65">
+        <v>1.4</v>
+      </c>
+      <c r="AP65">
+        <v>1.56</v>
+      </c>
+      <c r="AQ65">
+        <v>1.33</v>
+      </c>
+      <c r="AR65">
         <v>1.25</v>
       </c>
-      <c r="Z65">
-        <v>1.2</v>
-      </c>
-      <c r="AA65">
-        <v>6.5</v>
-      </c>
-      <c r="AB65">
-        <v>9.5</v>
-      </c>
-      <c r="AC65">
-        <v>0</v>
-      </c>
-      <c r="AD65">
-        <v>0</v>
-      </c>
-      <c r="AE65">
-        <v>1.07</v>
-      </c>
-      <c r="AF65">
+      <c r="AS65">
+        <v>1.72</v>
+      </c>
+      <c r="AT65">
+        <v>2.97</v>
+      </c>
+      <c r="AU65">
+        <v>6</v>
+      </c>
+      <c r="AV65">
+        <v>3</v>
+      </c>
+      <c r="AW65">
+        <v>5</v>
+      </c>
+      <c r="AX65">
+        <v>5</v>
+      </c>
+      <c r="AY65">
+        <v>11</v>
+      </c>
+      <c r="AZ65">
         <v>8</v>
       </c>
-      <c r="AG65">
-        <v>1.3</v>
-      </c>
-      <c r="AH65">
-        <v>3.4</v>
-      </c>
-      <c r="AI65">
-        <v>1.73</v>
-      </c>
-      <c r="AJ65">
-        <v>2</v>
-      </c>
-      <c r="AK65">
-        <v>1.03</v>
-      </c>
-      <c r="AL65">
-        <v>1.08</v>
-      </c>
-      <c r="AM65">
+      <c r="BA65">
         <v>4</v>
       </c>
-      <c r="AN65">
-        <v>1.5</v>
-      </c>
-      <c r="AO65">
-        <v>2.14</v>
-      </c>
-      <c r="AP65">
-        <v>2.25</v>
-      </c>
-      <c r="AQ65">
-        <v>1.5</v>
-      </c>
-      <c r="AR65">
-        <v>2.85</v>
-      </c>
-      <c r="AS65">
-        <v>1.44</v>
-      </c>
-      <c r="AT65">
-        <v>4.29</v>
-      </c>
-      <c r="AU65">
-        <v>8</v>
-      </c>
-      <c r="AV65">
+      <c r="BB65">
         <v>4</v>
-      </c>
-      <c r="AW65">
-        <v>12</v>
-      </c>
-      <c r="AX65">
-        <v>2</v>
-      </c>
-      <c r="AY65">
-        <v>20</v>
-      </c>
-      <c r="AZ65">
-        <v>6</v>
-      </c>
-      <c r="BA65">
-        <v>6</v>
-      </c>
-      <c r="BB65">
-        <v>2</v>
       </c>
       <c r="BC65">
         <v>8</v>
@@ -14675,7 +14675,7 @@
         <v>4</v>
       </c>
       <c r="O67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P67" t="s">
         <v>127</v>
@@ -14881,7 +14881,7 @@
         <v>3</v>
       </c>
       <c r="O68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P68" t="s">
         <v>199</v>
@@ -15087,7 +15087,7 @@
         <v>4</v>
       </c>
       <c r="O69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P69" t="s">
         <v>200</v>
@@ -15254,7 +15254,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7469257</v>
+        <v>7469258</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15269,148 +15269,148 @@
         <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H70" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M70">
         <v>0</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O70" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="P70" t="s">
         <v>85</v>
       </c>
       <c r="Q70">
-        <v>3</v>
+        <v>1.57</v>
       </c>
       <c r="R70">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="S70">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="T70">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="U70">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="V70">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="W70">
-        <v>1.36</v>
+        <v>1.83</v>
       </c>
       <c r="X70">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Y70">
+        <v>1.25</v>
+      </c>
+      <c r="Z70">
+        <v>1.2</v>
+      </c>
+      <c r="AA70">
+        <v>6.5</v>
+      </c>
+      <c r="AB70">
+        <v>9.5</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>1.07</v>
+      </c>
+      <c r="AF70">
+        <v>8</v>
+      </c>
+      <c r="AG70">
+        <v>1.3</v>
+      </c>
+      <c r="AH70">
+        <v>3.4</v>
+      </c>
+      <c r="AI70">
+        <v>1.73</v>
+      </c>
+      <c r="AJ70">
+        <v>2</v>
+      </c>
+      <c r="AK70">
+        <v>1.03</v>
+      </c>
+      <c r="AL70">
         <v>1.08</v>
       </c>
-      <c r="Z70">
-        <v>2.3</v>
-      </c>
-      <c r="AA70">
-        <v>3.1</v>
-      </c>
-      <c r="AB70">
-        <v>2.9</v>
-      </c>
-      <c r="AC70">
-        <v>0</v>
-      </c>
-      <c r="AD70">
-        <v>0</v>
-      </c>
-      <c r="AE70">
-        <v>0</v>
-      </c>
-      <c r="AF70">
-        <v>0</v>
-      </c>
-      <c r="AG70">
-        <v>1.85</v>
-      </c>
-      <c r="AH70">
-        <v>1.75</v>
-      </c>
-      <c r="AI70">
-        <v>1.83</v>
-      </c>
-      <c r="AJ70">
-        <v>1.83</v>
-      </c>
-      <c r="AK70">
-        <v>0</v>
-      </c>
-      <c r="AL70">
-        <v>0</v>
-      </c>
       <c r="AM70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN70">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AO70">
-        <v>1.4</v>
+        <v>2.14</v>
       </c>
       <c r="AP70">
-        <v>1.56</v>
+        <v>2.25</v>
       </c>
       <c r="AQ70">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR70">
-        <v>1.25</v>
+        <v>2.85</v>
       </c>
       <c r="AS70">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AT70">
-        <v>2.97</v>
+        <v>4.29</v>
       </c>
       <c r="AU70">
+        <v>8</v>
+      </c>
+      <c r="AV70">
+        <v>4</v>
+      </c>
+      <c r="AW70">
+        <v>12</v>
+      </c>
+      <c r="AX70">
+        <v>2</v>
+      </c>
+      <c r="AY70">
+        <v>20</v>
+      </c>
+      <c r="AZ70">
         <v>6</v>
       </c>
-      <c r="AV70">
-        <v>3</v>
-      </c>
-      <c r="AW70">
-        <v>5</v>
-      </c>
-      <c r="AX70">
-        <v>5</v>
-      </c>
-      <c r="AY70">
-        <v>11</v>
-      </c>
-      <c r="AZ70">
-        <v>8</v>
-      </c>
       <c r="BA70">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC70">
         <v>8</v>
@@ -18550,7 +18550,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7727584</v>
+        <v>7727585</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -18565,190 +18565,190 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H86" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O86" t="s">
         <v>144</v>
       </c>
       <c r="P86" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="Q86">
+        <v>1.91</v>
+      </c>
+      <c r="R86">
+        <v>2.3</v>
+      </c>
+      <c r="S86">
+        <v>7</v>
+      </c>
+      <c r="T86">
+        <v>1.36</v>
+      </c>
+      <c r="U86">
+        <v>3</v>
+      </c>
+      <c r="V86">
         <v>2.63</v>
       </c>
-      <c r="R86">
-        <v>2.05</v>
-      </c>
-      <c r="S86">
-        <v>4</v>
-      </c>
-      <c r="T86">
+      <c r="W86">
         <v>1.44</v>
       </c>
-      <c r="U86">
-        <v>2.63</v>
-      </c>
-      <c r="V86">
-        <v>3</v>
-      </c>
-      <c r="W86">
-        <v>1.36</v>
-      </c>
       <c r="X86">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y86">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z86">
-        <v>2.12</v>
+        <v>1.37</v>
       </c>
       <c r="AA86">
-        <v>3.2</v>
+        <v>4.23</v>
       </c>
       <c r="AB86">
-        <v>3.05</v>
+        <v>6.8</v>
       </c>
       <c r="AC86">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD86">
+        <v>11</v>
+      </c>
+      <c r="AE86">
+        <v>1.25</v>
+      </c>
+      <c r="AF86">
+        <v>3.75</v>
+      </c>
+      <c r="AG86">
+        <v>1.81</v>
+      </c>
+      <c r="AH86">
+        <v>1.9</v>
+      </c>
+      <c r="AI86">
+        <v>2.2</v>
+      </c>
+      <c r="AJ86">
+        <v>1.62</v>
+      </c>
+      <c r="AK86">
+        <v>1.06</v>
+      </c>
+      <c r="AL86">
+        <v>1.16</v>
+      </c>
+      <c r="AM86">
+        <v>2.7</v>
+      </c>
+      <c r="AN86">
+        <v>1.43</v>
+      </c>
+      <c r="AO86">
+        <v>1.17</v>
+      </c>
+      <c r="AP86">
+        <v>1.56</v>
+      </c>
+      <c r="AQ86">
+        <v>0.88</v>
+      </c>
+      <c r="AR86">
+        <v>1.32</v>
+      </c>
+      <c r="AS86">
+        <v>1.67</v>
+      </c>
+      <c r="AT86">
+        <v>2.99</v>
+      </c>
+      <c r="AU86">
         <v>9</v>
       </c>
-      <c r="AE86">
-        <v>1.3</v>
-      </c>
-      <c r="AF86">
-        <v>3.3</v>
-      </c>
-      <c r="AG86">
-        <v>2</v>
-      </c>
-      <c r="AH86">
-        <v>1.73</v>
-      </c>
-      <c r="AI86">
-        <v>1.91</v>
-      </c>
-      <c r="AJ86">
-        <v>1.8</v>
-      </c>
-      <c r="AK86">
-        <v>1.25</v>
-      </c>
-      <c r="AL86">
-        <v>1.25</v>
-      </c>
-      <c r="AM86">
-        <v>1.8</v>
-      </c>
-      <c r="AN86">
-        <v>1</v>
-      </c>
-      <c r="AO86">
-        <v>1.88</v>
-      </c>
-      <c r="AP86">
-        <v>1.22</v>
-      </c>
-      <c r="AQ86">
-        <v>1.5</v>
-      </c>
-      <c r="AR86">
-        <v>1.39</v>
-      </c>
-      <c r="AS86">
-        <v>1.36</v>
-      </c>
-      <c r="AT86">
-        <v>2.75</v>
-      </c>
-      <c r="AU86">
+      <c r="AV86">
+        <v>2</v>
+      </c>
+      <c r="AW86">
         <v>6</v>
       </c>
-      <c r="AV86">
-        <v>4</v>
-      </c>
-      <c r="AW86">
-        <v>9</v>
-      </c>
       <c r="AX86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY86">
         <v>15</v>
       </c>
       <c r="AZ86">
+        <v>5</v>
+      </c>
+      <c r="BA86">
+        <v>5</v>
+      </c>
+      <c r="BB86">
+        <v>3</v>
+      </c>
+      <c r="BC86">
         <v>8</v>
       </c>
-      <c r="BA86">
-        <v>8</v>
-      </c>
-      <c r="BB86">
-        <v>2</v>
-      </c>
-      <c r="BC86">
-        <v>10</v>
-      </c>
       <c r="BD86">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="BE86">
-        <v>8.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF86">
-        <v>2.94</v>
+        <v>3.65</v>
       </c>
       <c r="BG86">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="BH86">
-        <v>3.48</v>
+        <v>3.3</v>
       </c>
       <c r="BI86">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="BJ86">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="BK86">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="BL86">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="BM86">
-        <v>2.18</v>
+        <v>2.29</v>
       </c>
       <c r="BN86">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="BO86">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="BP86">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="87" spans="1:68">
@@ -18756,7 +18756,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7727585</v>
+        <v>7727584</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18771,190 +18771,190 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H87" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O87" t="s">
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="Q87">
+        <v>2.63</v>
+      </c>
+      <c r="R87">
+        <v>2.05</v>
+      </c>
+      <c r="S87">
+        <v>4</v>
+      </c>
+      <c r="T87">
+        <v>1.44</v>
+      </c>
+      <c r="U87">
+        <v>2.63</v>
+      </c>
+      <c r="V87">
+        <v>3</v>
+      </c>
+      <c r="W87">
+        <v>1.36</v>
+      </c>
+      <c r="X87">
+        <v>7.5</v>
+      </c>
+      <c r="Y87">
+        <v>1.07</v>
+      </c>
+      <c r="Z87">
+        <v>2.12</v>
+      </c>
+      <c r="AA87">
+        <v>3.2</v>
+      </c>
+      <c r="AB87">
+        <v>3.05</v>
+      </c>
+      <c r="AC87">
+        <v>1.05</v>
+      </c>
+      <c r="AD87">
+        <v>9</v>
+      </c>
+      <c r="AE87">
+        <v>1.3</v>
+      </c>
+      <c r="AF87">
+        <v>3.3</v>
+      </c>
+      <c r="AG87">
+        <v>2</v>
+      </c>
+      <c r="AH87">
+        <v>1.73</v>
+      </c>
+      <c r="AI87">
         <v>1.91</v>
       </c>
-      <c r="R87">
-        <v>2.3</v>
-      </c>
-      <c r="S87">
-        <v>7</v>
-      </c>
-      <c r="T87">
+      <c r="AJ87">
+        <v>1.8</v>
+      </c>
+      <c r="AK87">
+        <v>1.25</v>
+      </c>
+      <c r="AL87">
+        <v>1.25</v>
+      </c>
+      <c r="AM87">
+        <v>1.8</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
+        <v>1.88</v>
+      </c>
+      <c r="AP87">
+        <v>1.22</v>
+      </c>
+      <c r="AQ87">
+        <v>1.5</v>
+      </c>
+      <c r="AR87">
+        <v>1.39</v>
+      </c>
+      <c r="AS87">
         <v>1.36</v>
       </c>
-      <c r="U87">
-        <v>3</v>
-      </c>
-      <c r="V87">
-        <v>2.63</v>
-      </c>
-      <c r="W87">
-        <v>1.44</v>
-      </c>
-      <c r="X87">
-        <v>6.5</v>
-      </c>
-      <c r="Y87">
-        <v>1.1</v>
-      </c>
-      <c r="Z87">
-        <v>1.37</v>
-      </c>
-      <c r="AA87">
-        <v>4.23</v>
-      </c>
-      <c r="AB87">
-        <v>6.8</v>
-      </c>
-      <c r="AC87">
-        <v>1.04</v>
-      </c>
-      <c r="AD87">
-        <v>11</v>
-      </c>
-      <c r="AE87">
-        <v>1.25</v>
-      </c>
-      <c r="AF87">
-        <v>3.75</v>
-      </c>
-      <c r="AG87">
-        <v>1.81</v>
-      </c>
-      <c r="AH87">
-        <v>1.9</v>
-      </c>
-      <c r="AI87">
-        <v>2.2</v>
-      </c>
-      <c r="AJ87">
-        <v>1.62</v>
-      </c>
-      <c r="AK87">
-        <v>1.06</v>
-      </c>
-      <c r="AL87">
-        <v>1.16</v>
-      </c>
-      <c r="AM87">
-        <v>2.7</v>
-      </c>
-      <c r="AN87">
-        <v>1.43</v>
-      </c>
-      <c r="AO87">
-        <v>1.17</v>
-      </c>
-      <c r="AP87">
-        <v>1.56</v>
-      </c>
-      <c r="AQ87">
-        <v>0.88</v>
-      </c>
-      <c r="AR87">
-        <v>1.32</v>
-      </c>
-      <c r="AS87">
-        <v>1.67</v>
-      </c>
       <c r="AT87">
-        <v>2.99</v>
+        <v>2.75</v>
       </c>
       <c r="AU87">
+        <v>6</v>
+      </c>
+      <c r="AV87">
+        <v>4</v>
+      </c>
+      <c r="AW87">
         <v>9</v>
       </c>
-      <c r="AV87">
-        <v>2</v>
-      </c>
-      <c r="AW87">
-        <v>6</v>
-      </c>
       <c r="AX87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY87">
         <v>15</v>
       </c>
       <c r="AZ87">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA87">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC87">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD87">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="BE87">
-        <v>8.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BF87">
-        <v>3.65</v>
+        <v>2.94</v>
       </c>
       <c r="BG87">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="BH87">
-        <v>3.3</v>
+        <v>3.48</v>
       </c>
       <c r="BI87">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="BJ87">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="BK87">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="BL87">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="BM87">
-        <v>2.29</v>
+        <v>2.18</v>
       </c>
       <c r="BN87">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="BO87">
-        <v>3</v>
+        <v>2.97</v>
       </c>
       <c r="BP87">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -20816,7 +20816,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7727595</v>
+        <v>7727599</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
@@ -20828,73 +20828,73 @@
         <v>45619.47916666666</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G97" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H97" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L97">
         <v>3</v>
       </c>
       <c r="M97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N97">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O97" t="s">
         <v>154</v>
       </c>
       <c r="P97" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
       <c r="Q97">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="R97">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S97">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="T97">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U97">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V97">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W97">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X97">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y97">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Z97">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AA97">
-        <v>4.45</v>
+        <v>4.64</v>
       </c>
       <c r="AB97">
-        <v>6.3</v>
+        <v>8.98</v>
       </c>
       <c r="AC97">
         <v>0</v>
@@ -20903,79 +20903,79 @@
         <v>0</v>
       </c>
       <c r="AE97">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AF97">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AG97">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AH97">
         <v>2.15</v>
       </c>
       <c r="AI97">
+        <v>2.2</v>
+      </c>
+      <c r="AJ97">
+        <v>1.62</v>
+      </c>
+      <c r="AK97">
+        <v>0</v>
+      </c>
+      <c r="AL97">
+        <v>0</v>
+      </c>
+      <c r="AM97">
+        <v>0</v>
+      </c>
+      <c r="AN97">
+        <v>2.14</v>
+      </c>
+      <c r="AO97">
+        <v>2.5</v>
+      </c>
+      <c r="AP97">
         <v>2.25</v>
       </c>
-      <c r="AJ97">
-        <v>1.57</v>
-      </c>
-      <c r="AK97">
-        <v>0</v>
-      </c>
-      <c r="AL97">
-        <v>0</v>
-      </c>
-      <c r="AM97">
-        <v>0</v>
-      </c>
-      <c r="AN97">
-        <v>1.43</v>
-      </c>
-      <c r="AO97">
-        <v>0.38</v>
-      </c>
-      <c r="AP97">
-        <v>1.63</v>
-      </c>
       <c r="AQ97">
-        <v>0.3</v>
+        <v>2.22</v>
       </c>
       <c r="AR97">
-        <v>1.22</v>
+        <v>2.55</v>
       </c>
       <c r="AS97">
-        <v>0.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT97">
-        <v>2.11</v>
+        <v>4.25</v>
       </c>
       <c r="AU97">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AV97">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW97">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AX97">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY97">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AZ97">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BA97">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BB97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC97">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BD97">
         <v>0</v>
@@ -21022,7 +21022,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7727596</v>
+        <v>7727595</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21034,13 +21034,13 @@
         <v>45619.47916666666</v>
       </c>
       <c r="F98">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H98" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -21052,10 +21052,10 @@
         <v>0</v>
       </c>
       <c r="L98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N98">
         <v>3</v>
@@ -21064,43 +21064,43 @@
         <v>155</v>
       </c>
       <c r="P98" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="Q98">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="R98">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="S98">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="T98">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U98">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V98">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W98">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X98">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y98">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="Z98">
-        <v>1.83</v>
+        <v>1.39</v>
       </c>
       <c r="AA98">
-        <v>3.6</v>
+        <v>4.45</v>
       </c>
       <c r="AB98">
-        <v>3.6</v>
+        <v>6.3</v>
       </c>
       <c r="AC98">
         <v>0</v>
@@ -21109,22 +21109,22 @@
         <v>0</v>
       </c>
       <c r="AE98">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="AF98">
-        <v>1.99</v>
+        <v>1.51</v>
       </c>
       <c r="AG98">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AH98">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="AI98">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AJ98">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AK98">
         <v>0</v>
@@ -21136,52 +21136,52 @@
         <v>0</v>
       </c>
       <c r="AN98">
-        <v>0.5</v>
+        <v>1.43</v>
       </c>
       <c r="AO98">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="AP98">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AQ98">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
       <c r="AR98">
-        <v>1.69</v>
+        <v>1.22</v>
       </c>
       <c r="AS98">
-        <v>1.34</v>
+        <v>0.89</v>
       </c>
       <c r="AT98">
-        <v>3.03</v>
+        <v>2.11</v>
       </c>
       <c r="AU98">
         <v>6</v>
       </c>
       <c r="AV98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW98">
+        <v>5</v>
+      </c>
+      <c r="AX98">
+        <v>3</v>
+      </c>
+      <c r="AY98">
+        <v>11</v>
+      </c>
+      <c r="AZ98">
+        <v>6</v>
+      </c>
+      <c r="BA98">
         <v>4</v>
       </c>
-      <c r="AX98">
-        <v>3</v>
-      </c>
-      <c r="AY98">
-        <v>10</v>
-      </c>
-      <c r="AZ98">
-        <v>5</v>
-      </c>
-      <c r="BA98">
-        <v>8</v>
-      </c>
       <c r="BB98">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC98">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BD98">
         <v>0</v>
@@ -21228,7 +21228,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7727597</v>
+        <v>7727596</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21243,10 +21243,10 @@
         <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H99" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -21258,73 +21258,73 @@
         <v>0</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O99" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="P99" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="Q99">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="R99">
+        <v>2.3</v>
+      </c>
+      <c r="S99">
+        <v>5.5</v>
+      </c>
+      <c r="T99">
+        <v>1.33</v>
+      </c>
+      <c r="U99">
+        <v>3.25</v>
+      </c>
+      <c r="V99">
+        <v>2.63</v>
+      </c>
+      <c r="W99">
+        <v>1.44</v>
+      </c>
+      <c r="X99">
+        <v>6</v>
+      </c>
+      <c r="Y99">
+        <v>1.11</v>
+      </c>
+      <c r="Z99">
+        <v>1.83</v>
+      </c>
+      <c r="AA99">
+        <v>3.6</v>
+      </c>
+      <c r="AB99">
+        <v>3.6</v>
+      </c>
+      <c r="AC99">
+        <v>0</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>1.8</v>
+      </c>
+      <c r="AF99">
+        <v>1.99</v>
+      </c>
+      <c r="AG99">
+        <v>1.7</v>
+      </c>
+      <c r="AH99">
         <v>2.05</v>
-      </c>
-      <c r="S99">
-        <v>3.75</v>
-      </c>
-      <c r="T99">
-        <v>1.44</v>
-      </c>
-      <c r="U99">
-        <v>2.63</v>
-      </c>
-      <c r="V99">
-        <v>3</v>
-      </c>
-      <c r="W99">
-        <v>1.36</v>
-      </c>
-      <c r="X99">
-        <v>7.5</v>
-      </c>
-      <c r="Y99">
-        <v>1.07</v>
-      </c>
-      <c r="Z99">
-        <v>1.9</v>
-      </c>
-      <c r="AA99">
-        <v>3.25</v>
-      </c>
-      <c r="AB99">
-        <v>3.75</v>
-      </c>
-      <c r="AC99">
-        <v>4.4</v>
-      </c>
-      <c r="AD99">
-        <v>1.19</v>
-      </c>
-      <c r="AE99">
-        <v>0</v>
-      </c>
-      <c r="AF99">
-        <v>0</v>
-      </c>
-      <c r="AG99">
-        <v>1.77</v>
-      </c>
-      <c r="AH99">
-        <v>1.98</v>
       </c>
       <c r="AI99">
         <v>1.83</v>
@@ -21342,52 +21342,52 @@
         <v>0</v>
       </c>
       <c r="AN99">
-        <v>1.63</v>
+        <v>0.5</v>
       </c>
       <c r="AO99">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="AQ99">
-        <v>1.22</v>
+        <v>0.43</v>
       </c>
       <c r="AR99">
-        <v>1.39</v>
+        <v>1.69</v>
       </c>
       <c r="AS99">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AT99">
-        <v>2.74</v>
+        <v>3.03</v>
       </c>
       <c r="AU99">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV99">
+        <v>2</v>
+      </c>
+      <c r="AW99">
         <v>4</v>
       </c>
-      <c r="AW99">
-        <v>2</v>
-      </c>
       <c r="AX99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY99">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ99">
         <v>5</v>
       </c>
       <c r="BA99">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB99">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC99">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BD99">
         <v>0</v>
@@ -21434,7 +21434,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7727599</v>
+        <v>7727597</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21449,151 +21449,151 @@
         <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H100" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100" t="s">
+        <v>85</v>
+      </c>
+      <c r="P100" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q100">
+        <v>2.75</v>
+      </c>
+      <c r="R100">
+        <v>2.05</v>
+      </c>
+      <c r="S100">
+        <v>3.75</v>
+      </c>
+      <c r="T100">
+        <v>1.44</v>
+      </c>
+      <c r="U100">
+        <v>2.63</v>
+      </c>
+      <c r="V100">
+        <v>3</v>
+      </c>
+      <c r="W100">
+        <v>1.36</v>
+      </c>
+      <c r="X100">
+        <v>7.5</v>
+      </c>
+      <c r="Y100">
+        <v>1.07</v>
+      </c>
+      <c r="Z100">
+        <v>1.9</v>
+      </c>
+      <c r="AA100">
+        <v>3.25</v>
+      </c>
+      <c r="AB100">
+        <v>3.75</v>
+      </c>
+      <c r="AC100">
+        <v>4.4</v>
+      </c>
+      <c r="AD100">
+        <v>1.19</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
+      </c>
+      <c r="AF100">
+        <v>0</v>
+      </c>
+      <c r="AG100">
+        <v>1.77</v>
+      </c>
+      <c r="AH100">
+        <v>1.98</v>
+      </c>
+      <c r="AI100">
+        <v>1.83</v>
+      </c>
+      <c r="AJ100">
+        <v>1.83</v>
+      </c>
+      <c r="AK100">
+        <v>0</v>
+      </c>
+      <c r="AL100">
+        <v>0</v>
+      </c>
+      <c r="AM100">
+        <v>0</v>
+      </c>
+      <c r="AN100">
+        <v>1.63</v>
+      </c>
+      <c r="AO100">
+        <v>1.25</v>
+      </c>
+      <c r="AP100">
+        <v>1.56</v>
+      </c>
+      <c r="AQ100">
+        <v>1.22</v>
+      </c>
+      <c r="AR100">
+        <v>1.39</v>
+      </c>
+      <c r="AS100">
+        <v>1.35</v>
+      </c>
+      <c r="AT100">
+        <v>2.74</v>
+      </c>
+      <c r="AU100">
+        <v>3</v>
+      </c>
+      <c r="AV100">
+        <v>4</v>
+      </c>
+      <c r="AW100">
+        <v>2</v>
+      </c>
+      <c r="AX100">
+        <v>1</v>
+      </c>
+      <c r="AY100">
         <v>5</v>
       </c>
-      <c r="O100" t="s">
-        <v>156</v>
-      </c>
-      <c r="P100" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q100">
-        <v>1.73</v>
-      </c>
-      <c r="R100">
-        <v>2.5</v>
-      </c>
-      <c r="S100">
+      <c r="AZ100">
+        <v>5</v>
+      </c>
+      <c r="BA100">
+        <v>5</v>
+      </c>
+      <c r="BB100">
+        <v>3</v>
+      </c>
+      <c r="BC100">
         <v>8</v>
-      </c>
-      <c r="T100">
-        <v>1.33</v>
-      </c>
-      <c r="U100">
-        <v>3.25</v>
-      </c>
-      <c r="V100">
-        <v>2.5</v>
-      </c>
-      <c r="W100">
-        <v>1.5</v>
-      </c>
-      <c r="X100">
-        <v>5.5</v>
-      </c>
-      <c r="Y100">
-        <v>1.13</v>
-      </c>
-      <c r="Z100">
-        <v>1.19</v>
-      </c>
-      <c r="AA100">
-        <v>4.64</v>
-      </c>
-      <c r="AB100">
-        <v>8.98</v>
-      </c>
-      <c r="AC100">
-        <v>0</v>
-      </c>
-      <c r="AD100">
-        <v>0</v>
-      </c>
-      <c r="AE100">
-        <v>0</v>
-      </c>
-      <c r="AF100">
-        <v>0</v>
-      </c>
-      <c r="AG100">
-        <v>1.67</v>
-      </c>
-      <c r="AH100">
-        <v>2.15</v>
-      </c>
-      <c r="AI100">
-        <v>2.2</v>
-      </c>
-      <c r="AJ100">
-        <v>1.62</v>
-      </c>
-      <c r="AK100">
-        <v>0</v>
-      </c>
-      <c r="AL100">
-        <v>0</v>
-      </c>
-      <c r="AM100">
-        <v>0</v>
-      </c>
-      <c r="AN100">
-        <v>2.14</v>
-      </c>
-      <c r="AO100">
-        <v>2.5</v>
-      </c>
-      <c r="AP100">
-        <v>2.25</v>
-      </c>
-      <c r="AQ100">
-        <v>2.22</v>
-      </c>
-      <c r="AR100">
-        <v>2.55</v>
-      </c>
-      <c r="AS100">
-        <v>1.7</v>
-      </c>
-      <c r="AT100">
-        <v>4.25</v>
-      </c>
-      <c r="AU100">
-        <v>-1</v>
-      </c>
-      <c r="AV100">
-        <v>-1</v>
-      </c>
-      <c r="AW100">
-        <v>-1</v>
-      </c>
-      <c r="AX100">
-        <v>-1</v>
-      </c>
-      <c r="AY100">
-        <v>-1</v>
-      </c>
-      <c r="AZ100">
-        <v>-1</v>
-      </c>
-      <c r="BA100">
-        <v>13</v>
-      </c>
-      <c r="BB100">
-        <v>1</v>
-      </c>
-      <c r="BC100">
-        <v>14</v>
       </c>
       <c r="BD100">
         <v>0</v>
@@ -21846,7 +21846,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>7727603</v>
+        <v>7727602</v>
       </c>
       <c r="C102" t="s">
         <v>68</v>
@@ -21861,28 +21861,28 @@
         <v>18</v>
       </c>
       <c r="G102" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H102" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M102">
         <v>1</v>
       </c>
       <c r="N102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O102" t="s">
         <v>157</v>
@@ -21891,52 +21891,52 @@
         <v>216</v>
       </c>
       <c r="Q102">
+        <v>3</v>
+      </c>
+      <c r="R102">
+        <v>2.38</v>
+      </c>
+      <c r="S102">
         <v>2.88</v>
       </c>
-      <c r="R102">
-        <v>2.2</v>
-      </c>
-      <c r="S102">
-        <v>3.25</v>
-      </c>
       <c r="T102">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="U102">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V102">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="W102">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="X102">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y102">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="Z102">
-        <v>2.31</v>
+        <v>2.49</v>
       </c>
       <c r="AA102">
-        <v>3.5</v>
+        <v>3.66</v>
       </c>
       <c r="AB102">
-        <v>2.69</v>
+        <v>2.41</v>
       </c>
       <c r="AC102">
         <v>1.01</v>
       </c>
       <c r="AD102">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE102">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="AF102">
-        <v>3.88</v>
+        <v>4.55</v>
       </c>
       <c r="AG102">
         <v>1.58</v>
@@ -21945,67 +21945,67 @@
         <v>2.28</v>
       </c>
       <c r="AI102">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AJ102">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AK102">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AL102">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AM102">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="AN102">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AO102">
-        <v>2.13</v>
+        <v>1.13</v>
       </c>
       <c r="AP102">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR102">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="AS102">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT102">
-        <v>2.81</v>
+        <v>2.59</v>
       </c>
       <c r="AU102">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV102">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW102">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AX102">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY102">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ102">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BA102">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BB102">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BC102">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD102">
         <v>0</v>
@@ -22052,7 +22052,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>7727602</v>
+        <v>7727604</v>
       </c>
       <c r="C103" t="s">
         <v>68</v>
@@ -22067,10 +22067,10 @@
         <v>18</v>
       </c>
       <c r="G103" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H103" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -22082,136 +22082,136 @@
         <v>0</v>
       </c>
       <c r="L103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O103" t="s">
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>217</v>
+        <v>85</v>
       </c>
       <c r="Q103">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="R103">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="S103">
-        <v>2.88</v>
+        <v>5.5</v>
       </c>
       <c r="T103">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="U103">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="V103">
+        <v>3.4</v>
+      </c>
+      <c r="W103">
+        <v>1.3</v>
+      </c>
+      <c r="X103">
+        <v>8</v>
+      </c>
+      <c r="Y103">
+        <v>1.06</v>
+      </c>
+      <c r="Z103">
+        <v>1.6</v>
+      </c>
+      <c r="AA103">
+        <v>3.62</v>
+      </c>
+      <c r="AB103">
+        <v>5.53</v>
+      </c>
+      <c r="AC103">
+        <v>1</v>
+      </c>
+      <c r="AD103">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE103">
+        <v>1.32</v>
+      </c>
+      <c r="AF103">
+        <v>2.78</v>
+      </c>
+      <c r="AG103">
+        <v>2.33</v>
+      </c>
+      <c r="AH103">
+        <v>1.55</v>
+      </c>
+      <c r="AI103">
         <v>2.25</v>
       </c>
-      <c r="W103">
+      <c r="AJ103">
         <v>1.57</v>
       </c>
-      <c r="X103">
+      <c r="AK103">
+        <v>1.1</v>
+      </c>
+      <c r="AL103">
+        <v>1.24</v>
+      </c>
+      <c r="AM103">
+        <v>2.2</v>
+      </c>
+      <c r="AN103">
+        <v>2.13</v>
+      </c>
+      <c r="AO103">
+        <v>2</v>
+      </c>
+      <c r="AP103">
+        <v>2.22</v>
+      </c>
+      <c r="AQ103">
+        <v>1.78</v>
+      </c>
+      <c r="AR103">
+        <v>1.93</v>
+      </c>
+      <c r="AS103">
+        <v>1.38</v>
+      </c>
+      <c r="AT103">
+        <v>3.31</v>
+      </c>
+      <c r="AU103">
+        <v>6</v>
+      </c>
+      <c r="AV103">
+        <v>4</v>
+      </c>
+      <c r="AW103">
+        <v>6</v>
+      </c>
+      <c r="AX103">
+        <v>3</v>
+      </c>
+      <c r="AY103">
+        <v>14</v>
+      </c>
+      <c r="AZ103">
+        <v>8</v>
+      </c>
+      <c r="BA103">
+        <v>2</v>
+      </c>
+      <c r="BB103">
+        <v>3</v>
+      </c>
+      <c r="BC103">
         <v>5</v>
-      </c>
-      <c r="Y103">
-        <v>1.14</v>
-      </c>
-      <c r="Z103">
-        <v>2.49</v>
-      </c>
-      <c r="AA103">
-        <v>3.66</v>
-      </c>
-      <c r="AB103">
-        <v>2.41</v>
-      </c>
-      <c r="AC103">
-        <v>1.01</v>
-      </c>
-      <c r="AD103">
-        <v>13</v>
-      </c>
-      <c r="AE103">
-        <v>1.11</v>
-      </c>
-      <c r="AF103">
-        <v>4.55</v>
-      </c>
-      <c r="AG103">
-        <v>1.58</v>
-      </c>
-      <c r="AH103">
-        <v>2.28</v>
-      </c>
-      <c r="AI103">
-        <v>1.5</v>
-      </c>
-      <c r="AJ103">
-        <v>2.5</v>
-      </c>
-      <c r="AK103">
-        <v>1.5</v>
-      </c>
-      <c r="AL103">
-        <v>1.23</v>
-      </c>
-      <c r="AM103">
-        <v>1.44</v>
-      </c>
-      <c r="AN103">
-        <v>0.89</v>
-      </c>
-      <c r="AO103">
-        <v>1.13</v>
-      </c>
-      <c r="AP103">
-        <v>1.1</v>
-      </c>
-      <c r="AQ103">
-        <v>1</v>
-      </c>
-      <c r="AR103">
-        <v>1.32</v>
-      </c>
-      <c r="AS103">
-        <v>1.27</v>
-      </c>
-      <c r="AT103">
-        <v>2.59</v>
-      </c>
-      <c r="AU103">
-        <v>5</v>
-      </c>
-      <c r="AV103">
-        <v>5</v>
-      </c>
-      <c r="AW103">
-        <v>11</v>
-      </c>
-      <c r="AX103">
-        <v>8</v>
-      </c>
-      <c r="AY103">
-        <v>16</v>
-      </c>
-      <c r="AZ103">
-        <v>13</v>
-      </c>
-      <c r="BA103">
-        <v>11</v>
-      </c>
-      <c r="BB103">
-        <v>1</v>
-      </c>
-      <c r="BC103">
-        <v>12</v>
       </c>
       <c r="BD103">
         <v>0</v>
@@ -22258,7 +22258,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>7727604</v>
+        <v>7727603</v>
       </c>
       <c r="C104" t="s">
         <v>68</v>
@@ -22273,151 +22273,151 @@
         <v>18</v>
       </c>
       <c r="G104" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H104" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104">
         <v>1</v>
       </c>
       <c r="M104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O104" t="s">
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="Q104">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="R104">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S104">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="T104">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="U104">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V104">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="W104">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="X104">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y104">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="Z104">
-        <v>1.6</v>
+        <v>2.31</v>
       </c>
       <c r="AA104">
-        <v>3.62</v>
+        <v>3.5</v>
       </c>
       <c r="AB104">
-        <v>5.53</v>
+        <v>2.69</v>
       </c>
       <c r="AC104">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="AD104">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AE104">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="AF104">
-        <v>2.78</v>
+        <v>3.88</v>
       </c>
       <c r="AG104">
-        <v>2.33</v>
+        <v>1.58</v>
       </c>
       <c r="AH104">
-        <v>1.55</v>
+        <v>2.28</v>
       </c>
       <c r="AI104">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="AJ104">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="AK104">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AL104">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AM104">
-        <v>2.2</v>
+        <v>1.52</v>
       </c>
       <c r="AN104">
+        <v>1.25</v>
+      </c>
+      <c r="AO104">
         <v>2.13</v>
       </c>
-      <c r="AO104">
-        <v>2</v>
-      </c>
       <c r="AP104">
-        <v>2.22</v>
+        <v>1.22</v>
       </c>
       <c r="AQ104">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="AR104">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AS104">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT104">
-        <v>3.31</v>
+        <v>2.81</v>
       </c>
       <c r="AU104">
+        <v>7</v>
+      </c>
+      <c r="AV104">
         <v>6</v>
       </c>
-      <c r="AV104">
-        <v>4</v>
-      </c>
       <c r="AW104">
+        <v>5</v>
+      </c>
+      <c r="AX104">
         <v>6</v>
-      </c>
-      <c r="AX104">
-        <v>3</v>
       </c>
       <c r="AY104">
         <v>14</v>
       </c>
       <c r="AZ104">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="BA104">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BB104">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC104">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BD104">
         <v>0</v>
@@ -22464,7 +22464,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>7727600</v>
+        <v>7727605</v>
       </c>
       <c r="C105" t="s">
         <v>68</v>
@@ -22479,28 +22479,28 @@
         <v>18</v>
       </c>
       <c r="G105" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H105" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105">
         <v>0</v>
       </c>
       <c r="K105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M105">
         <v>0</v>
       </c>
       <c r="N105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O105" t="s">
         <v>160</v>
@@ -22509,25 +22509,25 @@
         <v>85</v>
       </c>
       <c r="Q105">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="R105">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
       <c r="S105">
-        <v>1.66</v>
+        <v>4.33</v>
       </c>
       <c r="T105">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U105">
         <v>3.5</v>
       </c>
       <c r="V105">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="W105">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="X105">
         <v>5</v>
@@ -22536,94 +22536,94 @@
         <v>1.14</v>
       </c>
       <c r="Z105">
-        <v>10.8</v>
+        <v>1.53</v>
       </c>
       <c r="AA105">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
       <c r="AB105">
-        <v>1.22</v>
+        <v>5.05</v>
       </c>
       <c r="AC105">
         <v>1.01</v>
       </c>
       <c r="AD105">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE105">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AF105">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AG105">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AH105">
-        <v>2.49</v>
+        <v>2.35</v>
       </c>
       <c r="AI105">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="AJ105">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AK105">
-        <v>2.8</v>
+        <v>1.19</v>
       </c>
       <c r="AL105">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AM105">
-        <v>1.05</v>
+        <v>1.86</v>
       </c>
       <c r="AN105">
-        <v>1.38</v>
+        <v>0.78</v>
       </c>
       <c r="AO105">
-        <v>2.25</v>
+        <v>0.33</v>
       </c>
       <c r="AP105">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="AQ105">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="AR105">
-        <v>1.31</v>
+        <v>1.69</v>
       </c>
       <c r="AS105">
-        <v>2.26</v>
+        <v>0.89</v>
       </c>
       <c r="AT105">
-        <v>3.57</v>
+        <v>2.58</v>
       </c>
       <c r="AU105">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV105">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW105">
         <v>4</v>
       </c>
       <c r="AX105">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AY105">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ105">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="BA105">
         <v>3</v>
       </c>
       <c r="BB105">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BC105">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BD105">
         <v>0</v>
@@ -22670,7 +22670,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>7727605</v>
+        <v>7727600</v>
       </c>
       <c r="C106" t="s">
         <v>68</v>
@@ -22685,28 +22685,28 @@
         <v>18</v>
       </c>
       <c r="G106" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H106" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J106">
         <v>0</v>
       </c>
       <c r="K106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M106">
         <v>0</v>
       </c>
       <c r="N106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O106" t="s">
         <v>161</v>
@@ -22715,25 +22715,25 @@
         <v>85</v>
       </c>
       <c r="Q106">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="R106">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
       <c r="S106">
-        <v>4.33</v>
+        <v>1.66</v>
       </c>
       <c r="T106">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U106">
         <v>3.5</v>
       </c>
       <c r="V106">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="W106">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="X106">
         <v>5</v>
@@ -22742,94 +22742,94 @@
         <v>1.14</v>
       </c>
       <c r="Z106">
-        <v>1.53</v>
+        <v>10.8</v>
       </c>
       <c r="AA106">
-        <v>4.2</v>
+        <v>5.9</v>
       </c>
       <c r="AB106">
-        <v>5.05</v>
+        <v>1.22</v>
       </c>
       <c r="AC106">
         <v>1.01</v>
       </c>
       <c r="AD106">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE106">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AF106">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AG106">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AH106">
-        <v>2.35</v>
+        <v>2.49</v>
       </c>
       <c r="AI106">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="AJ106">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AK106">
-        <v>1.19</v>
+        <v>2.8</v>
       </c>
       <c r="AL106">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="AM106">
-        <v>1.86</v>
+        <v>1.05</v>
       </c>
       <c r="AN106">
-        <v>0.78</v>
+        <v>1.38</v>
       </c>
       <c r="AO106">
-        <v>0.33</v>
+        <v>2.25</v>
       </c>
       <c r="AP106">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AQ106">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AR106">
-        <v>1.69</v>
+        <v>1.31</v>
       </c>
       <c r="AS106">
-        <v>0.89</v>
+        <v>2.26</v>
       </c>
       <c r="AT106">
-        <v>2.58</v>
+        <v>3.57</v>
       </c>
       <c r="AU106">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AV106">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW106">
         <v>4</v>
       </c>
       <c r="AX106">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AY106">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AZ106">
+        <v>22</v>
+      </c>
+      <c r="BA106">
+        <v>3</v>
+      </c>
+      <c r="BB106">
         <v>6</v>
       </c>
-      <c r="BA106">
-        <v>3</v>
-      </c>
-      <c r="BB106">
-        <v>0</v>
-      </c>
       <c r="BC106">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BD106">
         <v>0</v>
@@ -22885,7 +22885,7 @@
         <v>69</v>
       </c>
       <c r="E107" s="2">
-        <v>45635.875</v>
+        <v>45636.69791666666</v>
       </c>
       <c r="F107">
         <v>18</v>
@@ -23011,7 +23011,7 @@
         <v>2.88</v>
       </c>
       <c r="AU107">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV107">
         <v>5</v>
@@ -23023,10 +23023,10 @@
         <v>3</v>
       </c>
       <c r="AY107">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AZ107">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BA107">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -505,6 +505,12 @@
     <t>['46', '54']</t>
   </si>
   <si>
+    <t>['35', '44', '82']</t>
+  </si>
+  <si>
+    <t>['83', '88']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -668,6 +674,9 @@
   </si>
   <si>
     <t>['60']</t>
+  </si>
+  <si>
+    <t>['25', '51']</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP107"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1288,7 +1297,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1494,7 +1503,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1700,7 +1709,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2112,7 +2121,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2602,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ8">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2730,7 +2739,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -3142,7 +3151,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3348,7 +3357,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3426,7 +3435,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ12">
         <v>1.78</v>
@@ -3554,7 +3563,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3760,7 +3769,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4253,7 +4262,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ16">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR16">
         <v>1.91</v>
@@ -4459,7 +4468,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ17">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR17">
         <v>0.68</v>
@@ -4662,7 +4671,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ18">
         <v>1.22</v>
@@ -4868,7 +4877,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ19">
         <v>1.78</v>
@@ -4996,7 +5005,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5408,7 +5417,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5820,7 +5829,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5898,7 +5907,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ24">
         <v>1.5</v>
@@ -6026,7 +6035,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -6232,7 +6241,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6438,7 +6447,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -6519,7 +6528,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ27">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR27">
         <v>1.77</v>
@@ -7056,7 +7065,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -7262,7 +7271,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7343,7 +7352,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ31">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR31">
         <v>1.41</v>
@@ -7880,7 +7889,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7961,7 +7970,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ34">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR34">
         <v>0.86</v>
@@ -8498,7 +8507,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -8576,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ37">
         <v>0.43</v>
@@ -8991,7 +9000,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ39">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR39">
         <v>3.26</v>
@@ -9322,7 +9331,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9528,7 +9537,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9734,7 +9743,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9940,7 +9949,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10018,7 +10027,7 @@
         <v>2.33</v>
       </c>
       <c r="AP44">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ44">
         <v>1.33</v>
@@ -10352,7 +10361,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10433,7 +10442,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ46">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR46">
         <v>0.8100000000000001</v>
@@ -10558,7 +10567,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q47">
         <v>2.25</v>
@@ -10764,7 +10773,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q48">
         <v>2.5</v>
@@ -10845,7 +10854,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ48">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR48">
         <v>1.21</v>
@@ -11176,7 +11185,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q50">
         <v>1.67</v>
@@ -11382,7 +11391,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11588,7 +11597,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12206,7 +12215,7 @@
         <v>114</v>
       </c>
       <c r="P55" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12412,7 +12421,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q56">
         <v>6.5</v>
@@ -12618,7 +12627,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12902,7 +12911,7 @@
         <v>1.75</v>
       </c>
       <c r="AP58">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ58">
         <v>1.33</v>
@@ -13236,7 +13245,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13317,7 +13326,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ60">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR60">
         <v>1.7</v>
@@ -13523,7 +13532,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ61">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR61">
         <v>2.07</v>
@@ -13648,7 +13657,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13854,7 +13863,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -13932,7 +13941,7 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ63">
         <v>2</v>
@@ -14060,7 +14069,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q64">
         <v>1.42</v>
@@ -14472,7 +14481,7 @@
         <v>85</v>
       </c>
       <c r="P66" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q66">
         <v>9</v>
@@ -14884,7 +14893,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q68">
         <v>2.5</v>
@@ -14962,7 +14971,7 @@
         <v>1.2</v>
       </c>
       <c r="AP68">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15090,7 +15099,7 @@
         <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15583,7 +15592,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ71">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR71">
         <v>2.71</v>
@@ -15708,7 +15717,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -15789,7 +15798,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ72">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR72">
         <v>1.8</v>
@@ -15992,7 +16001,7 @@
         <v>2.67</v>
       </c>
       <c r="AP73">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ73">
         <v>2.22</v>
@@ -16120,7 +16129,7 @@
         <v>135</v>
       </c>
       <c r="P74" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q74">
         <v>1.73</v>
@@ -16198,7 +16207,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ74">
         <v>0.3</v>
@@ -16326,7 +16335,7 @@
         <v>136</v>
       </c>
       <c r="P75" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -16738,7 +16747,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -16816,7 +16825,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -16944,7 +16953,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17150,7 +17159,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q79">
         <v>3.1</v>
@@ -17231,7 +17240,7 @@
         <v>1</v>
       </c>
       <c r="AQ79">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR79">
         <v>1.54</v>
@@ -17562,7 +17571,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q81">
         <v>19</v>
@@ -17768,7 +17777,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q82">
         <v>1.5</v>
@@ -17974,7 +17983,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18180,7 +18189,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -18673,7 +18682,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ86">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR86">
         <v>1.32</v>
@@ -19004,7 +19013,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19082,7 +19091,7 @@
         <v>2.43</v>
       </c>
       <c r="AP88">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ88">
         <v>2.22</v>
@@ -19416,7 +19425,7 @@
         <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q90">
         <v>4.75</v>
@@ -19622,7 +19631,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20115,7 +20124,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ93">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR93">
         <v>1.97</v>
@@ -20240,7 +20249,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20318,7 +20327,7 @@
         <v>1.29</v>
       </c>
       <c r="AP94">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ94">
         <v>1.22</v>
@@ -20652,7 +20661,7 @@
         <v>153</v>
       </c>
       <c r="P96" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -20858,7 +20867,7 @@
         <v>154</v>
       </c>
       <c r="P97" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q97">
         <v>1.73</v>
@@ -21142,7 +21151,7 @@
         <v>0.38</v>
       </c>
       <c r="AP98">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ98">
         <v>0.3</v>
@@ -21682,7 +21691,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q101">
         <v>3.4</v>
@@ -21888,7 +21897,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22300,7 +22309,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22918,7 +22927,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23074,6 +23083,418 @@
         <v>0</v>
       </c>
       <c r="BP107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7727594</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45640.47916666666</v>
+      </c>
+      <c r="F108">
+        <v>17</v>
+      </c>
+      <c r="G108" t="s">
+        <v>79</v>
+      </c>
+      <c r="H108" t="s">
+        <v>71</v>
+      </c>
+      <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>3</v>
+      </c>
+      <c r="L108">
+        <v>3</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+      <c r="N108">
+        <v>5</v>
+      </c>
+      <c r="O108" t="s">
+        <v>163</v>
+      </c>
+      <c r="P108" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q108">
+        <v>2.75</v>
+      </c>
+      <c r="R108">
+        <v>2.3</v>
+      </c>
+      <c r="S108">
+        <v>3.25</v>
+      </c>
+      <c r="T108">
+        <v>1.3</v>
+      </c>
+      <c r="U108">
+        <v>3.4</v>
+      </c>
+      <c r="V108">
+        <v>2.38</v>
+      </c>
+      <c r="W108">
+        <v>1.53</v>
+      </c>
+      <c r="X108">
+        <v>5.5</v>
+      </c>
+      <c r="Y108">
+        <v>1.13</v>
+      </c>
+      <c r="Z108">
+        <v>1.95</v>
+      </c>
+      <c r="AA108">
+        <v>3.4</v>
+      </c>
+      <c r="AB108">
+        <v>3.25</v>
+      </c>
+      <c r="AC108">
+        <v>1.02</v>
+      </c>
+      <c r="AD108">
+        <v>16</v>
+      </c>
+      <c r="AE108">
+        <v>1.16</v>
+      </c>
+      <c r="AF108">
+        <v>5</v>
+      </c>
+      <c r="AG108">
+        <v>1.57</v>
+      </c>
+      <c r="AH108">
+        <v>2.25</v>
+      </c>
+      <c r="AI108">
+        <v>1.53</v>
+      </c>
+      <c r="AJ108">
+        <v>2.38</v>
+      </c>
+      <c r="AK108">
+        <v>1.28</v>
+      </c>
+      <c r="AL108">
+        <v>1.23</v>
+      </c>
+      <c r="AM108">
+        <v>1.59</v>
+      </c>
+      <c r="AN108">
+        <v>0.88</v>
+      </c>
+      <c r="AO108">
+        <v>1.38</v>
+      </c>
+      <c r="AP108">
+        <v>1.11</v>
+      </c>
+      <c r="AQ108">
+        <v>1.22</v>
+      </c>
+      <c r="AR108">
+        <v>1.33</v>
+      </c>
+      <c r="AS108">
+        <v>1.32</v>
+      </c>
+      <c r="AT108">
+        <v>2.65</v>
+      </c>
+      <c r="AU108">
+        <v>11</v>
+      </c>
+      <c r="AV108">
+        <v>7</v>
+      </c>
+      <c r="AW108">
+        <v>3</v>
+      </c>
+      <c r="AX108">
+        <v>5</v>
+      </c>
+      <c r="AY108">
+        <v>14</v>
+      </c>
+      <c r="AZ108">
+        <v>12</v>
+      </c>
+      <c r="BA108">
+        <v>1</v>
+      </c>
+      <c r="BB108">
+        <v>3</v>
+      </c>
+      <c r="BC108">
+        <v>4</v>
+      </c>
+      <c r="BD108">
+        <v>0</v>
+      </c>
+      <c r="BE108">
+        <v>0</v>
+      </c>
+      <c r="BF108">
+        <v>0</v>
+      </c>
+      <c r="BG108">
+        <v>0</v>
+      </c>
+      <c r="BH108">
+        <v>0</v>
+      </c>
+      <c r="BI108">
+        <v>0</v>
+      </c>
+      <c r="BJ108">
+        <v>0</v>
+      </c>
+      <c r="BK108">
+        <v>0</v>
+      </c>
+      <c r="BL108">
+        <v>0</v>
+      </c>
+      <c r="BM108">
+        <v>0</v>
+      </c>
+      <c r="BN108">
+        <v>0</v>
+      </c>
+      <c r="BO108">
+        <v>0</v>
+      </c>
+      <c r="BP108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7727610</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45640.47916666666</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109" t="s">
+        <v>76</v>
+      </c>
+      <c r="H109" t="s">
+        <v>72</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>2</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>2</v>
+      </c>
+      <c r="O109" t="s">
+        <v>164</v>
+      </c>
+      <c r="P109" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q109">
+        <v>2.1</v>
+      </c>
+      <c r="R109">
+        <v>2.3</v>
+      </c>
+      <c r="S109">
+        <v>4.75</v>
+      </c>
+      <c r="T109">
+        <v>1.33</v>
+      </c>
+      <c r="U109">
+        <v>3.25</v>
+      </c>
+      <c r="V109">
+        <v>2.5</v>
+      </c>
+      <c r="W109">
+        <v>1.5</v>
+      </c>
+      <c r="X109">
+        <v>5.5</v>
+      </c>
+      <c r="Y109">
+        <v>1.13</v>
+      </c>
+      <c r="Z109">
+        <v>1.67</v>
+      </c>
+      <c r="AA109">
+        <v>3.6</v>
+      </c>
+      <c r="AB109">
+        <v>4.2</v>
+      </c>
+      <c r="AC109">
+        <v>1.04</v>
+      </c>
+      <c r="AD109">
+        <v>11</v>
+      </c>
+      <c r="AE109">
+        <v>1.22</v>
+      </c>
+      <c r="AF109">
+        <v>4</v>
+      </c>
+      <c r="AG109">
+        <v>1.7</v>
+      </c>
+      <c r="AH109">
+        <v>2.05</v>
+      </c>
+      <c r="AI109">
+        <v>1.73</v>
+      </c>
+      <c r="AJ109">
+        <v>2</v>
+      </c>
+      <c r="AK109">
+        <v>1.19</v>
+      </c>
+      <c r="AL109">
+        <v>1.21</v>
+      </c>
+      <c r="AM109">
+        <v>1.81</v>
+      </c>
+      <c r="AN109">
+        <v>1.63</v>
+      </c>
+      <c r="AO109">
+        <v>0.88</v>
+      </c>
+      <c r="AP109">
+        <v>1.78</v>
+      </c>
+      <c r="AQ109">
+        <v>0.78</v>
+      </c>
+      <c r="AR109">
+        <v>1.26</v>
+      </c>
+      <c r="AS109">
+        <v>1.45</v>
+      </c>
+      <c r="AT109">
+        <v>2.71</v>
+      </c>
+      <c r="AU109">
+        <v>15</v>
+      </c>
+      <c r="AV109">
+        <v>8</v>
+      </c>
+      <c r="AW109">
+        <v>6</v>
+      </c>
+      <c r="AX109">
+        <v>6</v>
+      </c>
+      <c r="AY109">
+        <v>21</v>
+      </c>
+      <c r="AZ109">
+        <v>14</v>
+      </c>
+      <c r="BA109">
+        <v>8</v>
+      </c>
+      <c r="BB109">
+        <v>3</v>
+      </c>
+      <c r="BC109">
+        <v>11</v>
+      </c>
+      <c r="BD109">
+        <v>0</v>
+      </c>
+      <c r="BE109">
+        <v>0</v>
+      </c>
+      <c r="BF109">
+        <v>0</v>
+      </c>
+      <c r="BG109">
+        <v>0</v>
+      </c>
+      <c r="BH109">
+        <v>0</v>
+      </c>
+      <c r="BI109">
+        <v>0</v>
+      </c>
+      <c r="BJ109">
+        <v>0</v>
+      </c>
+      <c r="BK109">
+        <v>0</v>
+      </c>
+      <c r="BL109">
+        <v>0</v>
+      </c>
+      <c r="BM109">
+        <v>0</v>
+      </c>
+      <c r="BN109">
+        <v>0</v>
+      </c>
+      <c r="BO109">
+        <v>0</v>
+      </c>
+      <c r="BP109">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -23238,10 +23238,10 @@
         <v>5</v>
       </c>
       <c r="AY108">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ108">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA108">
         <v>1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="224">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,12 @@
     <t>['83', '88']</t>
   </si>
   <si>
+    <t>['37', '70', '89']</t>
+  </si>
+  <si>
+    <t>['45+4', '72', '86']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -677,6 +683,9 @@
   </si>
   <si>
     <t>['25', '51']</t>
+  </si>
+  <si>
+    <t>['90']</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP109"/>
+  <dimension ref="A1:BP111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1297,7 +1306,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1503,7 +1512,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1709,7 +1718,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2121,7 +2130,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2405,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ7">
         <v>0.43</v>
@@ -2614,7 +2623,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ8">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2739,7 +2748,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -3151,7 +3160,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3229,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ11">
         <v>1.33</v>
@@ -3357,7 +3366,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3563,7 +3572,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3644,7 +3653,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR13">
         <v>2.12</v>
@@ -3769,7 +3778,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4259,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ16">
         <v>0.78</v>
@@ -4465,10 +4474,10 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ17">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR17">
         <v>0.68</v>
@@ -5005,7 +5014,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5417,7 +5426,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5829,7 +5838,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6035,7 +6044,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -6241,7 +6250,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6319,7 +6328,7 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ26">
         <v>2.22</v>
@@ -6447,7 +6456,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -7065,7 +7074,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -7271,7 +7280,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7352,7 +7361,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ31">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR31">
         <v>1.41</v>
@@ -7558,7 +7567,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR32">
         <v>2.16</v>
@@ -7761,7 +7770,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ33">
         <v>1.5</v>
@@ -7889,7 +7898,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7967,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ34">
         <v>0.78</v>
@@ -8173,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ35">
         <v>0.3</v>
@@ -8507,7 +8516,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -9000,7 +9009,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ39">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR39">
         <v>3.26</v>
@@ -9331,7 +9340,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9409,7 +9418,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9537,7 +9546,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9743,7 +9752,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9821,7 +9830,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ43">
         <v>1.78</v>
@@ -9949,7 +9958,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10236,7 +10245,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR45">
         <v>1.74</v>
@@ -10361,7 +10370,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10567,7 +10576,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q47">
         <v>2.25</v>
@@ -10773,7 +10782,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q48">
         <v>2.5</v>
@@ -10854,7 +10863,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ48">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR48">
         <v>1.21</v>
@@ -11185,7 +11194,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q50">
         <v>1.67</v>
@@ -11391,7 +11400,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11469,7 +11478,7 @@
         <v>2.4</v>
       </c>
       <c r="AP51">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ51">
         <v>1.5</v>
@@ -11597,7 +11606,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11678,7 +11687,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR52">
         <v>1.62</v>
@@ -12215,7 +12224,7 @@
         <v>114</v>
       </c>
       <c r="P55" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12421,7 +12430,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q56">
         <v>6.5</v>
@@ -12627,7 +12636,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -13245,7 +13254,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13532,7 +13541,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ61">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR61">
         <v>2.07</v>
@@ -13657,7 +13666,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13735,7 +13744,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ62">
         <v>1.78</v>
@@ -13863,7 +13872,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -13944,7 +13953,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ63">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR63">
         <v>1.21</v>
@@ -14069,7 +14078,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q64">
         <v>1.42</v>
@@ -14150,7 +14159,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ64">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR64">
         <v>3.13</v>
@@ -14481,7 +14490,7 @@
         <v>85</v>
       </c>
       <c r="P66" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q66">
         <v>9</v>
@@ -14559,7 +14568,7 @@
         <v>2.6</v>
       </c>
       <c r="AP66">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ66">
         <v>2.22</v>
@@ -14893,7 +14902,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q68">
         <v>2.5</v>
@@ -15099,7 +15108,7 @@
         <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15717,7 +15726,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -15798,7 +15807,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ72">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR72">
         <v>1.8</v>
@@ -16129,7 +16138,7 @@
         <v>135</v>
       </c>
       <c r="P74" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q74">
         <v>1.73</v>
@@ -16335,7 +16344,7 @@
         <v>136</v>
       </c>
       <c r="P75" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -16619,7 +16628,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ76">
         <v>1.33</v>
@@ -16747,7 +16756,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -16953,7 +16962,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17159,7 +17168,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q79">
         <v>3.1</v>
@@ -17240,7 +17249,7 @@
         <v>1</v>
       </c>
       <c r="AQ79">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR79">
         <v>1.54</v>
@@ -17446,7 +17455,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ80">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR80">
         <v>1.28</v>
@@ -17571,7 +17580,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q81">
         <v>19</v>
@@ -17649,7 +17658,7 @@
         <v>2.25</v>
       </c>
       <c r="AP81">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ81">
         <v>2</v>
@@ -17777,7 +17786,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q82">
         <v>1.5</v>
@@ -17983,7 +17992,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18189,7 +18198,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -19013,7 +19022,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19425,7 +19434,7 @@
         <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q90">
         <v>4.75</v>
@@ -19503,7 +19512,7 @@
         <v>1.29</v>
       </c>
       <c r="AP90">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -19631,7 +19640,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19918,7 +19927,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ92">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR92">
         <v>1.26</v>
@@ -20249,7 +20258,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20661,7 +20670,7 @@
         <v>153</v>
       </c>
       <c r="P96" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -20867,7 +20876,7 @@
         <v>154</v>
       </c>
       <c r="P97" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q97">
         <v>1.73</v>
@@ -21691,7 +21700,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q101">
         <v>3.4</v>
@@ -21897,7 +21906,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22309,7 +22318,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22390,7 +22399,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ104">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR104">
         <v>1.45</v>
@@ -22799,7 +22808,7 @@
         <v>2.25</v>
       </c>
       <c r="AP106">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ106">
         <v>2</v>
@@ -22927,7 +22936,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23133,7 +23142,7 @@
         <v>163</v>
       </c>
       <c r="P108" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q108">
         <v>2.75</v>
@@ -23214,7 +23223,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ108">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR108">
         <v>1.33</v>
@@ -23495,6 +23504,418 @@
         <v>0</v>
       </c>
       <c r="BP109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7727609</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45647.47916666666</v>
+      </c>
+      <c r="F110">
+        <v>19</v>
+      </c>
+      <c r="G110" t="s">
+        <v>75</v>
+      </c>
+      <c r="H110" t="s">
+        <v>71</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>3</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>4</v>
+      </c>
+      <c r="O110" t="s">
+        <v>165</v>
+      </c>
+      <c r="P110" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q110">
+        <v>2.4</v>
+      </c>
+      <c r="R110">
+        <v>2.25</v>
+      </c>
+      <c r="S110">
+        <v>4</v>
+      </c>
+      <c r="T110">
+        <v>1.33</v>
+      </c>
+      <c r="U110">
+        <v>3.25</v>
+      </c>
+      <c r="V110">
+        <v>2.5</v>
+      </c>
+      <c r="W110">
+        <v>1.5</v>
+      </c>
+      <c r="X110">
+        <v>6</v>
+      </c>
+      <c r="Y110">
+        <v>1.11</v>
+      </c>
+      <c r="Z110">
+        <v>2.05</v>
+      </c>
+      <c r="AA110">
+        <v>3.1</v>
+      </c>
+      <c r="AB110">
+        <v>3.4</v>
+      </c>
+      <c r="AC110">
+        <v>1.04</v>
+      </c>
+      <c r="AD110">
+        <v>11</v>
+      </c>
+      <c r="AE110">
+        <v>1.24</v>
+      </c>
+      <c r="AF110">
+        <v>3.75</v>
+      </c>
+      <c r="AG110">
+        <v>1.91</v>
+      </c>
+      <c r="AH110">
+        <v>1.8</v>
+      </c>
+      <c r="AI110">
+        <v>1.62</v>
+      </c>
+      <c r="AJ110">
+        <v>2.2</v>
+      </c>
+      <c r="AK110">
+        <v>1.19</v>
+      </c>
+      <c r="AL110">
+        <v>1.22</v>
+      </c>
+      <c r="AM110">
+        <v>1.79</v>
+      </c>
+      <c r="AN110">
+        <v>1.56</v>
+      </c>
+      <c r="AO110">
+        <v>1.22</v>
+      </c>
+      <c r="AP110">
+        <v>1.7</v>
+      </c>
+      <c r="AQ110">
+        <v>1.1</v>
+      </c>
+      <c r="AR110">
+        <v>1.27</v>
+      </c>
+      <c r="AS110">
+        <v>1.34</v>
+      </c>
+      <c r="AT110">
+        <v>2.61</v>
+      </c>
+      <c r="AU110">
+        <v>8</v>
+      </c>
+      <c r="AV110">
+        <v>8</v>
+      </c>
+      <c r="AW110">
+        <v>10</v>
+      </c>
+      <c r="AX110">
+        <v>8</v>
+      </c>
+      <c r="AY110">
+        <v>18</v>
+      </c>
+      <c r="AZ110">
+        <v>16</v>
+      </c>
+      <c r="BA110">
+        <v>4</v>
+      </c>
+      <c r="BB110">
+        <v>9</v>
+      </c>
+      <c r="BC110">
+        <v>13</v>
+      </c>
+      <c r="BD110">
+        <v>0</v>
+      </c>
+      <c r="BE110">
+        <v>0</v>
+      </c>
+      <c r="BF110">
+        <v>0</v>
+      </c>
+      <c r="BG110">
+        <v>0</v>
+      </c>
+      <c r="BH110">
+        <v>0</v>
+      </c>
+      <c r="BI110">
+        <v>0</v>
+      </c>
+      <c r="BJ110">
+        <v>0</v>
+      </c>
+      <c r="BK110">
+        <v>0</v>
+      </c>
+      <c r="BL110">
+        <v>0</v>
+      </c>
+      <c r="BM110">
+        <v>0</v>
+      </c>
+      <c r="BN110">
+        <v>0</v>
+      </c>
+      <c r="BO110">
+        <v>0</v>
+      </c>
+      <c r="BP110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7727608</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45647.47916666666</v>
+      </c>
+      <c r="F111">
+        <v>19</v>
+      </c>
+      <c r="G111" t="s">
+        <v>78</v>
+      </c>
+      <c r="H111" t="s">
+        <v>79</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>3</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>4</v>
+      </c>
+      <c r="O111" t="s">
+        <v>166</v>
+      </c>
+      <c r="P111" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q111">
+        <v>4.75</v>
+      </c>
+      <c r="R111">
+        <v>2.4</v>
+      </c>
+      <c r="S111">
+        <v>2.05</v>
+      </c>
+      <c r="T111">
+        <v>1.29</v>
+      </c>
+      <c r="U111">
+        <v>3.5</v>
+      </c>
+      <c r="V111">
+        <v>2.25</v>
+      </c>
+      <c r="W111">
+        <v>1.57</v>
+      </c>
+      <c r="X111">
+        <v>4.5</v>
+      </c>
+      <c r="Y111">
+        <v>1.17</v>
+      </c>
+      <c r="Z111">
+        <v>7.71</v>
+      </c>
+      <c r="AA111">
+        <v>6.45</v>
+      </c>
+      <c r="AB111">
+        <v>1.21</v>
+      </c>
+      <c r="AC111">
+        <v>1.01</v>
+      </c>
+      <c r="AD111">
+        <v>15</v>
+      </c>
+      <c r="AE111">
+        <v>1.17</v>
+      </c>
+      <c r="AF111">
+        <v>4.6</v>
+      </c>
+      <c r="AG111">
+        <v>1.53</v>
+      </c>
+      <c r="AH111">
+        <v>2.35</v>
+      </c>
+      <c r="AI111">
+        <v>1.57</v>
+      </c>
+      <c r="AJ111">
+        <v>2.25</v>
+      </c>
+      <c r="AK111">
+        <v>1.96</v>
+      </c>
+      <c r="AL111">
+        <v>1.19</v>
+      </c>
+      <c r="AM111">
+        <v>1.15</v>
+      </c>
+      <c r="AN111">
+        <v>0.88</v>
+      </c>
+      <c r="AO111">
+        <v>2</v>
+      </c>
+      <c r="AP111">
+        <v>1.11</v>
+      </c>
+      <c r="AQ111">
+        <v>1.8</v>
+      </c>
+      <c r="AR111">
+        <v>0.97</v>
+      </c>
+      <c r="AS111">
+        <v>1.39</v>
+      </c>
+      <c r="AT111">
+        <v>2.36</v>
+      </c>
+      <c r="AU111">
+        <v>8</v>
+      </c>
+      <c r="AV111">
+        <v>6</v>
+      </c>
+      <c r="AW111">
+        <v>5</v>
+      </c>
+      <c r="AX111">
+        <v>3</v>
+      </c>
+      <c r="AY111">
+        <v>13</v>
+      </c>
+      <c r="AZ111">
+        <v>9</v>
+      </c>
+      <c r="BA111">
+        <v>1</v>
+      </c>
+      <c r="BB111">
+        <v>3</v>
+      </c>
+      <c r="BC111">
+        <v>4</v>
+      </c>
+      <c r="BD111">
+        <v>0</v>
+      </c>
+      <c r="BE111">
+        <v>0</v>
+      </c>
+      <c r="BF111">
+        <v>0</v>
+      </c>
+      <c r="BG111">
+        <v>0</v>
+      </c>
+      <c r="BH111">
+        <v>0</v>
+      </c>
+      <c r="BI111">
+        <v>0</v>
+      </c>
+      <c r="BJ111">
+        <v>0</v>
+      </c>
+      <c r="BK111">
+        <v>0</v>
+      </c>
+      <c r="BL111">
+        <v>0</v>
+      </c>
+      <c r="BM111">
+        <v>0</v>
+      </c>
+      <c r="BN111">
+        <v>0</v>
+      </c>
+      <c r="BO111">
+        <v>0</v>
+      </c>
+      <c r="BP111">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="226">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -517,6 +517,9 @@
     <t>['45+4', '72', '86']</t>
   </si>
   <si>
+    <t>['7', '19', '32', '48', '82']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -686,6 +689,9 @@
   </si>
   <si>
     <t>['90']</t>
+  </si>
+  <si>
+    <t>['14', '78']</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP111"/>
+  <dimension ref="A1:BP112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1306,7 +1312,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1512,7 +1518,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1718,7 +1724,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2130,7 +2136,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2417,7 +2423,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ7">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2748,7 +2754,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -3160,7 +3166,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3366,7 +3372,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3572,7 +3578,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3778,7 +3784,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -5014,7 +5020,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5426,7 +5432,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5838,7 +5844,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6044,7 +6050,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -6250,7 +6256,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6456,7 +6462,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -6740,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ28">
         <v>0.3</v>
@@ -6949,7 +6955,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ29">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR29">
         <v>1.93</v>
@@ -7074,7 +7080,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -7280,7 +7286,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7898,7 +7904,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8516,7 +8522,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -8597,7 +8603,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ37">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR37">
         <v>1.1</v>
@@ -9006,7 +9012,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ39">
         <v>1.1</v>
@@ -9340,7 +9346,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9546,7 +9552,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9752,7 +9758,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9958,7 +9964,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10370,7 +10376,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10576,7 +10582,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q47">
         <v>2.25</v>
@@ -10782,7 +10788,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q48">
         <v>2.5</v>
@@ -11069,7 +11075,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ49">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR49">
         <v>2.19</v>
@@ -11194,7 +11200,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q50">
         <v>1.67</v>
@@ -11272,7 +11278,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ50">
         <v>1.22</v>
@@ -11400,7 +11406,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11606,7 +11612,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12224,7 +12230,7 @@
         <v>114</v>
       </c>
       <c r="P55" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12430,7 +12436,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q56">
         <v>6.5</v>
@@ -12636,7 +12642,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -13254,7 +13260,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13666,7 +13672,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13872,7 +13878,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -14078,7 +14084,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q64">
         <v>1.42</v>
@@ -14156,7 +14162,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ64">
         <v>1.8</v>
@@ -14490,7 +14496,7 @@
         <v>85</v>
       </c>
       <c r="P66" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q66">
         <v>9</v>
@@ -14777,7 +14783,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ67">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR67">
         <v>1.7</v>
@@ -14902,7 +14908,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q68">
         <v>2.5</v>
@@ -15108,7 +15114,7 @@
         <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15392,7 +15398,7 @@
         <v>2.14</v>
       </c>
       <c r="AP70">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ70">
         <v>1.5</v>
@@ -15598,7 +15604,7 @@
         <v>1.4</v>
       </c>
       <c r="AP71">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ71">
         <v>0.78</v>
@@ -15726,7 +15732,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16138,7 +16144,7 @@
         <v>135</v>
       </c>
       <c r="P74" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q74">
         <v>1.73</v>
@@ -16344,7 +16350,7 @@
         <v>136</v>
       </c>
       <c r="P75" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -16756,7 +16762,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -16962,7 +16968,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17168,7 +17174,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q79">
         <v>3.1</v>
@@ -17580,7 +17586,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q81">
         <v>19</v>
@@ -17786,7 +17792,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q82">
         <v>1.5</v>
@@ -17867,7 +17873,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ82">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR82">
         <v>1.39</v>
@@ -17992,7 +17998,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18198,7 +18204,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -19022,7 +19028,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19434,7 +19440,7 @@
         <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q90">
         <v>4.75</v>
@@ -19640,7 +19646,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20258,7 +20264,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20542,7 +20548,7 @@
         <v>2.29</v>
       </c>
       <c r="AP95">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ95">
         <v>1.78</v>
@@ -20670,7 +20676,7 @@
         <v>153</v>
       </c>
       <c r="P96" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -20876,7 +20882,7 @@
         <v>154</v>
       </c>
       <c r="P97" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q97">
         <v>1.73</v>
@@ -20954,7 +20960,7 @@
         <v>2.5</v>
       </c>
       <c r="AP97">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ97">
         <v>2.22</v>
@@ -21369,7 +21375,7 @@
         <v>1</v>
       </c>
       <c r="AQ99">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR99">
         <v>1.69</v>
@@ -21700,7 +21706,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q101">
         <v>3.4</v>
@@ -21906,7 +21912,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22318,7 +22324,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22936,7 +22942,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23142,7 +23148,7 @@
         <v>163</v>
       </c>
       <c r="P108" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q108">
         <v>2.75</v>
@@ -23554,7 +23560,7 @@
         <v>165</v>
       </c>
       <c r="P110" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -23917,6 +23923,212 @@
       </c>
       <c r="BP111">
         <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7469209</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45648.47916666666</v>
+      </c>
+      <c r="F112">
+        <v>4</v>
+      </c>
+      <c r="G112" t="s">
+        <v>81</v>
+      </c>
+      <c r="H112" t="s">
+        <v>74</v>
+      </c>
+      <c r="I112">
+        <v>3</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>4</v>
+      </c>
+      <c r="L112">
+        <v>5</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>7</v>
+      </c>
+      <c r="O112" t="s">
+        <v>167</v>
+      </c>
+      <c r="P112" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q112">
+        <v>1.4</v>
+      </c>
+      <c r="R112">
+        <v>3.2</v>
+      </c>
+      <c r="S112">
+        <v>13</v>
+      </c>
+      <c r="T112">
+        <v>1.2</v>
+      </c>
+      <c r="U112">
+        <v>4.33</v>
+      </c>
+      <c r="V112">
+        <v>1.91</v>
+      </c>
+      <c r="W112">
+        <v>1.8</v>
+      </c>
+      <c r="X112">
+        <v>4</v>
+      </c>
+      <c r="Y112">
+        <v>1.22</v>
+      </c>
+      <c r="Z112">
+        <v>1.11</v>
+      </c>
+      <c r="AA112">
+        <v>10</v>
+      </c>
+      <c r="AB112">
+        <v>19</v>
+      </c>
+      <c r="AC112">
+        <v>1</v>
+      </c>
+      <c r="AD112">
+        <v>13</v>
+      </c>
+      <c r="AE112">
+        <v>1.05</v>
+      </c>
+      <c r="AF112">
+        <v>6.4</v>
+      </c>
+      <c r="AG112">
+        <v>1.33</v>
+      </c>
+      <c r="AH112">
+        <v>3.25</v>
+      </c>
+      <c r="AI112">
+        <v>2.25</v>
+      </c>
+      <c r="AJ112">
+        <v>1.57</v>
+      </c>
+      <c r="AK112">
+        <v>1.02</v>
+      </c>
+      <c r="AL112">
+        <v>1.04</v>
+      </c>
+      <c r="AM112">
+        <v>4.3</v>
+      </c>
+      <c r="AN112">
+        <v>2.25</v>
+      </c>
+      <c r="AO112">
+        <v>0.43</v>
+      </c>
+      <c r="AP112">
+        <v>2.33</v>
+      </c>
+      <c r="AQ112">
+        <v>0.38</v>
+      </c>
+      <c r="AR112">
+        <v>2.55</v>
+      </c>
+      <c r="AS112">
+        <v>1.32</v>
+      </c>
+      <c r="AT112">
+        <v>3.87</v>
+      </c>
+      <c r="AU112">
+        <v>10</v>
+      </c>
+      <c r="AV112">
+        <v>4</v>
+      </c>
+      <c r="AW112">
+        <v>16</v>
+      </c>
+      <c r="AX112">
+        <v>2</v>
+      </c>
+      <c r="AY112">
+        <v>26</v>
+      </c>
+      <c r="AZ112">
+        <v>6</v>
+      </c>
+      <c r="BA112">
+        <v>12</v>
+      </c>
+      <c r="BB112">
+        <v>1</v>
+      </c>
+      <c r="BC112">
+        <v>13</v>
+      </c>
+      <c r="BD112">
+        <v>1.05</v>
+      </c>
+      <c r="BE112">
+        <v>15</v>
+      </c>
+      <c r="BF112">
+        <v>11</v>
+      </c>
+      <c r="BG112">
+        <v>1.19</v>
+      </c>
+      <c r="BH112">
+        <v>4.35</v>
+      </c>
+      <c r="BI112">
+        <v>1.31</v>
+      </c>
+      <c r="BJ112">
+        <v>2.92</v>
+      </c>
+      <c r="BK112">
+        <v>1.57</v>
+      </c>
+      <c r="BL112">
+        <v>2.14</v>
+      </c>
+      <c r="BM112">
+        <v>2.05</v>
+      </c>
+      <c r="BN112">
+        <v>1.7</v>
+      </c>
+      <c r="BO112">
+        <v>2.52</v>
+      </c>
+      <c r="BP112">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -23665,10 +23665,10 @@
         <v>8</v>
       </c>
       <c r="AY110">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AZ110">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="BA110">
         <v>4</v>
@@ -23871,10 +23871,10 @@
         <v>3</v>
       </c>
       <c r="AY111">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ111">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA111">
         <v>1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -24065,10 +24065,10 @@
         <v>3.87</v>
       </c>
       <c r="AU112">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AV112">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW112">
         <v>16</v>
@@ -24077,10 +24077,10 @@
         <v>2</v>
       </c>
       <c r="AY112">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ112">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA112">
         <v>12</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="233">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -520,6 +520,15 @@
     <t>['7', '19', '32', '48', '82']</t>
   </si>
   <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['5', '18']</t>
+  </si>
+  <si>
+    <t>['21', '24', '29', '31', '39', '44', '63']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -584,9 +593,6 @@
   </si>
   <si>
     <t>['52', '58', '70']</t>
-  </si>
-  <si>
-    <t>['22']</t>
   </si>
   <si>
     <t>['45+1']</t>
@@ -692,6 +698,21 @@
   </si>
   <si>
     <t>['14', '78']</t>
+  </si>
+  <si>
+    <t>['62', '71']</t>
+  </si>
+  <si>
+    <t>['25', '70', '83']</t>
+  </si>
+  <si>
+    <t>['2', '11', '40', '73', '74']</t>
+  </si>
+  <si>
+    <t>['33', '69']</t>
+  </si>
+  <si>
+    <t>['10', '71']</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP112"/>
+  <dimension ref="A1:BP118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1312,7 +1333,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1390,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>0.3</v>
@@ -1518,7 +1539,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1596,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ3">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1724,7 +1745,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2008,10 +2029,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ5">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2136,7 +2157,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2217,7 +2238,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ6">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2423,7 +2444,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ7">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2626,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ8">
         <v>1.1</v>
@@ -2754,7 +2775,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2835,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR9">
         <v>1.59</v>
@@ -3166,7 +3187,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3244,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ11">
         <v>1.33</v>
@@ -3372,7 +3393,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3450,10 +3471,10 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3578,7 +3599,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3656,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>1.8</v>
@@ -3784,7 +3805,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4071,7 +4092,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ15">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4277,7 +4298,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ16">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR16">
         <v>1.91</v>
@@ -4480,7 +4501,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ17">
         <v>1.1</v>
@@ -4686,10 +4707,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR18">
         <v>1.22</v>
@@ -4892,10 +4913,10 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ19">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR19">
         <v>1.34</v>
@@ -5020,7 +5041,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5432,7 +5453,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5510,7 +5531,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5844,7 +5865,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5922,7 +5943,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>1.5</v>
@@ -6050,7 +6071,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -6256,7 +6277,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6337,7 +6358,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ26">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR26">
         <v>1.81</v>
@@ -6462,7 +6483,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -6540,10 +6561,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ27">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR27">
         <v>1.77</v>
@@ -6952,10 +6973,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR29">
         <v>1.93</v>
@@ -7080,7 +7101,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -7161,7 +7182,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR30">
         <v>1.46</v>
@@ -7286,7 +7307,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7364,7 +7385,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ31">
         <v>1.1</v>
@@ -7904,7 +7925,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7982,10 +8003,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ34">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR34">
         <v>0.86</v>
@@ -8394,7 +8415,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
         <v>1.5</v>
@@ -8522,7 +8543,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -8600,10 +8621,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR37">
         <v>1.1</v>
@@ -8809,7 +8830,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR38">
         <v>1.69</v>
@@ -9218,10 +9239,10 @@
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ40">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9346,7 +9367,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9552,7 +9573,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9633,7 +9654,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR42">
         <v>2.47</v>
@@ -9758,7 +9779,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9836,10 +9857,10 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ43">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR43">
         <v>0.99</v>
@@ -9964,7 +9985,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10042,7 +10063,7 @@
         <v>2.33</v>
       </c>
       <c r="AP44">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ44">
         <v>1.33</v>
@@ -10248,7 +10269,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ45">
         <v>1.8</v>
@@ -10376,7 +10397,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10457,7 +10478,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ46">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR46">
         <v>0.8100000000000001</v>
@@ -10582,7 +10603,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q47">
         <v>2.25</v>
@@ -10660,7 +10681,7 @@
         <v>1.25</v>
       </c>
       <c r="AP47">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -10788,7 +10809,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q48">
         <v>2.5</v>
@@ -11075,7 +11096,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ49">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR49">
         <v>2.19</v>
@@ -11200,7 +11221,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q50">
         <v>1.67</v>
@@ -11281,7 +11302,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ50">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR50">
         <v>3.27</v>
@@ -11406,7 +11427,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11484,7 +11505,7 @@
         <v>2.4</v>
       </c>
       <c r="AP51">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ51">
         <v>1.5</v>
@@ -11612,7 +11633,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12102,7 +12123,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ54">
         <v>0.3</v>
@@ -12230,7 +12251,7 @@
         <v>114</v>
       </c>
       <c r="P55" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12308,10 +12329,10 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR55">
         <v>1.83</v>
@@ -12436,7 +12457,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q56">
         <v>6.5</v>
@@ -12517,7 +12538,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR56">
         <v>1.7</v>
@@ -12642,7 +12663,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12723,7 +12744,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ57">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR57">
         <v>1.02</v>
@@ -12926,7 +12947,7 @@
         <v>1.75</v>
       </c>
       <c r="AP58">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
         <v>1.33</v>
@@ -13132,7 +13153,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ59">
         <v>0.3</v>
@@ -13260,7 +13281,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13338,10 +13359,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR60">
         <v>1.7</v>
@@ -13672,7 +13693,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13753,7 +13774,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ62">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR62">
         <v>1.49</v>
@@ -13878,7 +13899,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -13956,7 +13977,7 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ63">
         <v>1.8</v>
@@ -14084,7 +14105,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q64">
         <v>1.42</v>
@@ -14496,7 +14517,7 @@
         <v>85</v>
       </c>
       <c r="P66" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q66">
         <v>9</v>
@@ -14574,10 +14595,10 @@
         <v>2.6</v>
       </c>
       <c r="AP66">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ66">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR66">
         <v>0.96</v>
@@ -14780,10 +14801,10 @@
         <v>0.75</v>
       </c>
       <c r="AP67">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ67">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR67">
         <v>1.7</v>
@@ -14908,7 +14929,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q68">
         <v>2.5</v>
@@ -14986,7 +15007,7 @@
         <v>1.2</v>
       </c>
       <c r="AP68">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15114,7 +15135,7 @@
         <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15195,7 +15216,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR69">
         <v>1.56</v>
@@ -15607,7 +15628,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ71">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR71">
         <v>2.71</v>
@@ -15732,7 +15753,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -15810,7 +15831,7 @@
         <v>0.83</v>
       </c>
       <c r="AP72">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ72">
         <v>1.1</v>
@@ -16016,10 +16037,10 @@
         <v>2.67</v>
       </c>
       <c r="AP73">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ73">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR73">
         <v>1.22</v>
@@ -16144,7 +16165,7 @@
         <v>135</v>
       </c>
       <c r="P74" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q74">
         <v>1.73</v>
@@ -16222,7 +16243,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
         <v>0.3</v>
@@ -16350,7 +16371,7 @@
         <v>136</v>
       </c>
       <c r="P75" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -16431,7 +16452,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ75">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR75">
         <v>1.05</v>
@@ -16762,7 +16783,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -16840,7 +16861,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -16968,7 +16989,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17049,7 +17070,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ78">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR78">
         <v>1.99</v>
@@ -17174,7 +17195,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q79">
         <v>3.1</v>
@@ -17586,7 +17607,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q81">
         <v>19</v>
@@ -17664,10 +17685,10 @@
         <v>2.25</v>
       </c>
       <c r="AP81">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ81">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR81">
         <v>0.87</v>
@@ -17792,7 +17813,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q82">
         <v>1.5</v>
@@ -17870,10 +17891,10 @@
         <v>0.6</v>
       </c>
       <c r="AP82">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ82">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR82">
         <v>1.39</v>
@@ -17998,7 +18019,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18076,10 +18097,10 @@
         <v>2.4</v>
       </c>
       <c r="AP83">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ83">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR83">
         <v>1.47</v>
@@ -18204,7 +18225,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -18282,10 +18303,10 @@
         <v>2.5</v>
       </c>
       <c r="AP84">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ84">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR84">
         <v>1.66</v>
@@ -18488,10 +18509,10 @@
         <v>1.33</v>
       </c>
       <c r="AP85">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR85">
         <v>1.83</v>
@@ -18697,7 +18718,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ86">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR86">
         <v>1.32</v>
@@ -18900,7 +18921,7 @@
         <v>1.88</v>
       </c>
       <c r="AP87">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ87">
         <v>1.5</v>
@@ -19028,7 +19049,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19106,10 +19127,10 @@
         <v>2.43</v>
       </c>
       <c r="AP88">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ88">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR88">
         <v>1.4</v>
@@ -19440,7 +19461,7 @@
         <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q90">
         <v>4.75</v>
@@ -19518,7 +19539,7 @@
         <v>1.29</v>
       </c>
       <c r="AP90">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -19646,7 +19667,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19724,7 +19745,7 @@
         <v>1.29</v>
       </c>
       <c r="AP91">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ91">
         <v>1.33</v>
@@ -20139,7 +20160,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ93">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR93">
         <v>1.97</v>
@@ -20264,7 +20285,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20342,10 +20363,10 @@
         <v>1.29</v>
       </c>
       <c r="AP94">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ94">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR94">
         <v>1.18</v>
@@ -20551,7 +20572,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ95">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR95">
         <v>2.71</v>
@@ -20676,7 +20697,7 @@
         <v>153</v>
       </c>
       <c r="P96" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -20757,7 +20778,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ96">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR96">
         <v>1.34</v>
@@ -20882,7 +20903,7 @@
         <v>154</v>
       </c>
       <c r="P97" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q97">
         <v>1.73</v>
@@ -20963,7 +20984,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ97">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR97">
         <v>2.55</v>
@@ -21166,7 +21187,7 @@
         <v>0.38</v>
       </c>
       <c r="AP98">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ98">
         <v>0.3</v>
@@ -21375,7 +21396,7 @@
         <v>1</v>
       </c>
       <c r="AQ99">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR99">
         <v>1.69</v>
@@ -21581,7 +21602,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ100">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR100">
         <v>1.39</v>
@@ -21706,7 +21727,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q101">
         <v>3.4</v>
@@ -21784,7 +21805,7 @@
         <v>1.13</v>
       </c>
       <c r="AP101">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ101">
         <v>1.33</v>
@@ -21912,7 +21933,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22199,7 +22220,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ103">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR103">
         <v>1.93</v>
@@ -22324,7 +22345,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22402,7 +22423,7 @@
         <v>2.13</v>
       </c>
       <c r="AP104">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ104">
         <v>1.8</v>
@@ -22817,7 +22838,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ106">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR106">
         <v>1.31</v>
@@ -22942,7 +22963,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23020,7 +23041,7 @@
         <v>1.67</v>
       </c>
       <c r="AP107">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ107">
         <v>1.5</v>
@@ -23148,7 +23169,7 @@
         <v>163</v>
       </c>
       <c r="P108" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q108">
         <v>2.75</v>
@@ -23226,7 +23247,7 @@
         <v>1.38</v>
       </c>
       <c r="AP108">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ108">
         <v>1.1</v>
@@ -23432,10 +23453,10 @@
         <v>0.88</v>
       </c>
       <c r="AP109">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ109">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR109">
         <v>1.26</v>
@@ -23560,7 +23581,7 @@
         <v>165</v>
       </c>
       <c r="P110" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -23844,7 +23865,7 @@
         <v>2</v>
       </c>
       <c r="AP111">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ111">
         <v>1.8</v>
@@ -23972,7 +23993,7 @@
         <v>167</v>
       </c>
       <c r="P112" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q112">
         <v>1.4</v>
@@ -24053,7 +24074,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ112">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR112">
         <v>2.55</v>
@@ -24129,6 +24150,1242 @@
       </c>
       <c r="BP112">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7727612</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45652.39583333334</v>
+      </c>
+      <c r="F113">
+        <v>20</v>
+      </c>
+      <c r="G113" t="s">
+        <v>71</v>
+      </c>
+      <c r="H113" t="s">
+        <v>77</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>2</v>
+      </c>
+      <c r="N113">
+        <v>3</v>
+      </c>
+      <c r="O113" t="s">
+        <v>168</v>
+      </c>
+      <c r="P113" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q113">
+        <v>4.75</v>
+      </c>
+      <c r="R113">
+        <v>2.38</v>
+      </c>
+      <c r="S113">
+        <v>2.1</v>
+      </c>
+      <c r="T113">
+        <v>1.3</v>
+      </c>
+      <c r="U113">
+        <v>3.4</v>
+      </c>
+      <c r="V113">
+        <v>2.5</v>
+      </c>
+      <c r="W113">
+        <v>1.5</v>
+      </c>
+      <c r="X113">
+        <v>5.5</v>
+      </c>
+      <c r="Y113">
+        <v>1.13</v>
+      </c>
+      <c r="Z113">
+        <v>4.9</v>
+      </c>
+      <c r="AA113">
+        <v>4</v>
+      </c>
+      <c r="AB113">
+        <v>1.59</v>
+      </c>
+      <c r="AC113">
+        <v>1.01</v>
+      </c>
+      <c r="AD113">
+        <v>13</v>
+      </c>
+      <c r="AE113">
+        <v>1.14</v>
+      </c>
+      <c r="AF113">
+        <v>4.4</v>
+      </c>
+      <c r="AG113">
+        <v>1.68</v>
+      </c>
+      <c r="AH113">
+        <v>2.11</v>
+      </c>
+      <c r="AI113">
+        <v>1.67</v>
+      </c>
+      <c r="AJ113">
+        <v>2.1</v>
+      </c>
+      <c r="AK113">
+        <v>2.26</v>
+      </c>
+      <c r="AL113">
+        <v>1.18</v>
+      </c>
+      <c r="AM113">
+        <v>1.13</v>
+      </c>
+      <c r="AN113">
+        <v>1.89</v>
+      </c>
+      <c r="AO113">
+        <v>2.22</v>
+      </c>
+      <c r="AP113">
+        <v>1.7</v>
+      </c>
+      <c r="AQ113">
+        <v>2.3</v>
+      </c>
+      <c r="AR113">
+        <v>1.49</v>
+      </c>
+      <c r="AS113">
+        <v>1.7</v>
+      </c>
+      <c r="AT113">
+        <v>3.19</v>
+      </c>
+      <c r="AU113">
+        <v>3</v>
+      </c>
+      <c r="AV113">
+        <v>5</v>
+      </c>
+      <c r="AW113">
+        <v>8</v>
+      </c>
+      <c r="AX113">
+        <v>5</v>
+      </c>
+      <c r="AY113">
+        <v>11</v>
+      </c>
+      <c r="AZ113">
+        <v>10</v>
+      </c>
+      <c r="BA113">
+        <v>3</v>
+      </c>
+      <c r="BB113">
+        <v>4</v>
+      </c>
+      <c r="BC113">
+        <v>7</v>
+      </c>
+      <c r="BD113">
+        <v>0</v>
+      </c>
+      <c r="BE113">
+        <v>0</v>
+      </c>
+      <c r="BF113">
+        <v>0</v>
+      </c>
+      <c r="BG113">
+        <v>0</v>
+      </c>
+      <c r="BH113">
+        <v>0</v>
+      </c>
+      <c r="BI113">
+        <v>0</v>
+      </c>
+      <c r="BJ113">
+        <v>0</v>
+      </c>
+      <c r="BK113">
+        <v>0</v>
+      </c>
+      <c r="BL113">
+        <v>0</v>
+      </c>
+      <c r="BM113">
+        <v>0</v>
+      </c>
+      <c r="BN113">
+        <v>0</v>
+      </c>
+      <c r="BO113">
+        <v>0</v>
+      </c>
+      <c r="BP113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7727613</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45652.39583333334</v>
+      </c>
+      <c r="F114">
+        <v>20</v>
+      </c>
+      <c r="G114" t="s">
+        <v>76</v>
+      </c>
+      <c r="H114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>2</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>3</v>
+      </c>
+      <c r="N114">
+        <v>4</v>
+      </c>
+      <c r="O114" t="s">
+        <v>99</v>
+      </c>
+      <c r="P114" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q114">
+        <v>2</v>
+      </c>
+      <c r="R114">
+        <v>2.38</v>
+      </c>
+      <c r="S114">
+        <v>5</v>
+      </c>
+      <c r="T114">
+        <v>1.3</v>
+      </c>
+      <c r="U114">
+        <v>3.4</v>
+      </c>
+      <c r="V114">
+        <v>2.5</v>
+      </c>
+      <c r="W114">
+        <v>1.5</v>
+      </c>
+      <c r="X114">
+        <v>5.5</v>
+      </c>
+      <c r="Y114">
+        <v>1.13</v>
+      </c>
+      <c r="Z114">
+        <v>1.56</v>
+      </c>
+      <c r="AA114">
+        <v>4.1</v>
+      </c>
+      <c r="AB114">
+        <v>5.2</v>
+      </c>
+      <c r="AC114">
+        <v>1</v>
+      </c>
+      <c r="AD114">
+        <v>9.1</v>
+      </c>
+      <c r="AE114">
+        <v>1.18</v>
+      </c>
+      <c r="AF114">
+        <v>3.88</v>
+      </c>
+      <c r="AG114">
+        <v>1.65</v>
+      </c>
+      <c r="AH114">
+        <v>2.15</v>
+      </c>
+      <c r="AI114">
+        <v>1.73</v>
+      </c>
+      <c r="AJ114">
+        <v>2</v>
+      </c>
+      <c r="AK114">
+        <v>1.1</v>
+      </c>
+      <c r="AL114">
+        <v>1.17</v>
+      </c>
+      <c r="AM114">
+        <v>2.42</v>
+      </c>
+      <c r="AN114">
+        <v>1.78</v>
+      </c>
+      <c r="AO114">
+        <v>0.38</v>
+      </c>
+      <c r="AP114">
+        <v>1.6</v>
+      </c>
+      <c r="AQ114">
+        <v>0.67</v>
+      </c>
+      <c r="AR114">
+        <v>1.45</v>
+      </c>
+      <c r="AS114">
+        <v>1.3</v>
+      </c>
+      <c r="AT114">
+        <v>2.75</v>
+      </c>
+      <c r="AU114">
+        <v>4</v>
+      </c>
+      <c r="AV114">
+        <v>6</v>
+      </c>
+      <c r="AW114">
+        <v>10</v>
+      </c>
+      <c r="AX114">
+        <v>7</v>
+      </c>
+      <c r="AY114">
+        <v>14</v>
+      </c>
+      <c r="AZ114">
+        <v>13</v>
+      </c>
+      <c r="BA114">
+        <v>3</v>
+      </c>
+      <c r="BB114">
+        <v>3</v>
+      </c>
+      <c r="BC114">
+        <v>6</v>
+      </c>
+      <c r="BD114">
+        <v>1.36</v>
+      </c>
+      <c r="BE114">
+        <v>7.3</v>
+      </c>
+      <c r="BF114">
+        <v>4.05</v>
+      </c>
+      <c r="BG114">
+        <v>1.3</v>
+      </c>
+      <c r="BH114">
+        <v>3.32</v>
+      </c>
+      <c r="BI114">
+        <v>1.54</v>
+      </c>
+      <c r="BJ114">
+        <v>2.39</v>
+      </c>
+      <c r="BK114">
+        <v>1.92</v>
+      </c>
+      <c r="BL114">
+        <v>1.88</v>
+      </c>
+      <c r="BM114">
+        <v>2.4</v>
+      </c>
+      <c r="BN114">
+        <v>1.53</v>
+      </c>
+      <c r="BO114">
+        <v>3.22</v>
+      </c>
+      <c r="BP114">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7727614</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45652.47916666666</v>
+      </c>
+      <c r="F115">
+        <v>20</v>
+      </c>
+      <c r="G115" t="s">
+        <v>78</v>
+      </c>
+      <c r="H115" t="s">
+        <v>75</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115" t="s">
+        <v>85</v>
+      </c>
+      <c r="P115" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q115">
+        <v>5.5</v>
+      </c>
+      <c r="R115">
+        <v>2.3</v>
+      </c>
+      <c r="S115">
+        <v>2.05</v>
+      </c>
+      <c r="T115">
+        <v>1.36</v>
+      </c>
+      <c r="U115">
+        <v>3</v>
+      </c>
+      <c r="V115">
+        <v>2.63</v>
+      </c>
+      <c r="W115">
+        <v>1.44</v>
+      </c>
+      <c r="X115">
+        <v>6</v>
+      </c>
+      <c r="Y115">
+        <v>1.11</v>
+      </c>
+      <c r="Z115">
+        <v>5</v>
+      </c>
+      <c r="AA115">
+        <v>4.1</v>
+      </c>
+      <c r="AB115">
+        <v>1.5</v>
+      </c>
+      <c r="AC115">
+        <v>1.01</v>
+      </c>
+      <c r="AD115">
+        <v>11</v>
+      </c>
+      <c r="AE115">
+        <v>1.2</v>
+      </c>
+      <c r="AF115">
+        <v>3.72</v>
+      </c>
+      <c r="AG115">
+        <v>1.7</v>
+      </c>
+      <c r="AH115">
+        <v>2</v>
+      </c>
+      <c r="AI115">
+        <v>1.83</v>
+      </c>
+      <c r="AJ115">
+        <v>1.83</v>
+      </c>
+      <c r="AK115">
+        <v>2.45</v>
+      </c>
+      <c r="AL115">
+        <v>1.18</v>
+      </c>
+      <c r="AM115">
+        <v>1.09</v>
+      </c>
+      <c r="AN115">
+        <v>1.11</v>
+      </c>
+      <c r="AO115">
+        <v>1.22</v>
+      </c>
+      <c r="AP115">
+        <v>1.1</v>
+      </c>
+      <c r="AQ115">
+        <v>1.2</v>
+      </c>
+      <c r="AR115">
+        <v>1.04</v>
+      </c>
+      <c r="AS115">
+        <v>1.3</v>
+      </c>
+      <c r="AT115">
+        <v>2.34</v>
+      </c>
+      <c r="AU115">
+        <v>4</v>
+      </c>
+      <c r="AV115">
+        <v>6</v>
+      </c>
+      <c r="AW115">
+        <v>3</v>
+      </c>
+      <c r="AX115">
+        <v>11</v>
+      </c>
+      <c r="AY115">
+        <v>7</v>
+      </c>
+      <c r="AZ115">
+        <v>17</v>
+      </c>
+      <c r="BA115">
+        <v>5</v>
+      </c>
+      <c r="BB115">
+        <v>4</v>
+      </c>
+      <c r="BC115">
+        <v>9</v>
+      </c>
+      <c r="BD115">
+        <v>0</v>
+      </c>
+      <c r="BE115">
+        <v>0</v>
+      </c>
+      <c r="BF115">
+        <v>0</v>
+      </c>
+      <c r="BG115">
+        <v>0</v>
+      </c>
+      <c r="BH115">
+        <v>0</v>
+      </c>
+      <c r="BI115">
+        <v>0</v>
+      </c>
+      <c r="BJ115">
+        <v>0</v>
+      </c>
+      <c r="BK115">
+        <v>0</v>
+      </c>
+      <c r="BL115">
+        <v>0</v>
+      </c>
+      <c r="BM115">
+        <v>0</v>
+      </c>
+      <c r="BN115">
+        <v>0</v>
+      </c>
+      <c r="BO115">
+        <v>0</v>
+      </c>
+      <c r="BP115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7727615</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45652.47916666666</v>
+      </c>
+      <c r="F116">
+        <v>20</v>
+      </c>
+      <c r="G116" t="s">
+        <v>79</v>
+      </c>
+      <c r="H116" t="s">
+        <v>81</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116">
+        <v>3</v>
+      </c>
+      <c r="K116">
+        <v>5</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>5</v>
+      </c>
+      <c r="N116">
+        <v>7</v>
+      </c>
+      <c r="O116" t="s">
+        <v>169</v>
+      </c>
+      <c r="P116" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q116">
+        <v>6</v>
+      </c>
+      <c r="R116">
+        <v>2.6</v>
+      </c>
+      <c r="S116">
+        <v>1.8</v>
+      </c>
+      <c r="T116">
+        <v>1.25</v>
+      </c>
+      <c r="U116">
+        <v>3.75</v>
+      </c>
+      <c r="V116">
+        <v>2.1</v>
+      </c>
+      <c r="W116">
+        <v>1.67</v>
+      </c>
+      <c r="X116">
+        <v>4.33</v>
+      </c>
+      <c r="Y116">
+        <v>1.2</v>
+      </c>
+      <c r="Z116">
+        <v>6</v>
+      </c>
+      <c r="AA116">
+        <v>4.75</v>
+      </c>
+      <c r="AB116">
+        <v>1.36</v>
+      </c>
+      <c r="AC116">
+        <v>1.01</v>
+      </c>
+      <c r="AD116">
+        <v>19.5</v>
+      </c>
+      <c r="AE116">
+        <v>1.1</v>
+      </c>
+      <c r="AF116">
+        <v>5.1</v>
+      </c>
+      <c r="AG116">
+        <v>1.44</v>
+      </c>
+      <c r="AH116">
+        <v>2.63</v>
+      </c>
+      <c r="AI116">
+        <v>1.67</v>
+      </c>
+      <c r="AJ116">
+        <v>2.1</v>
+      </c>
+      <c r="AK116">
+        <v>2.83</v>
+      </c>
+      <c r="AL116">
+        <v>1.13</v>
+      </c>
+      <c r="AM116">
+        <v>1.07</v>
+      </c>
+      <c r="AN116">
+        <v>1.11</v>
+      </c>
+      <c r="AO116">
+        <v>2</v>
+      </c>
+      <c r="AP116">
+        <v>1</v>
+      </c>
+      <c r="AQ116">
+        <v>2.1</v>
+      </c>
+      <c r="AR116">
+        <v>1.4</v>
+      </c>
+      <c r="AS116">
+        <v>2.24</v>
+      </c>
+      <c r="AT116">
+        <v>3.64</v>
+      </c>
+      <c r="AU116">
+        <v>5</v>
+      </c>
+      <c r="AV116">
+        <v>11</v>
+      </c>
+      <c r="AW116">
+        <v>3</v>
+      </c>
+      <c r="AX116">
+        <v>6</v>
+      </c>
+      <c r="AY116">
+        <v>8</v>
+      </c>
+      <c r="AZ116">
+        <v>17</v>
+      </c>
+      <c r="BA116">
+        <v>6</v>
+      </c>
+      <c r="BB116">
+        <v>6</v>
+      </c>
+      <c r="BC116">
+        <v>12</v>
+      </c>
+      <c r="BD116">
+        <v>6.5</v>
+      </c>
+      <c r="BE116">
+        <v>12.25</v>
+      </c>
+      <c r="BF116">
+        <v>1.13</v>
+      </c>
+      <c r="BG116">
+        <v>1.21</v>
+      </c>
+      <c r="BH116">
+        <v>4.15</v>
+      </c>
+      <c r="BI116">
+        <v>1.33</v>
+      </c>
+      <c r="BJ116">
+        <v>2.83</v>
+      </c>
+      <c r="BK116">
+        <v>1.59</v>
+      </c>
+      <c r="BL116">
+        <v>2.1</v>
+      </c>
+      <c r="BM116">
+        <v>2.05</v>
+      </c>
+      <c r="BN116">
+        <v>1.7</v>
+      </c>
+      <c r="BO116">
+        <v>2.56</v>
+      </c>
+      <c r="BP116">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7727616</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45652.47916666666</v>
+      </c>
+      <c r="F117">
+        <v>20</v>
+      </c>
+      <c r="G117" t="s">
+        <v>73</v>
+      </c>
+      <c r="H117" t="s">
+        <v>72</v>
+      </c>
+      <c r="I117">
+        <v>6</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>7</v>
+      </c>
+      <c r="L117">
+        <v>7</v>
+      </c>
+      <c r="M117">
+        <v>2</v>
+      </c>
+      <c r="N117">
+        <v>9</v>
+      </c>
+      <c r="O117" t="s">
+        <v>170</v>
+      </c>
+      <c r="P117" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q117">
+        <v>2.1</v>
+      </c>
+      <c r="R117">
+        <v>2.25</v>
+      </c>
+      <c r="S117">
+        <v>5</v>
+      </c>
+      <c r="T117">
+        <v>1.36</v>
+      </c>
+      <c r="U117">
+        <v>3</v>
+      </c>
+      <c r="V117">
+        <v>2.63</v>
+      </c>
+      <c r="W117">
+        <v>1.44</v>
+      </c>
+      <c r="X117">
+        <v>6.5</v>
+      </c>
+      <c r="Y117">
+        <v>1.1</v>
+      </c>
+      <c r="Z117">
+        <v>1.55</v>
+      </c>
+      <c r="AA117">
+        <v>3.75</v>
+      </c>
+      <c r="AB117">
+        <v>4.75</v>
+      </c>
+      <c r="AC117">
+        <v>1.01</v>
+      </c>
+      <c r="AD117">
+        <v>11</v>
+      </c>
+      <c r="AE117">
+        <v>1.21</v>
+      </c>
+      <c r="AF117">
+        <v>3.58</v>
+      </c>
+      <c r="AG117">
+        <v>1.75</v>
+      </c>
+      <c r="AH117">
+        <v>1.95</v>
+      </c>
+      <c r="AI117">
+        <v>1.83</v>
+      </c>
+      <c r="AJ117">
+        <v>1.83</v>
+      </c>
+      <c r="AK117">
+        <v>1.11</v>
+      </c>
+      <c r="AL117">
+        <v>1.19</v>
+      </c>
+      <c r="AM117">
+        <v>2.29</v>
+      </c>
+      <c r="AN117">
+        <v>1.22</v>
+      </c>
+      <c r="AO117">
+        <v>0.78</v>
+      </c>
+      <c r="AP117">
+        <v>1.4</v>
+      </c>
+      <c r="AQ117">
+        <v>0.7</v>
+      </c>
+      <c r="AR117">
+        <v>1.49</v>
+      </c>
+      <c r="AS117">
+        <v>1.5</v>
+      </c>
+      <c r="AT117">
+        <v>2.99</v>
+      </c>
+      <c r="AU117">
+        <v>10</v>
+      </c>
+      <c r="AV117">
+        <v>4</v>
+      </c>
+      <c r="AW117">
+        <v>2</v>
+      </c>
+      <c r="AX117">
+        <v>5</v>
+      </c>
+      <c r="AY117">
+        <v>12</v>
+      </c>
+      <c r="AZ117">
+        <v>9</v>
+      </c>
+      <c r="BA117">
+        <v>3</v>
+      </c>
+      <c r="BB117">
+        <v>4</v>
+      </c>
+      <c r="BC117">
+        <v>7</v>
+      </c>
+      <c r="BD117">
+        <v>1.32</v>
+      </c>
+      <c r="BE117">
+        <v>7.7</v>
+      </c>
+      <c r="BF117">
+        <v>4.33</v>
+      </c>
+      <c r="BG117">
+        <v>1.22</v>
+      </c>
+      <c r="BH117">
+        <v>4.05</v>
+      </c>
+      <c r="BI117">
+        <v>1.41</v>
+      </c>
+      <c r="BJ117">
+        <v>2.8</v>
+      </c>
+      <c r="BK117">
+        <v>1.67</v>
+      </c>
+      <c r="BL117">
+        <v>2.13</v>
+      </c>
+      <c r="BM117">
+        <v>1.9</v>
+      </c>
+      <c r="BN117">
+        <v>1.9</v>
+      </c>
+      <c r="BO117">
+        <v>2.65</v>
+      </c>
+      <c r="BP117">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7727617</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45652.47916666666</v>
+      </c>
+      <c r="F118">
+        <v>20</v>
+      </c>
+      <c r="G118" t="s">
+        <v>70</v>
+      </c>
+      <c r="H118" t="s">
+        <v>80</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118" t="s">
+        <v>85</v>
+      </c>
+      <c r="P118" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q118">
+        <v>3.75</v>
+      </c>
+      <c r="R118">
+        <v>2.1</v>
+      </c>
+      <c r="S118">
+        <v>2.75</v>
+      </c>
+      <c r="T118">
+        <v>1.4</v>
+      </c>
+      <c r="U118">
+        <v>2.75</v>
+      </c>
+      <c r="V118">
+        <v>3</v>
+      </c>
+      <c r="W118">
+        <v>1.36</v>
+      </c>
+      <c r="X118">
+        <v>7</v>
+      </c>
+      <c r="Y118">
+        <v>1.08</v>
+      </c>
+      <c r="Z118">
+        <v>3.4</v>
+      </c>
+      <c r="AA118">
+        <v>3.4</v>
+      </c>
+      <c r="AB118">
+        <v>1.9</v>
+      </c>
+      <c r="AC118">
+        <v>1.01</v>
+      </c>
+      <c r="AD118">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE118">
+        <v>1.26</v>
+      </c>
+      <c r="AF118">
+        <v>3.22</v>
+      </c>
+      <c r="AG118">
+        <v>1.9</v>
+      </c>
+      <c r="AH118">
+        <v>1.8</v>
+      </c>
+      <c r="AI118">
+        <v>1.8</v>
+      </c>
+      <c r="AJ118">
+        <v>1.91</v>
+      </c>
+      <c r="AK118">
+        <v>1.64</v>
+      </c>
+      <c r="AL118">
+        <v>1.27</v>
+      </c>
+      <c r="AM118">
+        <v>1.29</v>
+      </c>
+      <c r="AN118">
+        <v>1.11</v>
+      </c>
+      <c r="AO118">
+        <v>1.78</v>
+      </c>
+      <c r="AP118">
+        <v>1</v>
+      </c>
+      <c r="AQ118">
+        <v>1.9</v>
+      </c>
+      <c r="AR118">
+        <v>1.68</v>
+      </c>
+      <c r="AS118">
+        <v>1.33</v>
+      </c>
+      <c r="AT118">
+        <v>3.01</v>
+      </c>
+      <c r="AU118">
+        <v>0</v>
+      </c>
+      <c r="AV118">
+        <v>6</v>
+      </c>
+      <c r="AW118">
+        <v>8</v>
+      </c>
+      <c r="AX118">
+        <v>4</v>
+      </c>
+      <c r="AY118">
+        <v>8</v>
+      </c>
+      <c r="AZ118">
+        <v>10</v>
+      </c>
+      <c r="BA118">
+        <v>4</v>
+      </c>
+      <c r="BB118">
+        <v>3</v>
+      </c>
+      <c r="BC118">
+        <v>7</v>
+      </c>
+      <c r="BD118">
+        <v>2.96</v>
+      </c>
+      <c r="BE118">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF118">
+        <v>1.52</v>
+      </c>
+      <c r="BG118">
+        <v>1.4</v>
+      </c>
+      <c r="BH118">
+        <v>2.8</v>
+      </c>
+      <c r="BI118">
+        <v>1.68</v>
+      </c>
+      <c r="BJ118">
+        <v>2.11</v>
+      </c>
+      <c r="BK118">
+        <v>2.12</v>
+      </c>
+      <c r="BL118">
+        <v>1.67</v>
+      </c>
+      <c r="BM118">
+        <v>2.77</v>
+      </c>
+      <c r="BN118">
+        <v>1.41</v>
+      </c>
+      <c r="BO118">
+        <v>3.85</v>
+      </c>
+      <c r="BP118">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -24498,7 +24498,7 @@
         <v>2.75</v>
       </c>
       <c r="AU114">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV114">
         <v>6</v>
@@ -24510,7 +24510,7 @@
         <v>7</v>
       </c>
       <c r="AY114">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ114">
         <v>13</v>
@@ -24704,7 +24704,7 @@
         <v>2.34</v>
       </c>
       <c r="AU115">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV115">
         <v>6</v>
@@ -24716,10 +24716,10 @@
         <v>11</v>
       </c>
       <c r="AY115">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ115">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="BA115">
         <v>5</v>
@@ -24913,7 +24913,7 @@
         <v>5</v>
       </c>
       <c r="AV116">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW116">
         <v>3</v>
@@ -24922,10 +24922,10 @@
         <v>6</v>
       </c>
       <c r="AY116">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ116">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="BA116">
         <v>6</v>
@@ -25116,10 +25116,10 @@
         <v>2.99</v>
       </c>
       <c r="AU117">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV117">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW117">
         <v>2</v>
@@ -25128,10 +25128,10 @@
         <v>5</v>
       </c>
       <c r="AY117">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ117">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BA117">
         <v>3</v>
@@ -25322,22 +25322,22 @@
         <v>3.01</v>
       </c>
       <c r="AU118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV118">
         <v>6</v>
       </c>
       <c r="AW118">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX118">
         <v>4</v>
       </c>
       <c r="AY118">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ118">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA118">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -24307,7 +24307,7 @@
         <v>11</v>
       </c>
       <c r="AZ113">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA113">
         <v>3</v>
@@ -24922,7 +24922,7 @@
         <v>6</v>
       </c>
       <c r="AY116">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ116">
         <v>23</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="237">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,6 +529,15 @@
     <t>['21', '24', '29', '31', '39', '44', '63']</t>
   </si>
   <si>
+    <t>['27', '36']</t>
+  </si>
+  <si>
+    <t>['15', '47']</t>
+  </si>
+  <si>
+    <t>['53', '87']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -713,6 +722,9 @@
   </si>
   <si>
     <t>['10', '71']</t>
+  </si>
+  <si>
+    <t>['63', '70']</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP118"/>
+  <dimension ref="A1:BP123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1333,7 +1345,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1414,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1539,7 +1551,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1745,7 +1757,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1823,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2157,7 +2169,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2235,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ6">
         <v>2.3</v>
@@ -2650,7 +2662,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ8">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2775,7 +2787,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2853,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ9">
         <v>2.1</v>
@@ -3059,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3187,7 +3199,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3268,7 +3280,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3393,7 +3405,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3599,7 +3611,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3805,7 +3817,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -3883,10 +3895,10 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR14">
         <v>0.82</v>
@@ -4089,7 +4101,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ15">
         <v>2.3</v>
@@ -4504,7 +4516,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ17">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR17">
         <v>0.68</v>
@@ -5041,7 +5053,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5119,10 +5131,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ20">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR20">
         <v>1.46</v>
@@ -5325,10 +5337,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ21">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR21">
         <v>1.58</v>
@@ -5453,7 +5465,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5534,7 +5546,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR22">
         <v>1.28</v>
@@ -5737,10 +5749,10 @@
         <v>2</v>
       </c>
       <c r="AP23">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR23">
         <v>1.19</v>
@@ -5865,7 +5877,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5946,7 +5958,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR24">
         <v>1.08</v>
@@ -6071,7 +6083,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -6149,10 +6161,10 @@
         <v>2</v>
       </c>
       <c r="AP25">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR25">
         <v>0.89</v>
@@ -6277,7 +6289,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6483,7 +6495,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -6767,10 +6779,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ28">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7101,7 +7113,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -7179,7 +7191,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ30">
         <v>2.1</v>
@@ -7307,7 +7319,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7388,7 +7400,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ31">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR31">
         <v>1.41</v>
@@ -7591,7 +7603,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ32">
         <v>1.8</v>
@@ -7800,7 +7812,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR33">
         <v>1.47</v>
@@ -7925,7 +7937,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8212,7 +8224,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ35">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR35">
         <v>1.37</v>
@@ -8418,7 +8430,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR36">
         <v>1.94</v>
@@ -8543,7 +8555,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -8827,7 +8839,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ38">
         <v>1.9</v>
@@ -9033,10 +9045,10 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ39">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR39">
         <v>3.26</v>
@@ -9367,7 +9379,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9448,7 +9460,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR41">
         <v>1.52</v>
@@ -9573,7 +9585,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9651,7 +9663,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ42">
         <v>2.1</v>
@@ -9779,7 +9791,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10066,7 +10078,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ44">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR44">
         <v>1.05</v>
@@ -10397,7 +10409,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10475,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ46">
         <v>0.7</v>
@@ -10603,7 +10615,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q47">
         <v>2.25</v>
@@ -10684,7 +10696,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR47">
         <v>1.34</v>
@@ -10809,7 +10821,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q48">
         <v>2.5</v>
@@ -10887,10 +10899,10 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ48">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR48">
         <v>1.21</v>
@@ -11093,7 +11105,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ49">
         <v>0.67</v>
@@ -11221,7 +11233,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q50">
         <v>1.67</v>
@@ -11299,7 +11311,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ50">
         <v>1.2</v>
@@ -11427,7 +11439,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11508,7 +11520,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ51">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR51">
         <v>0.9399999999999999</v>
@@ -11633,7 +11645,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11711,7 +11723,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ52">
         <v>1.8</v>
@@ -11917,10 +11929,10 @@
         <v>2.5</v>
       </c>
       <c r="AP53">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ53">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR53">
         <v>1.17</v>
@@ -12126,7 +12138,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ54">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR54">
         <v>1.67</v>
@@ -12251,7 +12263,7 @@
         <v>114</v>
       </c>
       <c r="P55" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12457,7 +12469,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q56">
         <v>6.5</v>
@@ -12535,7 +12547,7 @@
         <v>2.5</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ56">
         <v>2.3</v>
@@ -12663,7 +12675,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12741,7 +12753,7 @@
         <v>1.67</v>
       </c>
       <c r="AP57">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ57">
         <v>1.2</v>
@@ -12950,7 +12962,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR58">
         <v>1.13</v>
@@ -13156,7 +13168,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ59">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR59">
         <v>1.28</v>
@@ -13281,7 +13293,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13565,10 +13577,10 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ61">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR61">
         <v>2.07</v>
@@ -13693,7 +13705,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13899,7 +13911,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -14105,7 +14117,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q64">
         <v>1.42</v>
@@ -14183,7 +14195,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ64">
         <v>1.8</v>
@@ -14389,10 +14401,10 @@
         <v>1.4</v>
       </c>
       <c r="AP65">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ65">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR65">
         <v>1.25</v>
@@ -14517,7 +14529,7 @@
         <v>85</v>
       </c>
       <c r="P66" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q66">
         <v>9</v>
@@ -14929,7 +14941,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q68">
         <v>2.5</v>
@@ -15010,7 +15022,7 @@
         <v>1</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR68">
         <v>1.2</v>
@@ -15135,7 +15147,7 @@
         <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15213,7 +15225,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ69">
         <v>1.2</v>
@@ -15419,10 +15431,10 @@
         <v>2.14</v>
       </c>
       <c r="AP70">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR70">
         <v>2.85</v>
@@ -15625,7 +15637,7 @@
         <v>1.4</v>
       </c>
       <c r="AP71">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ71">
         <v>0.7</v>
@@ -15753,7 +15765,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -15834,7 +15846,7 @@
         <v>1</v>
       </c>
       <c r="AQ72">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR72">
         <v>1.8</v>
@@ -16165,7 +16177,7 @@
         <v>135</v>
       </c>
       <c r="P74" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q74">
         <v>1.73</v>
@@ -16246,7 +16258,7 @@
         <v>1</v>
       </c>
       <c r="AQ74">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR74">
         <v>1.35</v>
@@ -16371,7 +16383,7 @@
         <v>136</v>
       </c>
       <c r="P75" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -16449,7 +16461,7 @@
         <v>2.17</v>
       </c>
       <c r="AP75">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ75">
         <v>1.9</v>
@@ -16658,7 +16670,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ76">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR76">
         <v>1.39</v>
@@ -16783,7 +16795,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -16864,7 +16876,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR77">
         <v>1.29</v>
@@ -16989,7 +17001,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17067,7 +17079,7 @@
         <v>1.4</v>
       </c>
       <c r="AP78">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ78">
         <v>1.2</v>
@@ -17195,7 +17207,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q79">
         <v>3.1</v>
@@ -17273,10 +17285,10 @@
         <v>1.14</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ79">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR79">
         <v>1.54</v>
@@ -17479,7 +17491,7 @@
         <v>2.17</v>
       </c>
       <c r="AP80">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ80">
         <v>1.8</v>
@@ -17607,7 +17619,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q81">
         <v>19</v>
@@ -17813,7 +17825,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q82">
         <v>1.5</v>
@@ -18019,7 +18031,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18225,7 +18237,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -18715,7 +18727,7 @@
         <v>1.17</v>
       </c>
       <c r="AP86">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ86">
         <v>0.7</v>
@@ -18924,7 +18936,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ87">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR87">
         <v>1.39</v>
@@ -19049,7 +19061,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19333,10 +19345,10 @@
         <v>0.43</v>
       </c>
       <c r="AP89">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ89">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR89">
         <v>1.09</v>
@@ -19461,7 +19473,7 @@
         <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q90">
         <v>4.75</v>
@@ -19542,7 +19554,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR90">
         <v>0.87</v>
@@ -19667,7 +19679,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19748,7 +19760,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ91">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR91">
         <v>1.58</v>
@@ -19951,7 +19963,7 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ92">
         <v>1.8</v>
@@ -20157,7 +20169,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ93">
         <v>0.7</v>
@@ -20285,7 +20297,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20569,7 +20581,7 @@
         <v>2.29</v>
       </c>
       <c r="AP95">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ95">
         <v>1.9</v>
@@ -20697,7 +20709,7 @@
         <v>153</v>
       </c>
       <c r="P96" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -20775,7 +20787,7 @@
         <v>2.57</v>
       </c>
       <c r="AP96">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ96">
         <v>2.1</v>
@@ -20903,7 +20915,7 @@
         <v>154</v>
       </c>
       <c r="P97" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q97">
         <v>1.73</v>
@@ -20981,7 +20993,7 @@
         <v>2.5</v>
       </c>
       <c r="AP97">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ97">
         <v>2.3</v>
@@ -21190,7 +21202,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ98">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR98">
         <v>1.22</v>
@@ -21393,7 +21405,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ99">
         <v>0.67</v>
@@ -21599,7 +21611,7 @@
         <v>1.25</v>
       </c>
       <c r="AP100">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ100">
         <v>1.2</v>
@@ -21727,7 +21739,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q101">
         <v>3.4</v>
@@ -21808,7 +21820,7 @@
         <v>1</v>
       </c>
       <c r="AQ101">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR101">
         <v>1.77</v>
@@ -21933,7 +21945,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22011,10 +22023,10 @@
         <v>1.13</v>
       </c>
       <c r="AP102">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR102">
         <v>1.32</v>
@@ -22217,7 +22229,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ103">
         <v>1.9</v>
@@ -22345,7 +22357,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22629,10 +22641,10 @@
         <v>0.33</v>
       </c>
       <c r="AP105">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ105">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR105">
         <v>1.69</v>
@@ -22963,7 +22975,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23044,7 +23056,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ107">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR107">
         <v>1.55</v>
@@ -23169,7 +23181,7 @@
         <v>163</v>
       </c>
       <c r="P108" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q108">
         <v>2.75</v>
@@ -23250,7 +23262,7 @@
         <v>1</v>
       </c>
       <c r="AQ108">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR108">
         <v>1.33</v>
@@ -23581,7 +23593,7 @@
         <v>165</v>
       </c>
       <c r="P110" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -23662,7 +23674,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ110">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR110">
         <v>1.27</v>
@@ -23993,7 +24005,7 @@
         <v>167</v>
       </c>
       <c r="P112" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q112">
         <v>1.4</v>
@@ -24071,7 +24083,7 @@
         <v>0.43</v>
       </c>
       <c r="AP112">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ112">
         <v>0.67</v>
@@ -24199,7 +24211,7 @@
         <v>168</v>
       </c>
       <c r="P113" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q113">
         <v>4.75</v>
@@ -24405,7 +24417,7 @@
         <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -24817,7 +24829,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -25023,7 +25035,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25229,7 +25241,7 @@
         <v>85</v>
       </c>
       <c r="P118" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25386,6 +25398,1036 @@
       </c>
       <c r="BP118">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7727619</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45657.39583333334</v>
+      </c>
+      <c r="F119">
+        <v>21</v>
+      </c>
+      <c r="G119" t="s">
+        <v>74</v>
+      </c>
+      <c r="H119" t="s">
+        <v>71</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119" t="s">
+        <v>85</v>
+      </c>
+      <c r="P119" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q119">
+        <v>3.6</v>
+      </c>
+      <c r="R119">
+        <v>2.38</v>
+      </c>
+      <c r="S119">
+        <v>2.4</v>
+      </c>
+      <c r="T119">
+        <v>1.29</v>
+      </c>
+      <c r="U119">
+        <v>3.5</v>
+      </c>
+      <c r="V119">
+        <v>2.38</v>
+      </c>
+      <c r="W119">
+        <v>1.53</v>
+      </c>
+      <c r="X119">
+        <v>5</v>
+      </c>
+      <c r="Y119">
+        <v>1.14</v>
+      </c>
+      <c r="Z119">
+        <v>3.2</v>
+      </c>
+      <c r="AA119">
+        <v>3.6</v>
+      </c>
+      <c r="AB119">
+        <v>1.95</v>
+      </c>
+      <c r="AC119">
+        <v>1.01</v>
+      </c>
+      <c r="AD119">
+        <v>15</v>
+      </c>
+      <c r="AE119">
+        <v>1.17</v>
+      </c>
+      <c r="AF119">
+        <v>4.7</v>
+      </c>
+      <c r="AG119">
+        <v>1.53</v>
+      </c>
+      <c r="AH119">
+        <v>2.35</v>
+      </c>
+      <c r="AI119">
+        <v>1.53</v>
+      </c>
+      <c r="AJ119">
+        <v>2.38</v>
+      </c>
+      <c r="AK119">
+        <v>1.78</v>
+      </c>
+      <c r="AL119">
+        <v>1.25</v>
+      </c>
+      <c r="AM119">
+        <v>1.31</v>
+      </c>
+      <c r="AN119">
+        <v>1.1</v>
+      </c>
+      <c r="AO119">
+        <v>1.1</v>
+      </c>
+      <c r="AP119">
+        <v>1.09</v>
+      </c>
+      <c r="AQ119">
+        <v>1.09</v>
+      </c>
+      <c r="AR119">
+        <v>1.37</v>
+      </c>
+      <c r="AS119">
+        <v>1.41</v>
+      </c>
+      <c r="AT119">
+        <v>2.78</v>
+      </c>
+      <c r="AU119">
+        <v>7</v>
+      </c>
+      <c r="AV119">
+        <v>9</v>
+      </c>
+      <c r="AW119">
+        <v>4</v>
+      </c>
+      <c r="AX119">
+        <v>3</v>
+      </c>
+      <c r="AY119">
+        <v>11</v>
+      </c>
+      <c r="AZ119">
+        <v>12</v>
+      </c>
+      <c r="BA119">
+        <v>3</v>
+      </c>
+      <c r="BB119">
+        <v>6</v>
+      </c>
+      <c r="BC119">
+        <v>9</v>
+      </c>
+      <c r="BD119">
+        <v>2.21</v>
+      </c>
+      <c r="BE119">
+        <v>6.35</v>
+      </c>
+      <c r="BF119">
+        <v>1.97</v>
+      </c>
+      <c r="BG119">
+        <v>1.18</v>
+      </c>
+      <c r="BH119">
+        <v>3.88</v>
+      </c>
+      <c r="BI119">
+        <v>1.36</v>
+      </c>
+      <c r="BJ119">
+        <v>2.69</v>
+      </c>
+      <c r="BK119">
+        <v>1.71</v>
+      </c>
+      <c r="BL119">
+        <v>2.03</v>
+      </c>
+      <c r="BM119">
+        <v>2.13</v>
+      </c>
+      <c r="BN119">
+        <v>1.64</v>
+      </c>
+      <c r="BO119">
+        <v>2.74</v>
+      </c>
+      <c r="BP119">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7727620</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45657.47916666666</v>
+      </c>
+      <c r="F120">
+        <v>21</v>
+      </c>
+      <c r="G120" t="s">
+        <v>81</v>
+      </c>
+      <c r="H120" t="s">
+        <v>73</v>
+      </c>
+      <c r="I120">
+        <v>2</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>3</v>
+      </c>
+      <c r="L120">
+        <v>2</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>3</v>
+      </c>
+      <c r="O120" t="s">
+        <v>171</v>
+      </c>
+      <c r="P120" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q120">
+        <v>1.44</v>
+      </c>
+      <c r="R120">
+        <v>3.1</v>
+      </c>
+      <c r="S120">
+        <v>11</v>
+      </c>
+      <c r="T120">
+        <v>1.2</v>
+      </c>
+      <c r="U120">
+        <v>4.33</v>
+      </c>
+      <c r="V120">
+        <v>1.91</v>
+      </c>
+      <c r="W120">
+        <v>1.8</v>
+      </c>
+      <c r="X120">
+        <v>4</v>
+      </c>
+      <c r="Y120">
+        <v>1.22</v>
+      </c>
+      <c r="Z120">
+        <v>1.13</v>
+      </c>
+      <c r="AA120">
+        <v>7.5</v>
+      </c>
+      <c r="AB120">
+        <v>14</v>
+      </c>
+      <c r="AC120">
+        <v>1.01</v>
+      </c>
+      <c r="AD120">
+        <v>11</v>
+      </c>
+      <c r="AE120">
+        <v>1.06</v>
+      </c>
+      <c r="AF120">
+        <v>6.1</v>
+      </c>
+      <c r="AG120">
+        <v>1.33</v>
+      </c>
+      <c r="AH120">
+        <v>3.25</v>
+      </c>
+      <c r="AI120">
+        <v>2.2</v>
+      </c>
+      <c r="AJ120">
+        <v>1.62</v>
+      </c>
+      <c r="AK120">
+        <v>1.02</v>
+      </c>
+      <c r="AL120">
+        <v>1.05</v>
+      </c>
+      <c r="AM120">
+        <v>4</v>
+      </c>
+      <c r="AN120">
+        <v>2.33</v>
+      </c>
+      <c r="AO120">
+        <v>1.33</v>
+      </c>
+      <c r="AP120">
+        <v>2.4</v>
+      </c>
+      <c r="AQ120">
+        <v>1.2</v>
+      </c>
+      <c r="AR120">
+        <v>2.7</v>
+      </c>
+      <c r="AS120">
+        <v>1.51</v>
+      </c>
+      <c r="AT120">
+        <v>4.21</v>
+      </c>
+      <c r="AU120">
+        <v>4</v>
+      </c>
+      <c r="AV120">
+        <v>3</v>
+      </c>
+      <c r="AW120">
+        <v>12</v>
+      </c>
+      <c r="AX120">
+        <v>4</v>
+      </c>
+      <c r="AY120">
+        <v>16</v>
+      </c>
+      <c r="AZ120">
+        <v>7</v>
+      </c>
+      <c r="BA120">
+        <v>7</v>
+      </c>
+      <c r="BB120">
+        <v>5</v>
+      </c>
+      <c r="BC120">
+        <v>12</v>
+      </c>
+      <c r="BD120">
+        <v>1.07</v>
+      </c>
+      <c r="BE120">
+        <v>11.75</v>
+      </c>
+      <c r="BF120">
+        <v>10.25</v>
+      </c>
+      <c r="BG120">
+        <v>1.17</v>
+      </c>
+      <c r="BH120">
+        <v>3.98</v>
+      </c>
+      <c r="BI120">
+        <v>1.35</v>
+      </c>
+      <c r="BJ120">
+        <v>2.74</v>
+      </c>
+      <c r="BK120">
+        <v>1.69</v>
+      </c>
+      <c r="BL120">
+        <v>2.07</v>
+      </c>
+      <c r="BM120">
+        <v>2.13</v>
+      </c>
+      <c r="BN120">
+        <v>1.65</v>
+      </c>
+      <c r="BO120">
+        <v>2.69</v>
+      </c>
+      <c r="BP120">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7727621</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45657.61458333334</v>
+      </c>
+      <c r="F121">
+        <v>21</v>
+      </c>
+      <c r="G121" t="s">
+        <v>77</v>
+      </c>
+      <c r="H121" t="s">
+        <v>76</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>2</v>
+      </c>
+      <c r="M121">
+        <v>2</v>
+      </c>
+      <c r="N121">
+        <v>4</v>
+      </c>
+      <c r="O121" t="s">
+        <v>172</v>
+      </c>
+      <c r="P121" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q121">
+        <v>2.1</v>
+      </c>
+      <c r="R121">
+        <v>2.2</v>
+      </c>
+      <c r="S121">
+        <v>5.5</v>
+      </c>
+      <c r="T121">
+        <v>1.36</v>
+      </c>
+      <c r="U121">
+        <v>3</v>
+      </c>
+      <c r="V121">
+        <v>2.75</v>
+      </c>
+      <c r="W121">
+        <v>1.4</v>
+      </c>
+      <c r="X121">
+        <v>6.5</v>
+      </c>
+      <c r="Y121">
+        <v>1.1</v>
+      </c>
+      <c r="Z121">
+        <v>1.4</v>
+      </c>
+      <c r="AA121">
+        <v>4.56</v>
+      </c>
+      <c r="AB121">
+        <v>5.73</v>
+      </c>
+      <c r="AC121">
+        <v>1</v>
+      </c>
+      <c r="AD121">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE121">
+        <v>1.27</v>
+      </c>
+      <c r="AF121">
+        <v>3.55</v>
+      </c>
+      <c r="AG121">
+        <v>1.82</v>
+      </c>
+      <c r="AH121">
+        <v>1.94</v>
+      </c>
+      <c r="AI121">
+        <v>2</v>
+      </c>
+      <c r="AJ121">
+        <v>1.73</v>
+      </c>
+      <c r="AK121">
+        <v>1.14</v>
+      </c>
+      <c r="AL121">
+        <v>1.19</v>
+      </c>
+      <c r="AM121">
+        <v>2.16</v>
+      </c>
+      <c r="AN121">
+        <v>2.22</v>
+      </c>
+      <c r="AO121">
+        <v>1.5</v>
+      </c>
+      <c r="AP121">
+        <v>2.1</v>
+      </c>
+      <c r="AQ121">
+        <v>1.45</v>
+      </c>
+      <c r="AR121">
+        <v>1.88</v>
+      </c>
+      <c r="AS121">
+        <v>1.32</v>
+      </c>
+      <c r="AT121">
+        <v>3.2</v>
+      </c>
+      <c r="AU121">
+        <v>4</v>
+      </c>
+      <c r="AV121">
+        <v>6</v>
+      </c>
+      <c r="AW121">
+        <v>4</v>
+      </c>
+      <c r="AX121">
+        <v>6</v>
+      </c>
+      <c r="AY121">
+        <v>8</v>
+      </c>
+      <c r="AZ121">
+        <v>12</v>
+      </c>
+      <c r="BA121">
+        <v>1</v>
+      </c>
+      <c r="BB121">
+        <v>6</v>
+      </c>
+      <c r="BC121">
+        <v>7</v>
+      </c>
+      <c r="BD121">
+        <v>1.18</v>
+      </c>
+      <c r="BE121">
+        <v>8.9</v>
+      </c>
+      <c r="BF121">
+        <v>6.45</v>
+      </c>
+      <c r="BG121">
+        <v>1.39</v>
+      </c>
+      <c r="BH121">
+        <v>2.85</v>
+      </c>
+      <c r="BI121">
+        <v>1.67</v>
+      </c>
+      <c r="BJ121">
+        <v>2.13</v>
+      </c>
+      <c r="BK121">
+        <v>2.09</v>
+      </c>
+      <c r="BL121">
+        <v>1.69</v>
+      </c>
+      <c r="BM121">
+        <v>2.72</v>
+      </c>
+      <c r="BN121">
+        <v>1.42</v>
+      </c>
+      <c r="BO121">
+        <v>3.78</v>
+      </c>
+      <c r="BP121">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7727623</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45658.47916666666</v>
+      </c>
+      <c r="F122">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H122" t="s">
+        <v>78</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122" t="s">
+        <v>161</v>
+      </c>
+      <c r="P122" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q122">
+        <v>1.62</v>
+      </c>
+      <c r="R122">
+        <v>2.6</v>
+      </c>
+      <c r="S122">
+        <v>11</v>
+      </c>
+      <c r="T122">
+        <v>1.3</v>
+      </c>
+      <c r="U122">
+        <v>3.4</v>
+      </c>
+      <c r="V122">
+        <v>2.5</v>
+      </c>
+      <c r="W122">
+        <v>1.5</v>
+      </c>
+      <c r="X122">
+        <v>5.5</v>
+      </c>
+      <c r="Y122">
+        <v>1.13</v>
+      </c>
+      <c r="Z122">
+        <v>1.18</v>
+      </c>
+      <c r="AA122">
+        <v>7</v>
+      </c>
+      <c r="AB122">
+        <v>8.5</v>
+      </c>
+      <c r="AC122">
+        <v>1.01</v>
+      </c>
+      <c r="AD122">
+        <v>15</v>
+      </c>
+      <c r="AE122">
+        <v>1.16</v>
+      </c>
+      <c r="AF122">
+        <v>4.15</v>
+      </c>
+      <c r="AG122">
+        <v>1.66</v>
+      </c>
+      <c r="AH122">
+        <v>2.12</v>
+      </c>
+      <c r="AI122">
+        <v>2.63</v>
+      </c>
+      <c r="AJ122">
+        <v>1.44</v>
+      </c>
+      <c r="AK122">
+        <v>1</v>
+      </c>
+      <c r="AL122">
+        <v>1.08</v>
+      </c>
+      <c r="AM122">
+        <v>4.3</v>
+      </c>
+      <c r="AN122">
+        <v>1.56</v>
+      </c>
+      <c r="AO122">
+        <v>0.3</v>
+      </c>
+      <c r="AP122">
+        <v>1.7</v>
+      </c>
+      <c r="AQ122">
+        <v>0.27</v>
+      </c>
+      <c r="AR122">
+        <v>1.34</v>
+      </c>
+      <c r="AS122">
+        <v>0.91</v>
+      </c>
+      <c r="AT122">
+        <v>2.25</v>
+      </c>
+      <c r="AU122">
+        <v>5</v>
+      </c>
+      <c r="AV122">
+        <v>3</v>
+      </c>
+      <c r="AW122">
+        <v>12</v>
+      </c>
+      <c r="AX122">
+        <v>2</v>
+      </c>
+      <c r="AY122">
+        <v>17</v>
+      </c>
+      <c r="AZ122">
+        <v>5</v>
+      </c>
+      <c r="BA122">
+        <v>7</v>
+      </c>
+      <c r="BB122">
+        <v>4</v>
+      </c>
+      <c r="BC122">
+        <v>11</v>
+      </c>
+      <c r="BD122">
+        <v>0</v>
+      </c>
+      <c r="BE122">
+        <v>0</v>
+      </c>
+      <c r="BF122">
+        <v>0</v>
+      </c>
+      <c r="BG122">
+        <v>0</v>
+      </c>
+      <c r="BH122">
+        <v>0</v>
+      </c>
+      <c r="BI122">
+        <v>0</v>
+      </c>
+      <c r="BJ122">
+        <v>0</v>
+      </c>
+      <c r="BK122">
+        <v>0</v>
+      </c>
+      <c r="BL122">
+        <v>0</v>
+      </c>
+      <c r="BM122">
+        <v>0</v>
+      </c>
+      <c r="BN122">
+        <v>0</v>
+      </c>
+      <c r="BO122">
+        <v>0</v>
+      </c>
+      <c r="BP122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7727622</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45658.47916666666</v>
+      </c>
+      <c r="F123">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>72</v>
+      </c>
+      <c r="H123" t="s">
+        <v>70</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>173</v>
+      </c>
+      <c r="P123" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q123">
+        <v>3.1</v>
+      </c>
+      <c r="R123">
+        <v>2.25</v>
+      </c>
+      <c r="S123">
+        <v>2.88</v>
+      </c>
+      <c r="T123">
+        <v>1.33</v>
+      </c>
+      <c r="U123">
+        <v>3.25</v>
+      </c>
+      <c r="V123">
+        <v>2.5</v>
+      </c>
+      <c r="W123">
+        <v>1.5</v>
+      </c>
+      <c r="X123">
+        <v>5.5</v>
+      </c>
+      <c r="Y123">
+        <v>1.13</v>
+      </c>
+      <c r="Z123">
+        <v>2.5</v>
+      </c>
+      <c r="AA123">
+        <v>3.6</v>
+      </c>
+      <c r="AB123">
+        <v>2.25</v>
+      </c>
+      <c r="AC123">
+        <v>1.01</v>
+      </c>
+      <c r="AD123">
+        <v>11</v>
+      </c>
+      <c r="AE123">
+        <v>1.15</v>
+      </c>
+      <c r="AF123">
+        <v>4.2</v>
+      </c>
+      <c r="AG123">
+        <v>1.62</v>
+      </c>
+      <c r="AH123">
+        <v>2.18</v>
+      </c>
+      <c r="AI123">
+        <v>1.57</v>
+      </c>
+      <c r="AJ123">
+        <v>2.25</v>
+      </c>
+      <c r="AK123">
+        <v>1.53</v>
+      </c>
+      <c r="AL123">
+        <v>1.24</v>
+      </c>
+      <c r="AM123">
+        <v>1.41</v>
+      </c>
+      <c r="AN123">
+        <v>1</v>
+      </c>
+      <c r="AO123">
+        <v>1</v>
+      </c>
+      <c r="AP123">
+        <v>1.18</v>
+      </c>
+      <c r="AQ123">
+        <v>0.9</v>
+      </c>
+      <c r="AR123">
+        <v>1.73</v>
+      </c>
+      <c r="AS123">
+        <v>1.31</v>
+      </c>
+      <c r="AT123">
+        <v>3.04</v>
+      </c>
+      <c r="AU123">
+        <v>6</v>
+      </c>
+      <c r="AV123">
+        <v>5</v>
+      </c>
+      <c r="AW123">
+        <v>6</v>
+      </c>
+      <c r="AX123">
+        <v>4</v>
+      </c>
+      <c r="AY123">
+        <v>12</v>
+      </c>
+      <c r="AZ123">
+        <v>9</v>
+      </c>
+      <c r="BA123">
+        <v>8</v>
+      </c>
+      <c r="BB123">
+        <v>3</v>
+      </c>
+      <c r="BC123">
+        <v>11</v>
+      </c>
+      <c r="BD123">
+        <v>2.13</v>
+      </c>
+      <c r="BE123">
+        <v>6.4</v>
+      </c>
+      <c r="BF123">
+        <v>2.03</v>
+      </c>
+      <c r="BG123">
+        <v>1.19</v>
+      </c>
+      <c r="BH123">
+        <v>4.35</v>
+      </c>
+      <c r="BI123">
+        <v>1.3</v>
+      </c>
+      <c r="BJ123">
+        <v>2.97</v>
+      </c>
+      <c r="BK123">
+        <v>1.53</v>
+      </c>
+      <c r="BL123">
+        <v>2.21</v>
+      </c>
+      <c r="BM123">
+        <v>1.95</v>
+      </c>
+      <c r="BN123">
+        <v>1.77</v>
+      </c>
+      <c r="BO123">
+        <v>2.46</v>
+      </c>
+      <c r="BP123">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="240">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,6 +538,12 @@
     <t>['53', '87']</t>
   </si>
   <si>
+    <t>['43', '51', '55', '62', '63']</t>
+  </si>
+  <si>
+    <t>['63', '90+9']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -725,6 +731,9 @@
   </si>
   <si>
     <t>['63', '70']</t>
+  </si>
+  <si>
+    <t>['2']</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP123"/>
+  <dimension ref="A1:BP126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1345,7 +1354,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1551,7 +1560,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1757,7 +1766,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2169,7 +2178,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2456,7 +2465,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ7">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2787,7 +2796,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -3071,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ10">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3199,7 +3208,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3280,7 +3289,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ11">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3405,7 +3414,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3611,7 +3620,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3817,7 +3826,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4101,7 +4110,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ15">
         <v>2.3</v>
@@ -5053,7 +5062,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5134,7 +5143,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ20">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR20">
         <v>1.46</v>
@@ -5337,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ21">
         <v>0.27</v>
@@ -5465,7 +5474,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5546,7 +5555,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ22">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR22">
         <v>1.28</v>
@@ -5749,10 +5758,10 @@
         <v>2</v>
       </c>
       <c r="AP23">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ23">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR23">
         <v>1.19</v>
@@ -5877,7 +5886,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6083,7 +6092,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -6164,7 +6173,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ25">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR25">
         <v>0.89</v>
@@ -6289,7 +6298,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6495,7 +6504,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -6779,7 +6788,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ28">
         <v>0.27</v>
@@ -6988,7 +6997,7 @@
         <v>1</v>
       </c>
       <c r="AQ29">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR29">
         <v>1.93</v>
@@ -7113,7 +7122,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -7191,7 +7200,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ30">
         <v>2.1</v>
@@ -7319,7 +7328,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7603,7 +7612,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ32">
         <v>1.8</v>
@@ -7937,7 +7946,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8555,7 +8564,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -8636,7 +8645,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR37">
         <v>1.1</v>
@@ -9045,7 +9054,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ39">
         <v>1.09</v>
@@ -9379,7 +9388,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9460,7 +9469,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ41">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR41">
         <v>1.52</v>
@@ -9585,7 +9594,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9663,7 +9672,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ42">
         <v>2.1</v>
@@ -9791,7 +9800,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10078,7 +10087,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ44">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR44">
         <v>1.05</v>
@@ -10409,7 +10418,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10615,7 +10624,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q47">
         <v>2.25</v>
@@ -10696,7 +10705,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ47">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR47">
         <v>1.34</v>
@@ -10821,7 +10830,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q48">
         <v>2.5</v>
@@ -10899,7 +10908,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ48">
         <v>1.09</v>
@@ -11105,10 +11114,10 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ49">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR49">
         <v>2.19</v>
@@ -11233,7 +11242,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q50">
         <v>1.67</v>
@@ -11311,7 +11320,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ50">
         <v>1.2</v>
@@ -11439,7 +11448,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11645,7 +11654,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11929,7 +11938,7 @@
         <v>2.5</v>
       </c>
       <c r="AP53">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ53">
         <v>1.45</v>
@@ -12263,7 +12272,7 @@
         <v>114</v>
       </c>
       <c r="P55" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12469,7 +12478,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q56">
         <v>6.5</v>
@@ -12675,7 +12684,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12962,7 +12971,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR58">
         <v>1.13</v>
@@ -13293,7 +13302,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13577,7 +13586,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ61">
         <v>1.09</v>
@@ -13705,7 +13714,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13911,7 +13920,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -14117,7 +14126,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q64">
         <v>1.42</v>
@@ -14195,7 +14204,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ64">
         <v>1.8</v>
@@ -14401,10 +14410,10 @@
         <v>1.4</v>
       </c>
       <c r="AP65">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ65">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR65">
         <v>1.25</v>
@@ -14529,7 +14538,7 @@
         <v>85</v>
       </c>
       <c r="P66" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q66">
         <v>9</v>
@@ -14816,7 +14825,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ67">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR67">
         <v>1.7</v>
@@ -14941,7 +14950,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q68">
         <v>2.5</v>
@@ -15022,7 +15031,7 @@
         <v>1</v>
       </c>
       <c r="AQ68">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR68">
         <v>1.2</v>
@@ -15147,7 +15156,7 @@
         <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15431,7 +15440,7 @@
         <v>2.14</v>
       </c>
       <c r="AP70">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ70">
         <v>1.45</v>
@@ -15637,7 +15646,7 @@
         <v>1.4</v>
       </c>
       <c r="AP71">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ71">
         <v>0.7</v>
@@ -15765,7 +15774,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16177,7 +16186,7 @@
         <v>135</v>
       </c>
       <c r="P74" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q74">
         <v>1.73</v>
@@ -16383,7 +16392,7 @@
         <v>136</v>
       </c>
       <c r="P75" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -16670,7 +16679,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ76">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR76">
         <v>1.39</v>
@@ -16795,7 +16804,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -16876,7 +16885,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ77">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR77">
         <v>1.29</v>
@@ -17001,7 +17010,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17079,7 +17088,7 @@
         <v>1.4</v>
       </c>
       <c r="AP78">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ78">
         <v>1.2</v>
@@ -17207,7 +17216,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q79">
         <v>3.1</v>
@@ -17491,7 +17500,7 @@
         <v>2.17</v>
       </c>
       <c r="AP80">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ80">
         <v>1.8</v>
@@ -17619,7 +17628,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q81">
         <v>19</v>
@@ -17825,7 +17834,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q82">
         <v>1.5</v>
@@ -17906,7 +17915,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ82">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR82">
         <v>1.39</v>
@@ -18031,7 +18040,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18237,7 +18246,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -18727,7 +18736,7 @@
         <v>1.17</v>
       </c>
       <c r="AP86">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ86">
         <v>0.7</v>
@@ -19061,7 +19070,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19473,7 +19482,7 @@
         <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q90">
         <v>4.75</v>
@@ -19554,7 +19563,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ90">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR90">
         <v>0.87</v>
@@ -19679,7 +19688,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19760,7 +19769,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ91">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR91">
         <v>1.58</v>
@@ -20169,7 +20178,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ93">
         <v>0.7</v>
@@ -20297,7 +20306,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20581,7 +20590,7 @@
         <v>2.29</v>
       </c>
       <c r="AP95">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ95">
         <v>1.9</v>
@@ -20709,7 +20718,7 @@
         <v>153</v>
       </c>
       <c r="P96" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -20915,7 +20924,7 @@
         <v>154</v>
       </c>
       <c r="P97" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q97">
         <v>1.73</v>
@@ -20993,7 +21002,7 @@
         <v>2.5</v>
       </c>
       <c r="AP97">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ97">
         <v>2.3</v>
@@ -21408,7 +21417,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ99">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR99">
         <v>1.69</v>
@@ -21611,7 +21620,7 @@
         <v>1.25</v>
       </c>
       <c r="AP100">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ100">
         <v>1.2</v>
@@ -21739,7 +21748,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q101">
         <v>3.4</v>
@@ -21820,7 +21829,7 @@
         <v>1</v>
       </c>
       <c r="AQ101">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR101">
         <v>1.77</v>
@@ -21945,7 +21954,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22026,7 +22035,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ102">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR102">
         <v>1.32</v>
@@ -22229,7 +22238,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ103">
         <v>1.9</v>
@@ -22357,7 +22366,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22975,7 +22984,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23181,7 +23190,7 @@
         <v>163</v>
       </c>
       <c r="P108" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q108">
         <v>2.75</v>
@@ -23593,7 +23602,7 @@
         <v>165</v>
       </c>
       <c r="P110" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -24005,7 +24014,7 @@
         <v>167</v>
       </c>
       <c r="P112" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q112">
         <v>1.4</v>
@@ -24083,10 +24092,10 @@
         <v>0.43</v>
       </c>
       <c r="AP112">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ112">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR112">
         <v>2.55</v>
@@ -24211,7 +24220,7 @@
         <v>168</v>
       </c>
       <c r="P113" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q113">
         <v>4.75</v>
@@ -24417,7 +24426,7 @@
         <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -24498,7 +24507,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ114">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR114">
         <v>1.45</v>
@@ -24829,7 +24838,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -25035,7 +25044,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25241,7 +25250,7 @@
         <v>85</v>
       </c>
       <c r="P118" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25731,10 +25740,10 @@
         <v>1.33</v>
       </c>
       <c r="AP120">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ120">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR120">
         <v>2.7</v>
@@ -25859,7 +25868,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q121">
         <v>2.1</v>
@@ -25937,7 +25946,7 @@
         <v>1.5</v>
       </c>
       <c r="AP121">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ121">
         <v>1.45</v>
@@ -26143,7 +26152,7 @@
         <v>0.3</v>
       </c>
       <c r="AP122">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ122">
         <v>0.27</v>
@@ -26167,13 +26176,13 @@
         <v>12</v>
       </c>
       <c r="AX122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY122">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ122">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA122">
         <v>7</v>
@@ -26352,7 +26361,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ123">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR123">
         <v>1.73</v>
@@ -26364,10 +26373,10 @@
         <v>3.04</v>
       </c>
       <c r="AU123">
+        <v>7</v>
+      </c>
+      <c r="AV123">
         <v>6</v>
-      </c>
-      <c r="AV123">
-        <v>5</v>
       </c>
       <c r="AW123">
         <v>6</v>
@@ -26376,10 +26385,10 @@
         <v>4</v>
       </c>
       <c r="AY123">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ123">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA123">
         <v>8</v>
@@ -26428,6 +26437,624 @@
       </c>
       <c r="BP123">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7727606</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45661.47916666666</v>
+      </c>
+      <c r="F124">
+        <v>19</v>
+      </c>
+      <c r="G124" t="s">
+        <v>80</v>
+      </c>
+      <c r="H124" t="s">
+        <v>74</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>5</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>6</v>
+      </c>
+      <c r="O124" t="s">
+        <v>174</v>
+      </c>
+      <c r="P124" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q124">
+        <v>1.83</v>
+      </c>
+      <c r="R124">
+        <v>2.4</v>
+      </c>
+      <c r="S124">
+        <v>7</v>
+      </c>
+      <c r="T124">
+        <v>1.33</v>
+      </c>
+      <c r="U124">
+        <v>3.25</v>
+      </c>
+      <c r="V124">
+        <v>2.5</v>
+      </c>
+      <c r="W124">
+        <v>1.5</v>
+      </c>
+      <c r="X124">
+        <v>5.5</v>
+      </c>
+      <c r="Y124">
+        <v>1.13</v>
+      </c>
+      <c r="Z124">
+        <v>1.38</v>
+      </c>
+      <c r="AA124">
+        <v>4.33</v>
+      </c>
+      <c r="AB124">
+        <v>7</v>
+      </c>
+      <c r="AC124">
+        <v>1.01</v>
+      </c>
+      <c r="AD124">
+        <v>15</v>
+      </c>
+      <c r="AE124">
+        <v>1.21</v>
+      </c>
+      <c r="AF124">
+        <v>4.1</v>
+      </c>
+      <c r="AG124">
+        <v>1.73</v>
+      </c>
+      <c r="AH124">
+        <v>2</v>
+      </c>
+      <c r="AI124">
+        <v>2</v>
+      </c>
+      <c r="AJ124">
+        <v>1.73</v>
+      </c>
+      <c r="AK124">
+        <v>1.06</v>
+      </c>
+      <c r="AL124">
+        <v>1.12</v>
+      </c>
+      <c r="AM124">
+        <v>2.55</v>
+      </c>
+      <c r="AN124">
+        <v>1.7</v>
+      </c>
+      <c r="AO124">
+        <v>0.67</v>
+      </c>
+      <c r="AP124">
+        <v>1.82</v>
+      </c>
+      <c r="AQ124">
+        <v>0.6</v>
+      </c>
+      <c r="AR124">
+        <v>1.41</v>
+      </c>
+      <c r="AS124">
+        <v>1.33</v>
+      </c>
+      <c r="AT124">
+        <v>2.74</v>
+      </c>
+      <c r="AU124">
+        <v>12</v>
+      </c>
+      <c r="AV124">
+        <v>5</v>
+      </c>
+      <c r="AW124">
+        <v>7</v>
+      </c>
+      <c r="AX124">
+        <v>3</v>
+      </c>
+      <c r="AY124">
+        <v>19</v>
+      </c>
+      <c r="AZ124">
+        <v>8</v>
+      </c>
+      <c r="BA124">
+        <v>6</v>
+      </c>
+      <c r="BB124">
+        <v>0</v>
+      </c>
+      <c r="BC124">
+        <v>6</v>
+      </c>
+      <c r="BD124">
+        <v>1.21</v>
+      </c>
+      <c r="BE124">
+        <v>10.25</v>
+      </c>
+      <c r="BF124">
+        <v>5.15</v>
+      </c>
+      <c r="BG124">
+        <v>1.24</v>
+      </c>
+      <c r="BH124">
+        <v>3.22</v>
+      </c>
+      <c r="BI124">
+        <v>1.47</v>
+      </c>
+      <c r="BJ124">
+        <v>2.29</v>
+      </c>
+      <c r="BK124">
+        <v>1.91</v>
+      </c>
+      <c r="BL124">
+        <v>1.8</v>
+      </c>
+      <c r="BM124">
+        <v>2.35</v>
+      </c>
+      <c r="BN124">
+        <v>1.44</v>
+      </c>
+      <c r="BO124">
+        <v>3.14</v>
+      </c>
+      <c r="BP124">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7727611</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45661.47916666666</v>
+      </c>
+      <c r="F125">
+        <v>19</v>
+      </c>
+      <c r="G125" t="s">
+        <v>77</v>
+      </c>
+      <c r="H125" t="s">
+        <v>73</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125" t="s">
+        <v>142</v>
+      </c>
+      <c r="P125" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q125">
+        <v>2.2</v>
+      </c>
+      <c r="R125">
+        <v>2.2</v>
+      </c>
+      <c r="S125">
+        <v>4.75</v>
+      </c>
+      <c r="T125">
+        <v>1.36</v>
+      </c>
+      <c r="U125">
+        <v>3</v>
+      </c>
+      <c r="V125">
+        <v>2.75</v>
+      </c>
+      <c r="W125">
+        <v>1.4</v>
+      </c>
+      <c r="X125">
+        <v>6.5</v>
+      </c>
+      <c r="Y125">
+        <v>1.1</v>
+      </c>
+      <c r="Z125">
+        <v>1.75</v>
+      </c>
+      <c r="AA125">
+        <v>3.75</v>
+      </c>
+      <c r="AB125">
+        <v>3.8</v>
+      </c>
+      <c r="AC125">
+        <v>1.04</v>
+      </c>
+      <c r="AD125">
+        <v>11</v>
+      </c>
+      <c r="AE125">
+        <v>1.27</v>
+      </c>
+      <c r="AF125">
+        <v>3.5</v>
+      </c>
+      <c r="AG125">
+        <v>1.73</v>
+      </c>
+      <c r="AH125">
+        <v>2</v>
+      </c>
+      <c r="AI125">
+        <v>1.83</v>
+      </c>
+      <c r="AJ125">
+        <v>1.83</v>
+      </c>
+      <c r="AK125">
+        <v>1.15</v>
+      </c>
+      <c r="AL125">
+        <v>1.21</v>
+      </c>
+      <c r="AM125">
+        <v>1.9</v>
+      </c>
+      <c r="AN125">
+        <v>2.1</v>
+      </c>
+      <c r="AO125">
+        <v>1.2</v>
+      </c>
+      <c r="AP125">
+        <v>2.18</v>
+      </c>
+      <c r="AQ125">
+        <v>1.09</v>
+      </c>
+      <c r="AR125">
+        <v>1.81</v>
+      </c>
+      <c r="AS125">
+        <v>1.46</v>
+      </c>
+      <c r="AT125">
+        <v>3.27</v>
+      </c>
+      <c r="AU125">
+        <v>4</v>
+      </c>
+      <c r="AV125">
+        <v>2</v>
+      </c>
+      <c r="AW125">
+        <v>5</v>
+      </c>
+      <c r="AX125">
+        <v>8</v>
+      </c>
+      <c r="AY125">
+        <v>9</v>
+      </c>
+      <c r="AZ125">
+        <v>10</v>
+      </c>
+      <c r="BA125">
+        <v>4</v>
+      </c>
+      <c r="BB125">
+        <v>5</v>
+      </c>
+      <c r="BC125">
+        <v>9</v>
+      </c>
+      <c r="BD125">
+        <v>0</v>
+      </c>
+      <c r="BE125">
+        <v>0</v>
+      </c>
+      <c r="BF125">
+        <v>0</v>
+      </c>
+      <c r="BG125">
+        <v>0</v>
+      </c>
+      <c r="BH125">
+        <v>0</v>
+      </c>
+      <c r="BI125">
+        <v>0</v>
+      </c>
+      <c r="BJ125">
+        <v>0</v>
+      </c>
+      <c r="BK125">
+        <v>0</v>
+      </c>
+      <c r="BL125">
+        <v>0</v>
+      </c>
+      <c r="BM125">
+        <v>0</v>
+      </c>
+      <c r="BN125">
+        <v>0</v>
+      </c>
+      <c r="BO125">
+        <v>0</v>
+      </c>
+      <c r="BP125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7727607</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45661.47916666666</v>
+      </c>
+      <c r="F126">
+        <v>19</v>
+      </c>
+      <c r="G126" t="s">
+        <v>81</v>
+      </c>
+      <c r="H126" t="s">
+        <v>70</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126" t="s">
+        <v>175</v>
+      </c>
+      <c r="P126" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q126">
+        <v>1.44</v>
+      </c>
+      <c r="R126">
+        <v>3.1</v>
+      </c>
+      <c r="S126">
+        <v>11</v>
+      </c>
+      <c r="T126">
+        <v>1.2</v>
+      </c>
+      <c r="U126">
+        <v>4.33</v>
+      </c>
+      <c r="V126">
+        <v>1.83</v>
+      </c>
+      <c r="W126">
+        <v>1.83</v>
+      </c>
+      <c r="X126">
+        <v>3.75</v>
+      </c>
+      <c r="Y126">
+        <v>1.25</v>
+      </c>
+      <c r="Z126">
+        <v>1.13</v>
+      </c>
+      <c r="AA126">
+        <v>8.5</v>
+      </c>
+      <c r="AB126">
+        <v>13</v>
+      </c>
+      <c r="AC126">
+        <v>1</v>
+      </c>
+      <c r="AD126">
+        <v>23</v>
+      </c>
+      <c r="AE126">
+        <v>1.01</v>
+      </c>
+      <c r="AF126">
+        <v>7.7</v>
+      </c>
+      <c r="AG126">
+        <v>1.3</v>
+      </c>
+      <c r="AH126">
+        <v>3.4</v>
+      </c>
+      <c r="AI126">
+        <v>2.1</v>
+      </c>
+      <c r="AJ126">
+        <v>1.67</v>
+      </c>
+      <c r="AK126">
+        <v>1.01</v>
+      </c>
+      <c r="AL126">
+        <v>1.02</v>
+      </c>
+      <c r="AM126">
+        <v>4</v>
+      </c>
+      <c r="AN126">
+        <v>2.4</v>
+      </c>
+      <c r="AO126">
+        <v>0.9</v>
+      </c>
+      <c r="AP126">
+        <v>2.45</v>
+      </c>
+      <c r="AQ126">
+        <v>0.82</v>
+      </c>
+      <c r="AR126">
+        <v>2.58</v>
+      </c>
+      <c r="AS126">
+        <v>1.32</v>
+      </c>
+      <c r="AT126">
+        <v>3.9</v>
+      </c>
+      <c r="AU126">
+        <v>8</v>
+      </c>
+      <c r="AV126">
+        <v>4</v>
+      </c>
+      <c r="AW126">
+        <v>11</v>
+      </c>
+      <c r="AX126">
+        <v>1</v>
+      </c>
+      <c r="AY126">
+        <v>19</v>
+      </c>
+      <c r="AZ126">
+        <v>5</v>
+      </c>
+      <c r="BA126">
+        <v>16</v>
+      </c>
+      <c r="BB126">
+        <v>0</v>
+      </c>
+      <c r="BC126">
+        <v>16</v>
+      </c>
+      <c r="BD126">
+        <v>1.02</v>
+      </c>
+      <c r="BE126">
+        <v>17.75</v>
+      </c>
+      <c r="BF126">
+        <v>12.75</v>
+      </c>
+      <c r="BG126">
+        <v>1.15</v>
+      </c>
+      <c r="BH126">
+        <v>5</v>
+      </c>
+      <c r="BI126">
+        <v>1.21</v>
+      </c>
+      <c r="BJ126">
+        <v>3.44</v>
+      </c>
+      <c r="BK126">
+        <v>1.4</v>
+      </c>
+      <c r="BL126">
+        <v>2.48</v>
+      </c>
+      <c r="BM126">
+        <v>1.77</v>
+      </c>
+      <c r="BN126">
+        <v>1.95</v>
+      </c>
+      <c r="BO126">
+        <v>2.1</v>
+      </c>
+      <c r="BP126">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -26591,7 +26591,7 @@
         <v>3</v>
       </c>
       <c r="AY124">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ124">
         <v>8</v>
@@ -26788,7 +26788,7 @@
         <v>4</v>
       </c>
       <c r="AV125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW125">
         <v>5</v>
@@ -26797,10 +26797,10 @@
         <v>8</v>
       </c>
       <c r="AY125">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ125">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA125">
         <v>4</v>
@@ -26991,7 +26991,7 @@
         <v>3.9</v>
       </c>
       <c r="AU126">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV126">
         <v>4</v>
@@ -27003,7 +27003,7 @@
         <v>1</v>
       </c>
       <c r="AY126">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="AZ126">
         <v>5</v>
